--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -415,46 +625,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -607,17 +691,17 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
     <col min="7" max="7" width="14.42578125" customWidth="true"/>
-    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.7109375" customWidth="true"/>
     <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
     <col min="14" max="14" width="14.42578125" customWidth="true"/>
@@ -625,2290 +709,2290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64511576677500004</v>
+        <v>0.6761048234</v>
       </c>
       <c r="B2" s="0">
-        <v>0.71333442441999995</v>
+        <v>0.43428668834999995</v>
       </c>
       <c r="C2" s="0">
-        <v>0.40568988675000006</v>
+        <v>0.203691097495</v>
       </c>
       <c r="D2" s="0">
-        <v>0.31041164264999999</v>
+        <v>-0.20141085477499998</v>
       </c>
       <c r="E2" s="0">
-        <v>0.39470699712499996</v>
+        <v>0.20029779171149997</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.22517923590000002</v>
+        <v>-0.10983240868000002</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.03739413326499999</v>
+        <v>-0.19012533096999995</v>
       </c>
       <c r="H2" s="0">
-        <v>0.074083389694999988</v>
+        <v>-0.10153926494999999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.13521829179</v>
+        <v>-0.084443427449999942</v>
       </c>
       <c r="J2" s="0">
-        <v>-1.1196040291</v>
+        <v>-0.74994893475000002</v>
       </c>
       <c r="K2" s="0">
-        <v>0.73889913805000007</v>
+        <v>0.60054440954999999</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.50205722875000003</v>
+        <v>-0.69317822475000002</v>
       </c>
       <c r="M2" s="0">
-        <v>0.30266031277999994</v>
+        <v>0.00034198390500000952</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.15049097219000004</v>
+        <v>0.015194834200000035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.23407386889999998</v>
+        <v>-0.14451784711666665</v>
       </c>
       <c r="B3" s="0">
-        <v>0.19393864680000006</v>
+        <v>0.077186072333333466</v>
       </c>
       <c r="C3" s="0">
-        <v>0.68586243776</v>
+        <v>0.7635104887216666</v>
       </c>
       <c r="D3" s="0">
-        <v>0.86936176677999999</v>
+        <v>0.8809890226499999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.46012630099999996</v>
+        <v>0.64865885354999997</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0092971478500000204</v>
+        <v>0.29230769038333337</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.22214162342999999</v>
+        <v>-0.05294285688</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.24697750165000004</v>
+        <v>-0.076336415283333403</v>
       </c>
       <c r="I3" s="0">
-        <v>0.32615361613000005</v>
+        <v>0.33884944697000002</v>
       </c>
       <c r="J3" s="0">
-        <v>0.32605882091999994</v>
+        <v>0.17757583816166661</v>
       </c>
       <c r="K3" s="0">
-        <v>1.1641095403000001</v>
+        <v>1.3136087929300002</v>
       </c>
       <c r="L3" s="0">
-        <v>0.030882855250000008</v>
+        <v>0.08479941135000002</v>
       </c>
       <c r="M3" s="0">
-        <v>0.16141692227999993</v>
+        <v>0.17507093708333327</v>
       </c>
       <c r="N3" s="0">
-        <v>0.47729519085</v>
+        <v>0.14795158023333338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.041857196706666655</v>
+        <v>0.092541292340000025</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.28032813760000003</v>
+        <v>-0.45444190810000001</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.0428598201333334</v>
+        <v>-1.0587492268666667</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.79283451285666673</v>
+        <v>-0.44709180671666671</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.20193008856833333</v>
+        <v>0.014738889900000024</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.38375626212166669</v>
+        <v>-0.19590167222000004</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.42459224780666671</v>
+        <v>-0.56544503760166664</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.064244013983333348</v>
+        <v>-0.12141475049166667</v>
       </c>
       <c r="I4" s="0">
-        <v>0.041452001016666656</v>
+        <v>0.089840653116666641</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.1675622256</v>
+        <v>-1.0789373034999998</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.67943481899666669</v>
+        <v>-0.93343784991000001</v>
       </c>
       <c r="L4" s="0">
-        <v>0.23774648556666664</v>
+        <v>0.44675597733666661</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.59620603441833331</v>
+        <v>-0.69515921007000014</v>
       </c>
       <c r="N4" s="0">
-        <v>0.74114739758333337</v>
+        <v>0.82400913081666671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.32338462131000001</v>
+        <v>0.037956542390000014</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.11789717124266666</v>
+        <v>0.045085027650666659</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.19512393808333331</v>
+        <v>0.20639784258333335</v>
       </c>
       <c r="D5" s="0">
-        <v>-1.0445642591533333</v>
+        <v>-0.091872109220000026</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.86260165063333338</v>
+        <v>0.053498444090000041</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.19732956306333332</v>
+        <v>0.28578472754833334</v>
       </c>
       <c r="G5" s="0">
-        <v>0.056086134366666651</v>
+        <v>0.2887920460083333</v>
       </c>
       <c r="H5" s="0">
-        <v>0.53208305634999997</v>
+        <v>0.51804764170000006</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.89375126989999998</v>
+        <v>0.20232666150000003</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.95267871746666666</v>
+        <v>-0.21891170411666661</v>
       </c>
       <c r="K5" s="0">
-        <v>1.0794617708666667</v>
+        <v>0.89567643941666675</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.4005744886</v>
+        <v>0.5304351775166668</v>
       </c>
       <c r="M5" s="0">
-        <v>0.3598890834666667</v>
+        <v>0.74112346723333344</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.36054775263333333</v>
+        <v>1.0013596539833334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.090778868003333332</v>
+        <v>0.10888056491000001</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.26783643506166666</v>
+        <v>-0.15088190542333335</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.23543432107999998</v>
+        <v>-0.34677428146999995</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.66707357206666673</v>
+        <v>-0.45005285567000003</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.60025102279333331</v>
+        <v>-0.55911467708333329</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.50841535361333334</v>
+        <v>-0.46931456013333339</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.34911410449666669</v>
+        <v>-0.40243005292</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.071938460169999996</v>
+        <v>-0.01946515565333333</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.52268033161000005</v>
+        <v>-0.32152639452666665</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.045205879003333338</v>
+        <v>-0.12271272253666665</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.0904819025499999</v>
+        <v>-1.1540981362833334</v>
       </c>
       <c r="L6" s="0">
-        <v>0.012086787950000011</v>
+        <v>0.35197060634999999</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.50346117178333338</v>
+        <v>-0.64425286640500001</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.89531450100666654</v>
+        <v>-0.70935146865666654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.40512334972666669</v>
+        <v>-0.17542590616166664</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.086233208133333336</v>
+        <v>-0.090990305570000027</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.53827297643333338</v>
+        <v>-0.45715057423333327</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.69282721422666671</v>
+        <v>-0.64846057164333337</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.53982203596666667</v>
+        <v>-0.6694204067666667</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.47920167819999998</v>
+        <v>-0.41718563988000001</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.23816344082999996</v>
+        <v>-0.12536223504666666</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.2802901852666666</v>
+        <v>0.010609042550000058</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.54152897425000002</v>
+        <v>-0.54061328891500005</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.69470623554333333</v>
+        <v>0.23665114585666669</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.42668187273333336</v>
+        <v>-0.63787826043333329</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.8737718137499999</v>
+        <v>-1.1053214064766668</v>
       </c>
       <c r="M7" s="0">
-        <v>-1.6216603730633334</v>
+        <v>-2.2095406094833336</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.63272380343333334</v>
+        <v>-1.4786669536333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.10993474864999997</v>
+        <v>0.01909643946666667</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24754966001666662</v>
+        <v>0.22809929849999988</v>
       </c>
       <c r="C8" s="0">
-        <v>0.2633765611333333</v>
+        <v>0.28186153393333335</v>
       </c>
       <c r="D8" s="0">
-        <v>0.30779020395333334</v>
+        <v>-0.10722852971666666</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.3137435875016667</v>
+        <v>-0.39003689686666676</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.1131599784566667</v>
+        <v>-0.098092610633333521</v>
       </c>
       <c r="G8" s="0">
-        <v>0.01539052198333335</v>
+        <v>0.41092071396666674</v>
       </c>
       <c r="H8" s="0">
-        <v>0.046254222136666578</v>
+        <v>0.21874117376666666</v>
       </c>
       <c r="I8" s="0">
-        <v>0.15203164743333331</v>
+        <v>0.11971379954999994</v>
       </c>
       <c r="J8" s="0">
-        <v>0.16937305341666664</v>
+        <v>0.62791512620000023</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.7077781701000001</v>
+        <v>-1.0224112163716668</v>
       </c>
       <c r="L8" s="0">
-        <v>0.32600290726666659</v>
+        <v>0.39700024419999991</v>
       </c>
       <c r="M8" s="0">
-        <v>0.66935368006666662</v>
+        <v>0.65018249017666663</v>
       </c>
       <c r="N8" s="0">
-        <v>0.93330152330000005</v>
+        <v>0.98531227241666675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.38489090083333333</v>
+        <v>0.45522423725666661</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.21611846063333334</v>
+        <v>0.099577291600000006</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.047795846650000001</v>
+        <v>-0.25020386799</v>
       </c>
       <c r="D9" s="0">
-        <v>0.56610931333333336</v>
+        <v>0.40165437237166668</v>
       </c>
       <c r="E9" s="0">
-        <v>0.38524141812333335</v>
+        <v>0.61127506033333334</v>
       </c>
       <c r="F9" s="0">
-        <v>0.5122306861</v>
+        <v>0.17836239185833336</v>
       </c>
       <c r="G9" s="0">
-        <v>0.38571640333833324</v>
+        <v>-0.026980925761666663</v>
       </c>
       <c r="H9" s="0">
-        <v>0.28980958927200001</v>
+        <v>0.18644351435200002</v>
       </c>
       <c r="I9" s="0">
-        <v>0.29670433103349997</v>
+        <v>0.15923615827333334</v>
       </c>
       <c r="J9" s="0">
-        <v>1.2586894191866669</v>
+        <v>0.81235633722</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.4796975963000001</v>
+        <v>-1.1287010641166666</v>
       </c>
       <c r="L9" s="0">
-        <v>0.26839152196666666</v>
+        <v>0.43945050488333337</v>
       </c>
       <c r="M9" s="0">
-        <v>0.15026188228333331</v>
+        <v>-0.058312252750000015</v>
       </c>
       <c r="N9" s="0">
-        <v>0.57417268435500002</v>
+        <v>0.61284040015499996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.050324002566666637</v>
+        <v>-0.040189394899999994</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.076003879533333346</v>
+        <v>-0.18158217049999997</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.34955942926666672</v>
+        <v>-0.48938037306999999</v>
       </c>
       <c r="D10" s="0">
-        <v>0.23081340661666672</v>
+        <v>0.33742717919999998</v>
       </c>
       <c r="E10" s="0">
-        <v>0.097344897800000024</v>
+        <v>0.096399533650000008</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.32778611748333331</v>
+        <v>-0.6052242269</v>
       </c>
       <c r="G10" s="0">
-        <v>0.24789632578166659</v>
+        <v>0.019411745300000005</v>
       </c>
       <c r="H10" s="0">
-        <v>0.17730611458333331</v>
+        <v>0.043102266346666612</v>
       </c>
       <c r="I10" s="0">
-        <v>0.17369271616999998</v>
+        <v>-0.033004584213333368</v>
       </c>
       <c r="J10" s="0">
-        <v>0.35552557840666665</v>
+        <v>-0.071834847599999974</v>
       </c>
       <c r="K10" s="0">
-        <v>0.19218367233333344</v>
+        <v>0.0071628889833333653</v>
       </c>
       <c r="L10" s="0">
-        <v>0.63115082464999994</v>
+        <v>0.34765211564999987</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.39541251529666666</v>
+        <v>-0.57214687889999993</v>
       </c>
       <c r="N10" s="0">
-        <v>1.0298822557333331</v>
+        <v>1.3022844378499998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.31989473178333333</v>
+        <v>0.25758983923333334</v>
       </c>
       <c r="B11" s="0">
-        <v>0.10148068862833337</v>
+        <v>-0.049943407553333263</v>
       </c>
       <c r="C11" s="0">
-        <v>0.12977229479499999</v>
+        <v>0.10818368676666668</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.53924824665999993</v>
+        <v>-0.59180900452666663</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.46026747729999995</v>
+        <v>-0.432577036405</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.64466400514</v>
+        <v>-0.64737748214000002</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.046583613626666687</v>
+        <v>-0.29048237083000006</v>
       </c>
       <c r="H11" s="0">
-        <v>0.055418859633333345</v>
+        <v>-0.0095716081333332981</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.026119087714433387</v>
+        <v>0.034310356729999991</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.21964056959166658</v>
+        <v>0.035296155563333376</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.0493182826333334</v>
+        <v>-0.88845633797333334</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.0039315684833333142</v>
+        <v>0.21531826353333333</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.35020151335333327</v>
+        <v>0.083905291344999966</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.35661489355000003</v>
+        <v>-0.1135478470166667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.15851850430800002</v>
+        <v>-0.096726473451333353</v>
       </c>
       <c r="B12" s="0">
-        <v>0.19548938739666666</v>
+        <v>0.13687139930666664</v>
       </c>
       <c r="C12" s="0">
-        <v>0.59737162627666662</v>
+        <v>0.38041816553683333</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.16270894723733334</v>
+        <v>-0.14079506334166669</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.05261191771999997</v>
+        <v>-0.085945369583333292</v>
       </c>
       <c r="F12" s="0">
-        <v>0.40870171189666665</v>
+        <v>0.018929480534833343</v>
       </c>
       <c r="G12" s="0">
-        <v>0.50182928623666667</v>
+        <v>0.033003974703333328</v>
       </c>
       <c r="H12" s="0">
-        <v>0.42751841233333332</v>
+        <v>0.28491245030000001</v>
       </c>
       <c r="I12" s="0">
-        <v>0.47300689540000007</v>
+        <v>0.46259810043333338</v>
       </c>
       <c r="J12" s="0">
-        <v>0.25346512878333333</v>
+        <v>-0.031382013066666659</v>
       </c>
       <c r="K12" s="0">
-        <v>1.0734174908816667</v>
+        <v>0.86347121943333338</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.063676067331666586</v>
+        <v>0.16875438479999999</v>
       </c>
       <c r="M12" s="0">
-        <v>0.6810654496166666</v>
+        <v>0.80284915841666671</v>
       </c>
       <c r="N12" s="0">
-        <v>0.031465686850000119</v>
+        <v>-0.37385195371666663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.53106226326666672</v>
+        <v>-0.028558228166666661</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.3788854676566667</v>
+        <v>-0.050826591736666704</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.42614312852000003</v>
+        <v>-0.14789715674000001</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.032348659049999992</v>
+        <v>-0.0067390963833333373</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.17210144959999998</v>
+        <v>-0.14451107366316668</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.094956448566666657</v>
+        <v>0.30699167167499997</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.88346374478333334</v>
+        <v>-0.53088579248333334</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.35109668256666671</v>
+        <v>-0.10069446906666668</v>
       </c>
       <c r="I13" s="0">
-        <v>0.22195989443333333</v>
+        <v>0.22577264135</v>
       </c>
       <c r="J13" s="0">
-        <v>0.55834759166333336</v>
+        <v>0.65664018673333335</v>
       </c>
       <c r="K13" s="0">
-        <v>0.33943563269999999</v>
+        <v>0.44588896188333332</v>
       </c>
       <c r="L13" s="0">
-        <v>0.0034470782750000151</v>
+        <v>-0.020938386146666668</v>
       </c>
       <c r="M13" s="0">
-        <v>-0.74725238891666668</v>
+        <v>-1.0293132791166666</v>
       </c>
       <c r="N13" s="0">
-        <v>-0.19385803371666657</v>
+        <v>0.35847305771666665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.059555075616666661</v>
+        <v>-0.17747672363333333</v>
       </c>
       <c r="B14" s="0">
-        <v>0.61343448977333348</v>
+        <v>0.32335368000833331</v>
       </c>
       <c r="C14" s="0">
-        <v>0.48112606051666668</v>
+        <v>0.21518536867800003</v>
       </c>
       <c r="D14" s="0">
-        <v>0.41944084256666658</v>
+        <v>0.41060125824666666</v>
       </c>
       <c r="E14" s="0">
-        <v>0.58316201555333336</v>
+        <v>0.38812996976666669</v>
       </c>
       <c r="F14" s="0">
-        <v>1.0809982549199999</v>
+        <v>0.42144380248666663</v>
       </c>
       <c r="G14" s="0">
-        <v>0.69065632033333335</v>
+        <v>-0.19099283386666671</v>
       </c>
       <c r="H14" s="0">
-        <v>0.081042782495000007</v>
+        <v>-0.19722441941450003</v>
       </c>
       <c r="I14" s="0">
-        <v>0.25153970279666665</v>
+        <v>0.24185980454666664</v>
       </c>
       <c r="J14" s="0">
-        <v>0.90110603918333332</v>
+        <v>0.76676651444666666</v>
       </c>
       <c r="K14" s="0">
-        <v>0.40312757619833328</v>
+        <v>0.46975873758333331</v>
       </c>
       <c r="L14" s="0">
-        <v>0.28507000698333335</v>
+        <v>0.19044327315666665</v>
       </c>
       <c r="M14" s="0">
-        <v>-0.62960303786999994</v>
+        <v>-0.8953195275000001</v>
       </c>
       <c r="N14" s="0">
-        <v>0.011708580000000024</v>
+        <v>-0.075312551733333358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.49262343617333332</v>
+        <v>-0.32570544795</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0031301000566666404</v>
+        <v>0.5044578094433334</v>
       </c>
       <c r="C15" s="0">
-        <v>0.47385274128060034</v>
+        <v>0.55189833783060038</v>
       </c>
       <c r="D15" s="0">
-        <v>0.70851302326333332</v>
+        <v>0.51781687453616665</v>
       </c>
       <c r="E15" s="0">
-        <v>0.66326815414999996</v>
+        <v>0.51981883851666666</v>
       </c>
       <c r="F15" s="0">
-        <v>0.22165874203566666</v>
+        <v>0.32069390691899996</v>
       </c>
       <c r="G15" s="0">
-        <v>0.32467599732333341</v>
+        <v>0.38738632638999998</v>
       </c>
       <c r="H15" s="0">
-        <v>0.093066212850000024</v>
+        <v>0.25290684981666667</v>
       </c>
       <c r="I15" s="0">
-        <v>0.37296272998333335</v>
+        <v>0.19143510348333334</v>
       </c>
       <c r="J15" s="0">
-        <v>0.21894331188000005</v>
+        <v>0.18132553634666682</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.02938045735</v>
+        <v>0.41750443141833332</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.26596385596666672</v>
+        <v>0.15501745143333323</v>
       </c>
       <c r="M15" s="0">
-        <v>1.0213306969</v>
+        <v>0.84383535598333326</v>
       </c>
       <c r="N15" s="0">
-        <v>0.44165444420000005</v>
+        <v>0.87466104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.13473441371666667</v>
+        <v>0.08231677683166666</v>
       </c>
       <c r="B16" s="0">
-        <v>0.22783246323333337</v>
+        <v>0.29793760383333334</v>
       </c>
       <c r="C16" s="0">
-        <v>0.41785781762133334</v>
+        <v>0.50916197827133325</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0083985771883333671</v>
+        <v>0.38257427003333333</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.068125639683333322</v>
+        <v>0.17455165966666666</v>
       </c>
       <c r="F16" s="0">
-        <v>0.066118797850000022</v>
+        <v>0.171427951</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.32219420941666665</v>
+        <v>0.025318903733333356</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.14186380865000001</v>
+        <v>0.027890866479</v>
       </c>
       <c r="I16" s="0">
-        <v>0.29037462656666663</v>
+        <v>0.21758657244166663</v>
       </c>
       <c r="J16" s="0">
-        <v>0.35670505451666668</v>
+        <v>0.37581897361666666</v>
       </c>
       <c r="K16" s="0">
-        <v>0.052101521964999981</v>
+        <v>0.25301282450000001</v>
       </c>
       <c r="L16" s="0">
-        <v>0.35202486746666661</v>
+        <v>0.47153370226666669</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.31522881003999992</v>
+        <v>-0.36463386319000002</v>
       </c>
       <c r="N16" s="0">
-        <v>0.37127877965</v>
+        <v>0.33907096815000004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.65894368078333332</v>
+        <v>-0.47655504607999999</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.68887835273166675</v>
+        <v>-0.91391357080000002</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.49804862173333331</v>
+        <v>-0.80170685742333336</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.29960355288233331</v>
+        <v>-0.12893964445</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.28016900652333337</v>
+        <v>0.043985798921666708</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.38395389908499999</v>
+        <v>-0.37500198520000005</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.060030908974666647</v>
+        <v>-0.27588990017466664</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.37779370035000004</v>
+        <v>-0.48147970946666674</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.77461109436666664</v>
+        <v>-0.37547006673333333</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.080456974081666646</v>
+        <v>-1.2438319584999999</v>
       </c>
       <c r="K17" s="0">
-        <v>-1.6426531310499999</v>
+        <v>-1.6496703801000001</v>
       </c>
       <c r="L17" s="0">
-        <v>-2.5311054168333333</v>
+        <v>-2.2595195643333335</v>
       </c>
       <c r="M17" s="0">
-        <v>-2.0235793488000002</v>
+        <v>-1.52647325574</v>
       </c>
       <c r="N17" s="0">
-        <v>-2.3512035512999998</v>
+        <v>-1.1623523209333335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-1.4257737812</v>
+        <v>-0.83948829233333333</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.77330877936666664</v>
+        <v>-0.14743580178066668</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.62618116506666666</v>
+        <v>-0.21685759559999998</v>
       </c>
       <c r="D18" s="0">
-        <v>0.059389798533333371</v>
+        <v>0.029000022133333303</v>
       </c>
       <c r="E18" s="0">
-        <v>0.27399047120999998</v>
+        <v>0.25984952815399998</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.52231138069666661</v>
+        <v>-0.051806904296666664</v>
       </c>
       <c r="G18" s="0">
-        <v>-1.46152218</v>
+        <v>-0.040416037533333324</v>
       </c>
       <c r="H18" s="0">
-        <v>-1.1045753795666666</v>
+        <v>-0.094714852366666685</v>
       </c>
       <c r="I18" s="0">
-        <v>0.078577313350666672</v>
+        <v>0.61682608503733327</v>
       </c>
       <c r="J18" s="0">
-        <v>-1.2763858558700001</v>
+        <v>-0.38296582612333335</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.3393536238</v>
+        <v>-0.16921125517999996</v>
       </c>
       <c r="L18" s="0">
-        <v>-2.0401980282999999</v>
+        <v>-1.4035031605333332</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.89455599783666662</v>
+        <v>0.18616006002999999</v>
       </c>
       <c r="N18" s="0">
-        <v>-1.1583807232333334</v>
+        <v>0.48726396542666656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.14027619191099999</v>
+        <v>-0.26507111018899998</v>
       </c>
       <c r="B19" s="0">
-        <v>0.52763506756666667</v>
+        <v>0.27184535576666669</v>
       </c>
       <c r="C19" s="0">
-        <v>0.24220944719999998</v>
+        <v>0.28623911486666664</v>
       </c>
       <c r="D19" s="0">
-        <v>0.80172180829000006</v>
+        <v>0.69897780245666663</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.14116222405666665</v>
+        <v>0.027615381786666671</v>
       </c>
       <c r="F19" s="0">
-        <v>0.077201284966666672</v>
+        <v>0.12505535306333335</v>
       </c>
       <c r="G19" s="0">
-        <v>0.016706315999999943</v>
+        <v>0.13180615779999999</v>
       </c>
       <c r="H19" s="0">
-        <v>0.30730734302333329</v>
+        <v>0.30997366913000002</v>
       </c>
       <c r="I19" s="0">
-        <v>0.35345236478333336</v>
+        <v>0.15813046233666667</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.57346931136666668</v>
+        <v>-0.65607361756666671</v>
       </c>
       <c r="K19" s="0">
-        <v>0.1788348788666666</v>
+        <v>-0.17608523116666669</v>
       </c>
       <c r="L19" s="0">
-        <v>0.7868660328999999</v>
+        <v>0.56919000836666667</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.1283168713333333</v>
+        <v>-0.060630335700000038</v>
       </c>
       <c r="N19" s="0">
-        <v>0.47390734651999999</v>
+        <v>-0.0086840183000000126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.61971470532166673</v>
+        <v>0.38537225266666664</v>
       </c>
       <c r="B20" s="0">
-        <v>0.60773934416999997</v>
+        <v>0.15073660085666665</v>
       </c>
       <c r="C20" s="0">
-        <v>0.55673937169499998</v>
+        <v>0.48078697006666671</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.11908992375266667</v>
+        <v>-0.17413281986933332</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.42393645024333332</v>
+        <v>-0.43828411087499997</v>
       </c>
       <c r="F20" s="0">
-        <v>0.41069417266666663</v>
+        <v>0.34698311351166666</v>
       </c>
       <c r="G20" s="0">
-        <v>0.62920039993333321</v>
+        <v>0.59091795357666665</v>
       </c>
       <c r="H20" s="0">
-        <v>0.40047356028333336</v>
+        <v>0.28836768234999999</v>
       </c>
       <c r="I20" s="0">
-        <v>0.14571350412333331</v>
+        <v>-0.057597610426666689</v>
       </c>
       <c r="J20" s="0">
-        <v>1.1252735353266665</v>
+        <v>0.94545530547666667</v>
       </c>
       <c r="K20" s="0">
-        <v>0.52439710351666668</v>
+        <v>0.40926350978333337</v>
       </c>
       <c r="L20" s="0">
-        <v>0.81578174930000003</v>
+        <v>-0.0067829228833333199</v>
       </c>
       <c r="M20" s="0">
-        <v>0.39577228165</v>
+        <v>-0.46450830871666671</v>
       </c>
       <c r="N20" s="0">
-        <v>-0.27881399235000004</v>
+        <v>-0.63413106566666655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.33890814162499999</v>
+        <v>0.33952656791666669</v>
       </c>
       <c r="B21" s="0">
-        <v>0.22793797531666668</v>
+        <v>0.26913981695000005</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.32569306587000008</v>
+        <v>-0.14085220785333336</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.17389023594166669</v>
+        <v>-0.18190597951666668</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.08060373013666669</v>
+        <v>-0.082315127236666646</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.571422973025</v>
+        <v>-0.11992925868696667</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.56759387847333331</v>
+        <v>-0.29329852903333331</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.013810909816666689</v>
+        <v>0.049897940683333336</v>
       </c>
       <c r="I21" s="0">
-        <v>0.01356608936500002</v>
+        <v>-0.036491924173333343</v>
       </c>
       <c r="J21" s="0">
-        <v>0.31745401874999996</v>
+        <v>-0.27434613599666663</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.14499999763333332</v>
+        <v>0.2563931835433334</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.090968284983333342</v>
+        <v>-0.199939362329</v>
       </c>
       <c r="M21" s="0">
-        <v>0.24881864154999994</v>
+        <v>0.064080908166666589</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.21565773274099997</v>
+        <v>-0.17109666049433334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.14372402052666666</v>
+        <v>-0.41665420712666668</v>
       </c>
       <c r="B22" s="0">
-        <v>0.062963431473333345</v>
+        <v>0.045758313263333336</v>
       </c>
       <c r="C22" s="0">
-        <v>0.072119454319999998</v>
+        <v>0.090175639353333337</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.23024074539999997</v>
+        <v>-1.10019103528</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.49331701889999996</v>
+        <v>-0.90874217097333332</v>
       </c>
       <c r="F22" s="0">
-        <v>0.26565913257000001</v>
+        <v>0.56147849727333332</v>
       </c>
       <c r="G22" s="0">
-        <v>0.32038705128466666</v>
+        <v>0.44331682545133333</v>
       </c>
       <c r="H22" s="0">
-        <v>-0.18917714687466664</v>
+        <v>0.13514791498533335</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.083246613366666639</v>
+        <v>-0.70919227043333333</v>
       </c>
       <c r="J22" s="0">
-        <v>-1.273379114495</v>
+        <v>-1.0971987106283334</v>
       </c>
       <c r="K22" s="0">
-        <v>-0.63331396656666672</v>
+        <v>0.87246394829999996</v>
       </c>
       <c r="L22" s="0">
-        <v>0.17109437843333331</v>
+        <v>-0.21314147986666676</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.79911334313333338</v>
+        <v>-2.1421535556433335</v>
       </c>
       <c r="N22" s="0">
-        <v>0.021246020899999996</v>
+        <v>-0.85615614960000008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-1.07671038575</v>
+        <v>-0.5725377760175</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.85940960614999995</v>
+        <v>-0.56894750267499994</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.40870458414999999</v>
+        <v>-0.554214185315</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.24469247882</v>
+        <v>-0.28631609318500001</v>
       </c>
       <c r="E23" s="0">
-        <v>0.18341457480000009</v>
+        <v>0.25094942670000009</v>
       </c>
       <c r="F23" s="0">
-        <v>0.019802264189999946</v>
+        <v>-0.41593551875500001</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.28951177683000001</v>
+        <v>-0.44988784073999999</v>
       </c>
       <c r="H23" s="0">
-        <v>0.048515267400000062</v>
+        <v>-0.37474170569999993</v>
       </c>
       <c r="I23" s="0">
-        <v>0.028171169150000064</v>
+        <v>-0.43650988265000001</v>
       </c>
       <c r="J23" s="0">
-        <v>0.22983989491000001</v>
+        <v>-0.42738560799999992</v>
       </c>
       <c r="K23" s="0">
-        <v>-1.23616272695</v>
+        <v>-0.80139905834999992</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.35661244784999996</v>
+        <v>-0.33418713964999996</v>
       </c>
       <c r="M23" s="0">
-        <v>0.23700674534999999</v>
+        <v>-0.36223701718500007</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.62363465549999997</v>
+        <v>-0.95484513699999995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3724697014433333</v>
+        <v>0.13221589155666663</v>
       </c>
       <c r="B24" s="0">
-        <v>0.72284668002999997</v>
+        <v>0.22454222276666669</v>
       </c>
       <c r="C24" s="0">
-        <v>0.82636568786666675</v>
+        <v>0.27934347623166672</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.24787674645166666</v>
+        <v>0.01769223004000001</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.10851196063333333</v>
+        <v>-0.12924201370666666</v>
       </c>
       <c r="F24" s="0">
-        <v>0.54822908981666663</v>
+        <v>0.15664148198333333</v>
       </c>
       <c r="G24" s="0">
-        <v>0.81872228849666662</v>
+        <v>0.30804266644666661</v>
       </c>
       <c r="H24" s="0">
-        <v>0.46764084031666669</v>
+        <v>0.23868446438333329</v>
       </c>
       <c r="I24" s="0">
-        <v>0.32912644728166662</v>
+        <v>0.27498144858333329</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.31525827962333342</v>
+        <v>-0.32299515971333337</v>
       </c>
       <c r="K24" s="0">
-        <v>1.0587648675999999</v>
+        <v>0.87680698056666662</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.1398522173816667</v>
+        <v>-0.34385295253333337</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.42029676055000004</v>
+        <v>-0.27418148823633332</v>
       </c>
       <c r="N24" s="0">
-        <v>-1.0703921567333334</v>
+        <v>-1.7179959364999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.35143660153833334</v>
+        <v>-0.14817577990333336</v>
       </c>
       <c r="B25" s="0">
-        <v>0.13676906439666664</v>
+        <v>0.33929207793833338</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.052293212700000022</v>
+        <v>0.35753980138571667</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.38694697412666668</v>
+        <v>-0.0057967575933333543</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.41738008129633331</v>
+        <v>-0.19073994696966662</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.024090379119999998</v>
+        <v>0.093113165533333334</v>
       </c>
       <c r="G25" s="0">
-        <v>0.063090019388333321</v>
+        <v>0.066169763858333328</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.21296685790666667</v>
+        <v>-0.24364060838266666</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.17179625858333333</v>
+        <v>0.2353997163166667</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.077348201773333319</v>
+        <v>0.35270028401000003</v>
       </c>
       <c r="K25" s="0">
-        <v>0.1221041213166667</v>
+        <v>0.54668418223333337</v>
       </c>
       <c r="L25" s="0">
-        <v>0.37610306753433331</v>
+        <v>0.53427334688333328</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.72730801048333338</v>
+        <v>-0.61551441961333331</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.25597110142333324</v>
+        <v>0.34916030151666677</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.85332599200000003</v>
+        <v>-0.53938630555</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.28670905555499998</v>
+        <v>-0.43975574621500002</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.60950475684999994</v>
+        <v>-0.74189403209999993</v>
       </c>
       <c r="D26" s="0">
-        <v>0.6653875159</v>
+        <v>0.051389386149999966</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.53102219010499996</v>
+        <v>-0.40908023065499999</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.5034220675999999</v>
+        <v>-1.30259462178</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.72119029980000005</v>
+        <v>-1.2405734475000001</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.82068951010000002</v>
+        <v>-1.2604656999500001</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.009957485245</v>
+        <v>-1.364817586195</v>
       </c>
       <c r="J26" s="0">
-        <v>-1.2321475448500001</v>
+        <v>-1.7412101545000001</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.66651780257499993</v>
+        <v>-0.82689458980999997</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.26020521244999995</v>
+        <v>-1.0406832222</v>
       </c>
       <c r="M26" s="0">
-        <v>-1.29321823655</v>
+        <v>-1.7496579324500001</v>
       </c>
       <c r="N26" s="0">
-        <v>0.44395407114999996</v>
+        <v>-0.48633502630000003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.32358827893666664</v>
+        <v>0.63639793879599993</v>
       </c>
       <c r="B27" s="0">
-        <v>0.70381192316666663</v>
+        <v>0.49369089405333333</v>
       </c>
       <c r="C27" s="0">
-        <v>0.08255968666666666</v>
+        <v>-0.0071572871966666812</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.62593282419999996</v>
+        <v>-0.32533350253333332</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.77322602569999999</v>
+        <v>-0.3019947556476667</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0096531923433333389</v>
+        <v>-0.0086041837616666755</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.25461113325000001</v>
+        <v>0.081396155696666667</v>
       </c>
       <c r="H27" s="0">
-        <v>0.12861845423333335</v>
+        <v>0.39374786642499998</v>
       </c>
       <c r="I27" s="0">
-        <v>0.65241948776666669</v>
+        <v>0.44455343359666671</v>
       </c>
       <c r="J27" s="0">
-        <v>0.35871545952999995</v>
+        <v>1.2008419305133333</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.14591825131266667</v>
+        <v>0.0041278527116666852</v>
       </c>
       <c r="L27" s="0">
-        <v>0.061507917733333348</v>
+        <v>0.089210203016666656</v>
       </c>
       <c r="M27" s="0">
-        <v>-1.2199266814</v>
+        <v>-0.90450654516666673</v>
       </c>
       <c r="N27" s="0">
-        <v>0.7911496512666667</v>
+        <v>0.040835378966666683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.60596712483533333</v>
+        <v>-0.70245175248533331</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.59703617449333324</v>
+        <v>-0.82823719686666664</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.38043801174333336</v>
+        <v>-0.50881166397666666</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.64118195649999987</v>
+        <v>-0.5396479178750001</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.62675835894999987</v>
+        <v>-0.39866444278166663</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.25243275804399995</v>
+        <v>-0.25994049929399998</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.42957517082333335</v>
+        <v>-0.28945296788333341</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.47138422516333334</v>
+        <v>-0.40817288609983332</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.27276598703999999</v>
+        <v>-0.28769351003999999</v>
       </c>
       <c r="J28" s="0">
-        <v>0.11563029368000005</v>
+        <v>0.32325137144666671</v>
       </c>
       <c r="K28" s="0">
-        <v>-1.3174835411000001</v>
+        <v>-1.4559543706166664</v>
       </c>
       <c r="L28" s="0">
-        <v>-1.2099525599983334</v>
+        <v>-1.3616098217000001</v>
       </c>
       <c r="M28" s="0">
-        <v>-0.78765612625000003</v>
+        <v>-1.1975088055500001</v>
       </c>
       <c r="N28" s="0">
-        <v>-0.12113695971666671</v>
+        <v>0.070389211733333235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.70533838076666666</v>
+        <v>0.39746821400000004</v>
       </c>
       <c r="B29" s="0">
-        <v>0.95205122513999996</v>
+        <v>0.95361969739000008</v>
       </c>
       <c r="C29" s="0">
-        <v>0.00085982578333332338</v>
+        <v>0.59862490810666669</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.67935110903666673</v>
+        <v>-0.020139976133333376</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.40043435140666672</v>
+        <v>0.27673054872833325</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.26954819915</v>
+        <v>0.84939839938333339</v>
       </c>
       <c r="G29" s="0">
-        <v>0.23957803293666668</v>
+        <v>1.0819394621866667</v>
       </c>
       <c r="H29" s="0">
-        <v>0.33000852651666668</v>
+        <v>0.93955093860000005</v>
       </c>
       <c r="I29" s="0">
-        <v>0.19282895692999999</v>
+        <v>0.65862837521666673</v>
       </c>
       <c r="J29" s="0">
-        <v>1.0425116668166665</v>
+        <v>0.84162940549566656</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.25028331291333333</v>
+        <v>0.94977525080000003</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.06281376968333334</v>
+        <v>0.50450265698333341</v>
       </c>
       <c r="M29" s="0">
-        <v>0.14238079235000001</v>
+        <v>0.31549283430000008</v>
       </c>
       <c r="N29" s="0">
-        <v>0.41625455121666671</v>
+        <v>0.57536452448333331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.067902887700000025</v>
+        <v>-0.2377590057</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.366321768085</v>
+        <v>-0.42213561564000002</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.10125255309666667</v>
+        <v>-0.27911878139333335</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.16626454911933333</v>
+        <v>-0.32501764808599998</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.34640219494999996</v>
+        <v>-0.38435663622499999</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.40688227619666661</v>
+        <v>-0.47536329279</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.2719532241</v>
+        <v>-0.57089610570666671</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.52604671397900005</v>
+        <v>-0.58480789975233327</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.31455218261666662</v>
+        <v>-0.102859672215</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.1191691335</v>
+        <v>-0.45567983666666667</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.54188800036000007</v>
+        <v>-0.43727285560999996</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.86536017786666664</v>
+        <v>-0.092595905766666653</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.86789395268333336</v>
+        <v>-0.82395365451666669</v>
       </c>
       <c r="N30" s="0">
-        <v>-1.3579883951999998</v>
+        <v>-0.51445617557416667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.46742455310333331</v>
+        <v>-0.48169345926999996</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.069712546769999995</v>
+        <v>-0.12977110873233336</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.42478019818333335</v>
+        <v>-0.65815406840000001</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.41294646185000006</v>
+        <v>-0.49573225570000001</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.89810138402333328</v>
+        <v>-0.94178587874000008</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.82260340983666658</v>
+        <v>-0.92722772361999994</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.71241868347333326</v>
+        <v>-0.93647965123999999</v>
       </c>
       <c r="H31" s="0">
-        <v>-1.1196862982666667</v>
+        <v>-1.2533989113999999</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.7016269213166666</v>
+        <v>-0.91080291376666667</v>
       </c>
       <c r="J31" s="0">
-        <v>-1.0039566221833334</v>
+        <v>-1.47605401585</v>
       </c>
       <c r="K31" s="0">
-        <v>-0.71382538324999989</v>
+        <v>-1.2535397646166666</v>
       </c>
       <c r="L31" s="0">
-        <v>0.69419180766666666</v>
+        <v>-0.081496637950000006</v>
       </c>
       <c r="M31" s="0">
-        <v>0.87224826026333335</v>
+        <v>0.10857013069666671</v>
       </c>
       <c r="N31" s="0">
-        <v>0.43050485754666667</v>
+        <v>-0.10844218000333344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.44769649461</v>
+        <v>0.34544036670333333</v>
       </c>
       <c r="B32" s="0">
-        <v>0.328116556665</v>
+        <v>0.23605197991500002</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.37449345671333334</v>
+        <v>-0.44866884789000006</v>
       </c>
       <c r="D32" s="0">
-        <v>0.22918077503333337</v>
+        <v>0.029535874599999998</v>
       </c>
       <c r="E32" s="0">
-        <v>0.07597872142000002</v>
+        <v>0.01821449881999998</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.065575041483333332</v>
+        <v>0.060610208866666682</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.18583546544999999</v>
+        <v>-0.39089595399666666</v>
       </c>
       <c r="H32" s="0">
-        <v>0.064537418040000016</v>
+        <v>-0.18422083846666668</v>
       </c>
       <c r="I32" s="0">
-        <v>0.42854183876333329</v>
+        <v>0.27511192721666666</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.30775712394999999</v>
+        <v>-0.52395223798333324</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.65937898565666664</v>
+        <v>-0.4812527662133334</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.016594208189999904</v>
+        <v>-0.15524543727333329</v>
       </c>
       <c r="M32" s="0">
-        <v>0.63146997771666658</v>
+        <v>0.39327632100000004</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.20471467841999991</v>
+        <v>-0.29488025871999995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.40201351323866669</v>
+        <v>0.36499247640533339</v>
       </c>
       <c r="B33" s="0">
-        <v>0.73143990927333336</v>
+        <v>0.7705176575399999</v>
       </c>
       <c r="C33" s="0">
-        <v>0.81431188217166672</v>
+        <v>0.83466484130833341</v>
       </c>
       <c r="D33" s="0">
-        <v>0.59535092407000001</v>
+        <v>0.43329496990000005</v>
       </c>
       <c r="E33" s="0">
-        <v>0.40985154323</v>
+        <v>0.53833471223283325</v>
       </c>
       <c r="F33" s="0">
-        <v>0.33635196471333334</v>
+        <v>0.21740747656333337</v>
       </c>
       <c r="G33" s="0">
-        <v>0.14257844895333333</v>
+        <v>-0.075609370116666658</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.094080407285999992</v>
+        <v>-0.11510814929099998</v>
       </c>
       <c r="I33" s="0">
-        <v>1.0258729931500001</v>
+        <v>0.91782021261666658</v>
       </c>
       <c r="J33" s="0">
-        <v>0.95505138110666676</v>
+        <v>0.87819117381666678</v>
       </c>
       <c r="K33" s="0">
-        <v>0.40406620483</v>
+        <v>0.28175684486333336</v>
       </c>
       <c r="L33" s="0">
-        <v>0.35325586157666666</v>
+        <v>0.35066850698166663</v>
       </c>
       <c r="M33" s="0">
-        <v>0.3098250229666667</v>
+        <v>0.41091233558333329</v>
       </c>
       <c r="N33" s="0">
-        <v>1.9128608842333332</v>
+        <v>1.6982762086683336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.10009331824333334</v>
+        <v>-0.25896201449666667</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.090814535400000007</v>
+        <v>-0.40451074850333335</v>
       </c>
       <c r="C34" s="0">
-        <v>-1.1201063555333335</v>
+        <v>-0.65544338376666667</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.61021989472299998</v>
+        <v>-0.5990375041999999</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.43121769427333334</v>
+        <v>-0.7201976122</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.70626923024333343</v>
+        <v>-0.43450055157666667</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.20327011836</v>
+        <v>0.040835835289999997</v>
       </c>
       <c r="H34" s="0">
-        <v>0.31913990999666669</v>
+        <v>0.085510947783333346</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.70379131509999993</v>
+        <v>-0.8051879869666666</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.66136415355333344</v>
+        <v>-0.80591938395333329</v>
       </c>
       <c r="K34" s="0">
-        <v>0.19671776373333338</v>
+        <v>-0.36030916137000002</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.95300694173333333</v>
+        <v>-0.75876745546666668</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.42569964152333334</v>
+        <v>-0.89434313745666671</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.87595323731333319</v>
+        <v>-1.0770873948799999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.80392420706666667</v>
+        <v>0.78255601413333331</v>
       </c>
       <c r="B35" s="0">
-        <v>0.57513760827999993</v>
+        <v>0.69087682957999996</v>
       </c>
       <c r="C35" s="0">
-        <v>0.16927851818833334</v>
+        <v>0.47831709957333335</v>
       </c>
       <c r="D35" s="0">
-        <v>0.43455195332666663</v>
+        <v>0.46432936612666664</v>
       </c>
       <c r="E35" s="0">
-        <v>0.70735021459666669</v>
+        <v>0.67570640909666668</v>
       </c>
       <c r="F35" s="0">
-        <v>0.44764471701666664</v>
+        <v>0.26677591360333336</v>
       </c>
       <c r="G35" s="0">
-        <v>0.46464642624200003</v>
+        <v>0.68979043278666663</v>
       </c>
       <c r="H35" s="0">
-        <v>0.25119426845949999</v>
+        <v>0.3828589895761666</v>
       </c>
       <c r="I35" s="0">
-        <v>0.59119783935833325</v>
+        <v>0.56674030507499995</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.2117017600633333</v>
+        <v>-0.075978667396666671</v>
       </c>
       <c r="K35" s="0">
-        <v>0.25765104475666667</v>
+        <v>0.6424873381566667</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.06011096769999999</v>
+        <v>0.54092981559999997</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.28670454514999999</v>
+        <v>0.26382156428333325</v>
       </c>
       <c r="N35" s="0">
-        <v>0.44914640090000002</v>
+        <v>0.67571568683333338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.74170081826666667</v>
+        <v>-0.73989607756666664</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.70445419003333332</v>
+        <v>-0.69847699305000011</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.40330263294333335</v>
+        <v>-0.81458750891666676</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.39423666399666668</v>
+        <v>-0.74127850061333334</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.27327127874666657</v>
+        <v>-0.45521414527999998</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.76789341109499998</v>
+        <v>-0.91335565302833333</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.26913667556666671</v>
+        <v>-0.31218150300000003</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.39272683597000002</v>
+        <v>-0.27757929571666667</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.29238036984333338</v>
+        <v>-0.43186357497666672</v>
       </c>
       <c r="J36" s="0">
-        <v>0.13004406438333335</v>
+        <v>-0.15442003800000001</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.60857877357166679</v>
+        <v>-0.43645914860499996</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.1905210437116667</v>
+        <v>0.01911598138499998</v>
       </c>
       <c r="M36" s="0">
-        <v>0.022137245216666671</v>
+        <v>0.11174241614999998</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.92638429508333331</v>
+        <v>-0.70724424834999988</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.092627266563333338</v>
+        <v>0.41864463356999992</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.81462348293333331</v>
+        <v>-0.12649932971666669</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.83368576761666668</v>
+        <v>-0.23586799314999998</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.34370840135833336</v>
+        <v>0.031593159108333324</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.29797596065666665</v>
+        <v>-0.15458855269666666</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.48891240423999999</v>
+        <v>-0.18301609988999998</v>
       </c>
       <c r="G37" s="0">
-        <v>-1.1254021461833332</v>
+        <v>-0.69029307515000005</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.49772941211999999</v>
+        <v>-0.20550845065000004</v>
       </c>
       <c r="I37" s="0">
-        <v>0.0014573580266667163</v>
+        <v>0.0057300814633333419</v>
       </c>
       <c r="J37" s="0">
-        <v>0.94837410718333337</v>
+        <v>1.5459441944000001</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.25020511909999998</v>
+        <v>0.10079034225000003</v>
       </c>
       <c r="L37" s="0">
-        <v>0.68366668136666675</v>
+        <v>1.0209039808333333</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.11367931433000002</v>
+        <v>0.16849317383666668</v>
       </c>
       <c r="N37" s="0">
-        <v>1.842002904279</v>
+        <v>1.8874268462499999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.23311992267599996</v>
+        <v>-0.34072192960733338</v>
       </c>
       <c r="B38" s="0">
-        <v>0.72253171155000007</v>
+        <v>0.24207947623333337</v>
       </c>
       <c r="C38" s="0">
-        <v>0.59745791054333341</v>
+        <v>0.35155752847666666</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.094510728533333366</v>
+        <v>0.07301159016666664</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.4813107334333333</v>
+        <v>0.20045192971666659</v>
       </c>
       <c r="F38" s="0">
-        <v>0.49599987420000002</v>
+        <v>0.20695936576666685</v>
       </c>
       <c r="G38" s="0">
-        <v>1.1703568898333334</v>
+        <v>0.33172719823333335</v>
       </c>
       <c r="H38" s="0">
-        <v>0.56130283908666656</v>
+        <v>-0.036159118696666659</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.41115916531666674</v>
+        <v>-0.088226468333333363</v>
       </c>
       <c r="J38" s="0">
-        <v>1.2830166032333332</v>
+        <v>1.3440716213333332</v>
       </c>
       <c r="K38" s="0">
-        <v>0.67760566701666658</v>
+        <v>0.51624225278333324</v>
       </c>
       <c r="L38" s="0">
-        <v>0.71922522656666654</v>
+        <v>0.17144073296666651</v>
       </c>
       <c r="M38" s="0">
-        <v>0.27586807111999978</v>
+        <v>0.3782003630666666</v>
       </c>
       <c r="N38" s="0">
-        <v>0.05568280238333323</v>
+        <v>0.20528733271666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.031852856746666672</v>
+        <v>-0.14666304185499998</v>
       </c>
       <c r="B39" s="0">
-        <v>0.15305605318333332</v>
+        <v>-0.057122951883333328</v>
       </c>
       <c r="C39" s="0">
-        <v>0.43221505085</v>
+        <v>0.2261514389833334</v>
       </c>
       <c r="D39" s="0">
-        <v>0.61483083606999989</v>
+        <v>0.51362246973333336</v>
       </c>
       <c r="E39" s="0">
-        <v>0.59783654696999999</v>
+        <v>0.48504466853000006</v>
       </c>
       <c r="F39" s="0">
-        <v>0.57113807828333341</v>
+        <v>0.70386293568333325</v>
       </c>
       <c r="G39" s="0">
-        <v>0.75114059594999993</v>
+        <v>0.73940044849999986</v>
       </c>
       <c r="H39" s="0">
-        <v>0.54034580328000004</v>
+        <v>0.45499162182999997</v>
       </c>
       <c r="I39" s="0">
-        <v>0.20020081953333332</v>
+        <v>0.41206883608433331</v>
       </c>
       <c r="J39" s="0">
-        <v>1.0810597551333334</v>
+        <v>0.64760309099999991</v>
       </c>
       <c r="K39" s="0">
-        <v>0.19093991506666666</v>
+        <v>0.068041903433333342</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.6088287706033334</v>
+        <v>-0.95543247043666679</v>
       </c>
       <c r="M39" s="0">
-        <v>0.040181050750000009</v>
+        <v>-0.12262198854999999</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.66170248498333328</v>
+        <v>-0.84627216007499995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.65332171404333328</v>
+        <v>0.54610465976</v>
       </c>
       <c r="B40" s="0">
-        <v>0.77776544141666659</v>
+        <v>0.91195398313333331</v>
       </c>
       <c r="C40" s="0">
-        <v>1.0882695543566665</v>
+        <v>1.21079522219</v>
       </c>
       <c r="D40" s="0">
-        <v>0.50697592057000007</v>
+        <v>0.54413148986666671</v>
       </c>
       <c r="E40" s="0">
-        <v>0.18764408974666669</v>
+        <v>0.27543294346333336</v>
       </c>
       <c r="F40" s="0">
-        <v>0.71741824985826663</v>
+        <v>1.0784547373566666</v>
       </c>
       <c r="G40" s="0">
-        <v>1.0504950648666667</v>
+        <v>1.3827670542999999</v>
       </c>
       <c r="H40" s="0">
-        <v>0.55044439506666665</v>
+        <v>0.69237058883333336</v>
       </c>
       <c r="I40" s="0">
-        <v>0.31067253317499999</v>
+        <v>0.31159018853333331</v>
       </c>
       <c r="J40" s="0">
-        <v>0.48211463099999996</v>
+        <v>0.6955231745349999</v>
       </c>
       <c r="K40" s="0">
-        <v>0.99735001290000003</v>
+        <v>1.3305447462333333</v>
       </c>
       <c r="L40" s="0">
-        <v>1.6925551128666669</v>
+        <v>1.8898986526666668</v>
       </c>
       <c r="M40" s="0">
-        <v>0.71481097260000004</v>
+        <v>0.97687728878333324</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.014398186233333221</v>
+        <v>0.066008877183333259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.025295919909999992</v>
+        <v>0.34673695230666668</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.43084732425000005</v>
+        <v>-0.26814133173333338</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.11100504673316658</v>
+        <v>0.14834932836683334</v>
       </c>
       <c r="D41" s="0">
-        <v>0.30880581090500003</v>
+        <v>0.73598773635833337</v>
       </c>
       <c r="E41" s="0">
-        <v>0.42810463027000001</v>
+        <v>0.6378108858</v>
       </c>
       <c r="F41" s="0">
-        <v>0.94808861866666672</v>
+        <v>0.92935686140000007</v>
       </c>
       <c r="G41" s="0">
-        <v>0.59496298870566666</v>
+        <v>0.47951017681874997</v>
       </c>
       <c r="H41" s="0">
-        <v>0.15163416305000002</v>
+        <v>0.20742897397283333</v>
       </c>
       <c r="I41" s="0">
-        <v>-0.016399855297666716</v>
+        <v>0.36902919776999998</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.74598932181200006</v>
+        <v>-0.48304898565333343</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.62144611471666666</v>
+        <v>-0.58628567035000001</v>
       </c>
       <c r="L41" s="0">
-        <v>-0.30491024444000003</v>
+        <v>0.24114341074333334</v>
       </c>
       <c r="M41" s="0">
-        <v>0.080250697216666556</v>
+        <v>0.99919794769999992</v>
       </c>
       <c r="N41" s="0">
-        <v>0.15908466166666668</v>
+        <v>1.3147270259333332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.33407394438666665</v>
+        <v>0.30655053131000004</v>
       </c>
       <c r="B42" s="0">
-        <v>0.45701324462999998</v>
+        <v>0.53594443587999996</v>
       </c>
       <c r="C42" s="0">
-        <v>0.46532307951666668</v>
+        <v>0.47485842719899996</v>
       </c>
       <c r="D42" s="0">
-        <v>0.3228359466166667</v>
+        <v>0.37614362755666669</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.47810911919333332</v>
+        <v>-0.39434088981333332</v>
       </c>
       <c r="F42" s="0">
-        <v>0.46347066283333338</v>
+        <v>0.63719133569666664</v>
       </c>
       <c r="G42" s="0">
-        <v>0.12194847480000004</v>
+        <v>0.29365217755</v>
       </c>
       <c r="H42" s="0">
-        <v>0.44611883298333332</v>
+        <v>0.61556556968666665</v>
       </c>
       <c r="I42" s="0">
-        <v>0.10037993176333332</v>
+        <v>-0.014724504766666702</v>
       </c>
       <c r="J42" s="0">
-        <v>0.26357293152333328</v>
+        <v>0.36433832017000012</v>
       </c>
       <c r="K42" s="0">
-        <v>0.97903844362999992</v>
+        <v>0.98769451431666666</v>
       </c>
       <c r="L42" s="0">
-        <v>0.66167742659666673</v>
+        <v>0.97224379176666664</v>
       </c>
       <c r="M42" s="0">
-        <v>0.1127633930999999</v>
+        <v>0.71557972619999999</v>
       </c>
       <c r="N42" s="0">
-        <v>0.5889146513900001</v>
+        <v>1.1662104859899998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.46849835063333339</v>
+        <v>-0.41820942308333342</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.084184864183333319</v>
+        <v>-0.083807832844999985</v>
       </c>
       <c r="C43" s="0">
-        <v>0.011200228016666647</v>
+        <v>0.23691986408333332</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.37584419966666671</v>
+        <v>-0.40720968915000005</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.39889852823000005</v>
+        <v>-0.38951954013200002</v>
       </c>
       <c r="F43" s="0">
-        <v>0.55780980723333329</v>
+        <v>0.41675576601666664</v>
       </c>
       <c r="G43" s="0">
-        <v>1.0587046852333333</v>
+        <v>0.8137140726933334</v>
       </c>
       <c r="H43" s="0">
-        <v>0.73958490151</v>
+        <v>0.60265992897500009</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.26138814621666667</v>
+        <v>-0.29294725166666669</v>
       </c>
       <c r="J43" s="0">
-        <v>0.94657542660333316</v>
+        <v>0.51315226153666671</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.54648134543333338</v>
+        <v>-0.15289095961500002</v>
       </c>
       <c r="L43" s="0">
-        <v>-0.039188112016666762</v>
+        <v>0.010821086143333297</v>
       </c>
       <c r="M43" s="0">
-        <v>0.21783972900333332</v>
+        <v>0.055376490403333339</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.89934144153166673</v>
+        <v>-0.65480030465166672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.016159897479999998</v>
+        <v>-0.071298476779999995</v>
       </c>
       <c r="B44" s="0">
-        <v>0.2417857233166667</v>
+        <v>0.353156351255</v>
       </c>
       <c r="C44" s="0">
-        <v>0.62902315738333336</v>
+        <v>0.69028196483000004</v>
       </c>
       <c r="D44" s="0">
-        <v>0.5511902117466666</v>
+        <v>0.65411504832333334</v>
       </c>
       <c r="E44" s="0">
-        <v>0.43859044717999995</v>
+        <v>0.51131529096333339</v>
       </c>
       <c r="F44" s="0">
-        <v>1.57438371565</v>
+        <v>1.7275296638166666</v>
       </c>
       <c r="G44" s="0">
-        <v>0.90550348366666666</v>
+        <v>0.95129131134833333</v>
       </c>
       <c r="H44" s="0">
-        <v>0.62541361119999994</v>
+        <v>0.61918682521666668</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.32151376476499999</v>
+        <v>-0.21579613270166664</v>
       </c>
       <c r="J44" s="0">
-        <v>0.6086664752833334</v>
+        <v>0.45480534063333333</v>
       </c>
       <c r="K44" s="0">
-        <v>0.79215420826666672</v>
+        <v>1.1700392678933333</v>
       </c>
       <c r="L44" s="0">
-        <v>0.28160190709999999</v>
+        <v>0.35265898121666661</v>
       </c>
       <c r="M44" s="0">
-        <v>0.092584886839500016</v>
+        <v>0.23433442643333338</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.36689446496666667</v>
+        <v>-0.40998341526666671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.61640003155</v>
+        <v>0.57193960046666659</v>
       </c>
       <c r="B45" s="0">
-        <v>0.36678262159000002</v>
+        <v>0.34004563615200006</v>
       </c>
       <c r="C45" s="0">
-        <v>0.47719214378333324</v>
+        <v>0.41675181009333323</v>
       </c>
       <c r="D45" s="0">
-        <v>0.4036642207033333</v>
+        <v>0.25399099308666667</v>
       </c>
       <c r="E45" s="0">
-        <v>0.4330733882833333</v>
+        <v>0.067321998150000006</v>
       </c>
       <c r="F45" s="0">
-        <v>0.40625051355000003</v>
+        <v>0.078170329883333278</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.035835752816666622</v>
+        <v>0.083483270026666667</v>
       </c>
       <c r="H45" s="0">
-        <v>0.60885315968333331</v>
+        <v>0.47892270858666658</v>
       </c>
       <c r="I45" s="0">
-        <v>0.56867985415</v>
+        <v>0.45255190503333331</v>
       </c>
       <c r="J45" s="0">
-        <v>1.1353116459166666</v>
+        <v>1.1709639150166666</v>
       </c>
       <c r="K45" s="0">
-        <v>0.3361570080666666</v>
+        <v>0.055239611266666655</v>
       </c>
       <c r="L45" s="0">
-        <v>0.68989906388166655</v>
+        <v>0.29808428451666663</v>
       </c>
       <c r="M45" s="0">
-        <v>0.55747232483333331</v>
+        <v>0.55250561188333336</v>
       </c>
       <c r="N45" s="0">
-        <v>1.3334622728999999</v>
+        <v>1.4330260973833333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.0026390317099999616</v>
+        <v>0.030233139039999968</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.19970361439500003</v>
+        <v>-0.12079909536500004</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.052809885000000015</v>
+        <v>0.055958433204999991</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.5024259204</v>
+        <v>-0.41901610104999998</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.70648730225</v>
+        <v>-0.57537408526</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.12051273729499998</v>
+        <v>-0.0027381016949999948</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.43824320404999995</v>
+        <v>-0.43804753374999994</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.45395721437000003</v>
+        <v>-0.52842312716500006</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.52387495080000002</v>
+        <v>-0.57959848180000006</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.27334905309999996</v>
+        <v>-0.15442354450499995</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.21008501172999994</v>
+        <v>-0.27540622954999994</v>
       </c>
       <c r="L46" s="0">
-        <v>0.42568474265</v>
+        <v>0.46061665995000001</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.026915761799999993</v>
+        <v>-0.11168172394999998</v>
       </c>
       <c r="N46" s="0">
-        <v>0.96998532814999994</v>
+        <v>0.84847012649999987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.056492219250000003</v>
+        <v>0.04137116041333333</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.59419792198666666</v>
+        <v>-0.79302317050333337</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.10187679905</v>
+        <v>-1.0442115493166666</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.71690869369999999</v>
+        <v>-0.71246819300000008</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.13676045961666666</v>
+        <v>-0.053849615499999948</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.52806946993999992</v>
+        <v>-0.24865481204000003</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.361864482845</v>
+        <v>-0.42867386926166667</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.20432332007499998</v>
+        <v>-0.15503743601</v>
       </c>
       <c r="I47" s="0">
-        <v>-1.0608584891166668</v>
+        <v>-0.92609368008333337</v>
       </c>
       <c r="J47" s="0">
-        <v>-1.3043535699399997</v>
+        <v>-1.7035206959733333</v>
       </c>
       <c r="K47" s="0">
-        <v>-1.1769363027333333</v>
+        <v>-0.93156129266666676</v>
       </c>
       <c r="L47" s="0">
-        <v>-1.0168346619833333</v>
+        <v>-0.70029367831666667</v>
       </c>
       <c r="M47" s="0">
-        <v>-1.1130521739666666</v>
+        <v>-0.90194373141666673</v>
       </c>
       <c r="N47" s="0">
-        <v>-1.4204859533</v>
+        <v>-1.2276538211333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.00058272852500002026</v>
+        <v>-0.03582743782500003</v>
       </c>
       <c r="B48" s="0">
-        <v>0.31766505769000003</v>
+        <v>0.16648477651000002</v>
       </c>
       <c r="C48" s="0">
-        <v>0.49704602931500008</v>
+        <v>0.34300748036500001</v>
       </c>
       <c r="D48" s="0">
-        <v>0.09156809669999999</v>
+        <v>-0.04001805125000002</v>
       </c>
       <c r="E48" s="0">
-        <v>0.27570518815</v>
+        <v>0.1445988825</v>
       </c>
       <c r="F48" s="0">
-        <v>0.55787468164999998</v>
+        <v>0.40403235955</v>
       </c>
       <c r="G48" s="0">
-        <v>0.71715214814999995</v>
+        <v>0.36969625934999994</v>
       </c>
       <c r="H48" s="0">
-        <v>0.28493785230000002</v>
+        <v>0.15627400670000002</v>
       </c>
       <c r="I48" s="0">
-        <v>0.079265633849999961</v>
+        <v>0.039979507649999968</v>
       </c>
       <c r="J48" s="0">
-        <v>0.11896127255</v>
+        <v>0.27355558854999995</v>
       </c>
       <c r="K48" s="0">
-        <v>0.8924218852050001</v>
+        <v>1.072404766</v>
       </c>
       <c r="L48" s="0">
-        <v>0.18245016669999997</v>
+        <v>0.43895575986999996</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.16390207304999999</v>
+        <v>0.0090294363499999614</v>
       </c>
       <c r="N48" s="0">
-        <v>1.390620257448</v>
+        <v>1.87881294265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.25408168654999996</v>
+        <v>-0.26630776445000004</v>
       </c>
       <c r="B49" s="0">
-        <v>0.57783142245500008</v>
+        <v>0.033622078150000068</v>
       </c>
       <c r="C49" s="0">
-        <v>0.88301906084049997</v>
+        <v>0.44627370789049997</v>
       </c>
       <c r="D49" s="0">
-        <v>0.47816178522000002</v>
+        <v>0.22971130874500001</v>
       </c>
       <c r="E49" s="0">
-        <v>0.13667306149999997</v>
+        <v>-0.067366974849999983</v>
       </c>
       <c r="F49" s="0">
-        <v>0.16108504395500001</v>
+        <v>-0.16803179779499999</v>
       </c>
       <c r="G49" s="0">
-        <v>0.18126896284999999</v>
+        <v>-0.13986312165000003</v>
       </c>
       <c r="H49" s="0">
-        <v>0.10789303024000001</v>
+        <v>-0.077066093900000021</v>
       </c>
       <c r="I49" s="0">
-        <v>0.35563081459999996</v>
+        <v>-0.052900320200000017</v>
       </c>
       <c r="J49" s="0">
-        <v>1.5247015525949998</v>
+        <v>1.3189100034949999</v>
       </c>
       <c r="K49" s="0">
-        <v>-0.071715441072999986</v>
+        <v>-0.36044226830000003</v>
       </c>
       <c r="L49" s="0">
-        <v>0.40522556750000005</v>
+        <v>-0.032460173499999967</v>
       </c>
       <c r="M49" s="0">
-        <v>0.58991220359999996</v>
+        <v>0.064910428899999983</v>
       </c>
       <c r="N49" s="0">
-        <v>0.88360436459500002</v>
+        <v>0.20883007341000015</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.10800111406666668</v>
+        <v>-0.12958311089999996</v>
       </c>
       <c r="B50" s="0">
-        <v>0.099259616735000028</v>
+        <v>-0.006029400800000001</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.16017284863333331</v>
+        <v>0.060330299866666673</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.29127597768333335</v>
+        <v>-0.048050004150000047</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.27457033084333332</v>
+        <v>-0.13228730557666668</v>
       </c>
       <c r="F50" s="0">
-        <v>0.65742126763833331</v>
+        <v>0.46974369051500003</v>
       </c>
       <c r="G50" s="0">
-        <v>0.51799116985833327</v>
+        <v>0.51820544346666664</v>
       </c>
       <c r="H50" s="0">
-        <v>0.33191562148000003</v>
+        <v>0.35402185091333338</v>
       </c>
       <c r="I50" s="0">
-        <v>0.38073386837333328</v>
+        <v>0.38082103107333332</v>
       </c>
       <c r="J50" s="0">
-        <v>0.67936150574999998</v>
+        <v>0.77230427767099996</v>
       </c>
       <c r="K50" s="0">
-        <v>0.11301974092966667</v>
+        <v>-0.25530865831666671</v>
       </c>
       <c r="L50" s="0">
-        <v>0.87486726256666669</v>
+        <v>0.57774658918333333</v>
       </c>
       <c r="M50" s="0">
-        <v>0.34132286492999997</v>
+        <v>-0.018561341999999998</v>
       </c>
       <c r="N50" s="0">
-        <v>0.099007801499999978</v>
+        <v>-0.4591423644</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1.1328043652799999</v>
+        <v>0.6081474923800001</v>
       </c>
       <c r="B51" s="0">
-        <v>0.58113236369999999</v>
+        <v>0.056876007549999996</v>
       </c>
       <c r="C51" s="0">
-        <v>0.30737056424999992</v>
+        <v>-0.072174562400000086</v>
       </c>
       <c r="D51" s="0">
-        <v>0.67400008249999999</v>
+        <v>0.16791102140000003</v>
       </c>
       <c r="E51" s="0">
-        <v>0.22601570425</v>
+        <v>-0.43853487009999997</v>
       </c>
       <c r="F51" s="0">
-        <v>0.18139075980000002</v>
+        <v>0.05806627084999999</v>
       </c>
       <c r="G51" s="0">
-        <v>0.82367077086999985</v>
+        <v>0.66598936526999986</v>
       </c>
       <c r="H51" s="0">
-        <v>0.85934649658999995</v>
+        <v>0.58004278619000005</v>
       </c>
       <c r="I51" s="0">
-        <v>0.67649971648850005</v>
+        <v>0.43058850393850001</v>
       </c>
       <c r="J51" s="0">
-        <v>1.8368234402949999</v>
+        <v>1.7301409373449999</v>
       </c>
       <c r="K51" s="0">
-        <v>1.0532507124500001</v>
+        <v>0.7038551743</v>
       </c>
       <c r="L51" s="0">
-        <v>1.1342666863000002</v>
+        <v>0.64875478819999999</v>
       </c>
       <c r="M51" s="0">
-        <v>0.36923891870000003</v>
+        <v>0.13663683143550004</v>
       </c>
       <c r="N51" s="0">
-        <v>0.71734370889999988</v>
+        <v>0.014547248299999982</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.23592819354999994</v>
+        <v>0.38844665884999996</v>
       </c>
       <c r="B52" s="0">
-        <v>0.52860336649999995</v>
+        <v>0.75673135939999991</v>
       </c>
       <c r="C52" s="0">
-        <v>1.0018505091199998</v>
+        <v>0.80150811066999994</v>
       </c>
       <c r="D52" s="0">
-        <v>0.93122125074999995</v>
+        <v>0.76675140359999994</v>
       </c>
       <c r="E52" s="0">
-        <v>0.89484876719500006</v>
+        <v>0.912155487845</v>
       </c>
       <c r="F52" s="0">
-        <v>0.55247141855000004</v>
+        <v>0.43469255825000003</v>
       </c>
       <c r="G52" s="0">
-        <v>0.80619174425000006</v>
+        <v>0.59780492245000005</v>
       </c>
       <c r="H52" s="0">
-        <v>0.49674432998499995</v>
+        <v>0.49601676038499998</v>
       </c>
       <c r="I52" s="0">
-        <v>0.52962672194999993</v>
+        <v>0.44533097930000004</v>
       </c>
       <c r="J52" s="0">
-        <v>0.41103107367000002</v>
+        <v>0.69511986922000002</v>
       </c>
       <c r="K52" s="0">
-        <v>0.957441283315</v>
+        <v>0.55121460391499999</v>
       </c>
       <c r="L52" s="0">
-        <v>1.4793591530000001</v>
+        <v>1.3582321799999999</v>
       </c>
       <c r="M52" s="0">
-        <v>1.40619936543</v>
+        <v>0.44530458268000001</v>
       </c>
       <c r="N52" s="0">
-        <v>1.8874680768500001</v>
+        <v>2.0243624743500002</v>
       </c>
     </row>
     <row r="53">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -709,46 +793,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -607,17 +649,17 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
     <col min="7" max="7" width="14.42578125" customWidth="true"/>
-    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.7109375" customWidth="true"/>
     <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
     <col min="14" max="14" width="14.42578125" customWidth="true"/>
@@ -625,2290 +667,2290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64511576677500004</v>
+        <v>0.6761048234</v>
       </c>
       <c r="B2" s="0">
-        <v>0.71333442441999995</v>
+        <v>0.43428668834999995</v>
       </c>
       <c r="C2" s="0">
-        <v>0.40568988675000006</v>
+        <v>0.203691097495</v>
       </c>
       <c r="D2" s="0">
-        <v>0.31041164264999999</v>
+        <v>-0.20141085477499998</v>
       </c>
       <c r="E2" s="0">
-        <v>0.39470699712499996</v>
+        <v>0.20029779171149997</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.22517923590000002</v>
+        <v>-0.10983240868000002</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.03739413326499999</v>
+        <v>-0.19012533096999995</v>
       </c>
       <c r="H2" s="0">
-        <v>0.074083389694999988</v>
+        <v>-0.10153926494999999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.13521829179</v>
+        <v>-0.084443427449999942</v>
       </c>
       <c r="J2" s="0">
-        <v>-1.1196040291</v>
+        <v>-0.74994893475000002</v>
       </c>
       <c r="K2" s="0">
-        <v>0.73889913805000007</v>
+        <v>0.60054440954999999</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.50205722875000003</v>
+        <v>-0.69317822475000002</v>
       </c>
       <c r="M2" s="0">
-        <v>0.30266031277999994</v>
+        <v>0.00034198390500000952</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.15049097219000004</v>
+        <v>0.015194834200000035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.23407386889999998</v>
+        <v>-0.14451784711666665</v>
       </c>
       <c r="B3" s="0">
-        <v>0.19393864680000006</v>
+        <v>0.077186072333333466</v>
       </c>
       <c r="C3" s="0">
-        <v>0.68586243776</v>
+        <v>0.7635104887216666</v>
       </c>
       <c r="D3" s="0">
-        <v>0.86936176677999999</v>
+        <v>0.8809890226499999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.46012630099999996</v>
+        <v>0.64865885354999997</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0092971478500000204</v>
+        <v>0.29230769038333337</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.22214162342999999</v>
+        <v>-0.05294285688</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.24697750165000004</v>
+        <v>-0.076336415283333403</v>
       </c>
       <c r="I3" s="0">
-        <v>0.32615361613000005</v>
+        <v>0.33884944697000002</v>
       </c>
       <c r="J3" s="0">
-        <v>0.32605882091999994</v>
+        <v>0.17757583816166661</v>
       </c>
       <c r="K3" s="0">
-        <v>1.1641095403000001</v>
+        <v>1.3136087929300002</v>
       </c>
       <c r="L3" s="0">
-        <v>0.030882855250000008</v>
+        <v>0.08479941135000002</v>
       </c>
       <c r="M3" s="0">
-        <v>0.16141692227999993</v>
+        <v>0.17507093708333327</v>
       </c>
       <c r="N3" s="0">
-        <v>0.47729519085</v>
+        <v>0.14795158023333338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.041857196706666655</v>
+        <v>0.092541292340000025</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.28032813760000003</v>
+        <v>-0.45444190810000001</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.0428598201333334</v>
+        <v>-1.0587492268666667</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.79283451285666673</v>
+        <v>-0.44709180671666671</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.20193008856833333</v>
+        <v>0.014738889900000024</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.38375626212166669</v>
+        <v>-0.19590167222000004</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.42459224780666671</v>
+        <v>-0.56544503760166664</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.064244013983333348</v>
+        <v>-0.12141475049166667</v>
       </c>
       <c r="I4" s="0">
-        <v>0.041452001016666656</v>
+        <v>0.089840653116666641</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.1675622256</v>
+        <v>-1.0789373034999998</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.67943481899666669</v>
+        <v>-0.93343784991000001</v>
       </c>
       <c r="L4" s="0">
-        <v>0.23774648556666664</v>
+        <v>0.44675597733666661</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.59620603441833331</v>
+        <v>-0.69515921007000014</v>
       </c>
       <c r="N4" s="0">
-        <v>0.74114739758333337</v>
+        <v>0.82400913081666671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.32338462131000001</v>
+        <v>0.037956542390000014</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.11789717124266666</v>
+        <v>0.045085027650666659</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.19512393808333331</v>
+        <v>0.20639784258333335</v>
       </c>
       <c r="D5" s="0">
-        <v>-1.0445642591533333</v>
+        <v>-0.091872109220000026</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.86260165063333338</v>
+        <v>0.053498444090000041</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.19732956306333332</v>
+        <v>0.28578472754833334</v>
       </c>
       <c r="G5" s="0">
-        <v>0.056086134366666651</v>
+        <v>0.2887920460083333</v>
       </c>
       <c r="H5" s="0">
-        <v>0.53208305634999997</v>
+        <v>0.51804764170000006</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.89375126989999998</v>
+        <v>0.20232666150000003</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.95267871746666666</v>
+        <v>-0.21891170411666661</v>
       </c>
       <c r="K5" s="0">
-        <v>1.0794617708666667</v>
+        <v>0.89567643941666675</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.4005744886</v>
+        <v>0.5304351775166668</v>
       </c>
       <c r="M5" s="0">
-        <v>0.3598890834666667</v>
+        <v>0.74112346723333344</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.36054775263333333</v>
+        <v>1.0013596539833334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.090778868003333332</v>
+        <v>0.10888056491000001</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.26783643506166666</v>
+        <v>-0.15088190542333335</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.23543432107999998</v>
+        <v>-0.34677428146999995</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.66707357206666673</v>
+        <v>-0.45005285567000003</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.60025102279333331</v>
+        <v>-0.55911467708333329</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.50841535361333334</v>
+        <v>-0.46931456013333339</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.34911410449666669</v>
+        <v>-0.40243005292</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.071938460169999996</v>
+        <v>-0.01946515565333333</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.52268033161000005</v>
+        <v>-0.32152639452666665</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.045205879003333338</v>
+        <v>-0.12271272253666665</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.0904819025499999</v>
+        <v>-1.1540981362833334</v>
       </c>
       <c r="L6" s="0">
-        <v>0.012086787950000011</v>
+        <v>0.35197060634999999</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.50346117178333338</v>
+        <v>-0.64425286640500001</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.89531450100666654</v>
+        <v>-0.70935146865666654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.40512334972666669</v>
+        <v>-0.17542590616166664</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.086233208133333336</v>
+        <v>-0.090990305570000027</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.53827297643333338</v>
+        <v>-0.45715057423333327</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.69282721422666671</v>
+        <v>-0.64846057164333337</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.53982203596666667</v>
+        <v>-0.6694204067666667</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.47920167819999998</v>
+        <v>-0.41718563988000001</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.23816344082999996</v>
+        <v>-0.12536223504666666</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.2802901852666666</v>
+        <v>0.010609042550000058</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.54152897425000002</v>
+        <v>-0.54061328891500005</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.69470623554333333</v>
+        <v>0.23665114585666669</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.42668187273333336</v>
+        <v>-0.63787826043333329</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.8737718137499999</v>
+        <v>-1.1053214064766668</v>
       </c>
       <c r="M7" s="0">
-        <v>-1.6216603730633334</v>
+        <v>-2.2095406094833336</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.63272380343333334</v>
+        <v>-1.4786669536333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.10993474864999997</v>
+        <v>0.01909643946666667</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24754966001666662</v>
+        <v>0.22809929849999988</v>
       </c>
       <c r="C8" s="0">
-        <v>0.2633765611333333</v>
+        <v>0.28186153393333335</v>
       </c>
       <c r="D8" s="0">
-        <v>0.30779020395333334</v>
+        <v>-0.10722852971666666</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.3137435875016667</v>
+        <v>-0.39003689686666676</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.1131599784566667</v>
+        <v>-0.098092610633333521</v>
       </c>
       <c r="G8" s="0">
-        <v>0.01539052198333335</v>
+        <v>0.41092071396666674</v>
       </c>
       <c r="H8" s="0">
-        <v>0.046254222136666578</v>
+        <v>0.21874117376666666</v>
       </c>
       <c r="I8" s="0">
-        <v>0.15203164743333331</v>
+        <v>0.11971379954999994</v>
       </c>
       <c r="J8" s="0">
-        <v>0.16937305341666664</v>
+        <v>0.62791512620000023</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.7077781701000001</v>
+        <v>-1.0224112163716668</v>
       </c>
       <c r="L8" s="0">
-        <v>0.32600290726666659</v>
+        <v>0.39700024419999991</v>
       </c>
       <c r="M8" s="0">
-        <v>0.66935368006666662</v>
+        <v>0.65018249017666663</v>
       </c>
       <c r="N8" s="0">
-        <v>0.93330152330000005</v>
+        <v>0.98531227241666675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.38489090083333333</v>
+        <v>0.45522423725666661</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.21611846063333334</v>
+        <v>0.099577291600000006</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.047795846650000001</v>
+        <v>-0.25020386799</v>
       </c>
       <c r="D9" s="0">
-        <v>0.56610931333333336</v>
+        <v>0.40165437237166668</v>
       </c>
       <c r="E9" s="0">
-        <v>0.38524141812333335</v>
+        <v>0.61127506033333334</v>
       </c>
       <c r="F9" s="0">
-        <v>0.5122306861</v>
+        <v>0.17836239185833336</v>
       </c>
       <c r="G9" s="0">
-        <v>0.38571640333833324</v>
+        <v>-0.026980925761666663</v>
       </c>
       <c r="H9" s="0">
-        <v>0.28980958927200001</v>
+        <v>0.18644351435200002</v>
       </c>
       <c r="I9" s="0">
-        <v>0.29670433103349997</v>
+        <v>0.15923615827333334</v>
       </c>
       <c r="J9" s="0">
-        <v>1.2586894191866669</v>
+        <v>0.81235633722</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.4796975963000001</v>
+        <v>-1.1287010641166666</v>
       </c>
       <c r="L9" s="0">
-        <v>0.26839152196666666</v>
+        <v>0.43945050488333337</v>
       </c>
       <c r="M9" s="0">
-        <v>0.15026188228333331</v>
+        <v>-0.058312252750000015</v>
       </c>
       <c r="N9" s="0">
-        <v>0.57417268435500002</v>
+        <v>0.61284040015499996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.050324002566666637</v>
+        <v>-0.040189394899999994</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.076003879533333346</v>
+        <v>-0.18158217049999997</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.34955942926666672</v>
+        <v>-0.48938037306999999</v>
       </c>
       <c r="D10" s="0">
-        <v>0.23081340661666672</v>
+        <v>0.33742717919999998</v>
       </c>
       <c r="E10" s="0">
-        <v>0.097344897800000024</v>
+        <v>0.096399533650000008</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.32778611748333331</v>
+        <v>-0.6052242269</v>
       </c>
       <c r="G10" s="0">
-        <v>0.24789632578166659</v>
+        <v>0.019411745300000005</v>
       </c>
       <c r="H10" s="0">
-        <v>0.17730611458333331</v>
+        <v>0.043102266346666612</v>
       </c>
       <c r="I10" s="0">
-        <v>0.17369271616999998</v>
+        <v>-0.033004584213333368</v>
       </c>
       <c r="J10" s="0">
-        <v>0.35552557840666665</v>
+        <v>-0.071834847599999974</v>
       </c>
       <c r="K10" s="0">
-        <v>0.19218367233333344</v>
+        <v>0.0071628889833333653</v>
       </c>
       <c r="L10" s="0">
-        <v>0.63115082464999994</v>
+        <v>0.34765211564999987</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.39541251529666666</v>
+        <v>-0.57214687889999993</v>
       </c>
       <c r="N10" s="0">
-        <v>1.0298822557333331</v>
+        <v>1.3022844378499998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.31989473178333333</v>
+        <v>0.25758983923333334</v>
       </c>
       <c r="B11" s="0">
-        <v>0.10148068862833337</v>
+        <v>-0.049943407553333263</v>
       </c>
       <c r="C11" s="0">
-        <v>0.12977229479499999</v>
+        <v>0.10818368676666668</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.53924824665999993</v>
+        <v>-0.59180900452666663</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.46026747729999995</v>
+        <v>-0.432577036405</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.64466400514</v>
+        <v>-0.64737748214000002</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.046583613626666687</v>
+        <v>-0.29048237083000006</v>
       </c>
       <c r="H11" s="0">
-        <v>0.055418859633333345</v>
+        <v>-0.0095716081333332981</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.026119087714433387</v>
+        <v>0.034310356729999991</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.21964056959166658</v>
+        <v>0.035296155563333376</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.0493182826333334</v>
+        <v>-0.88845633797333334</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.0039315684833333142</v>
+        <v>0.21531826353333333</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.35020151335333327</v>
+        <v>0.083905291344999966</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.35661489355000003</v>
+        <v>-0.1135478470166667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.15851850430800002</v>
+        <v>-0.096726473451333353</v>
       </c>
       <c r="B12" s="0">
-        <v>0.19548938739666666</v>
+        <v>0.13687139930666664</v>
       </c>
       <c r="C12" s="0">
-        <v>0.59737162627666662</v>
+        <v>0.38041816553683333</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.16270894723733334</v>
+        <v>-0.14079506334166669</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.05261191771999997</v>
+        <v>-0.085945369583333292</v>
       </c>
       <c r="F12" s="0">
-        <v>0.40870171189666665</v>
+        <v>0.018929480534833343</v>
       </c>
       <c r="G12" s="0">
-        <v>0.50182928623666667</v>
+        <v>0.033003974703333328</v>
       </c>
       <c r="H12" s="0">
-        <v>0.42751841233333332</v>
+        <v>0.28491245030000001</v>
       </c>
       <c r="I12" s="0">
-        <v>0.47300689540000007</v>
+        <v>0.46259810043333338</v>
       </c>
       <c r="J12" s="0">
-        <v>0.25346512878333333</v>
+        <v>-0.031382013066666659</v>
       </c>
       <c r="K12" s="0">
-        <v>1.0734174908816667</v>
+        <v>0.86347121943333338</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.063676067331666586</v>
+        <v>0.16875438479999999</v>
       </c>
       <c r="M12" s="0">
-        <v>0.6810654496166666</v>
+        <v>0.80284915841666671</v>
       </c>
       <c r="N12" s="0">
-        <v>0.031465686850000119</v>
+        <v>-0.37385195371666663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.53106226326666672</v>
+        <v>-0.028558228166666661</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.3788854676566667</v>
+        <v>-0.050826591736666704</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.42614312852000003</v>
+        <v>-0.14789715674000001</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.032348659049999992</v>
+        <v>-0.0067390963833333373</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.17210144959999998</v>
+        <v>-0.14451107366316668</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.094956448566666657</v>
+        <v>0.30699167167499997</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.88346374478333334</v>
+        <v>-0.53088579248333334</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.35109668256666671</v>
+        <v>-0.10069446906666668</v>
       </c>
       <c r="I13" s="0">
-        <v>0.22195989443333333</v>
+        <v>0.22577264135</v>
       </c>
       <c r="J13" s="0">
-        <v>0.55834759166333336</v>
+        <v>0.65664018673333335</v>
       </c>
       <c r="K13" s="0">
-        <v>0.33943563269999999</v>
+        <v>0.44588896188333332</v>
       </c>
       <c r="L13" s="0">
-        <v>0.0034470782750000151</v>
+        <v>-0.020938386146666668</v>
       </c>
       <c r="M13" s="0">
-        <v>-0.74725238891666668</v>
+        <v>-1.0293132791166666</v>
       </c>
       <c r="N13" s="0">
-        <v>-0.19385803371666657</v>
+        <v>0.35847305771666665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.059555075616666661</v>
+        <v>-0.17747672363333333</v>
       </c>
       <c r="B14" s="0">
-        <v>0.61343448977333348</v>
+        <v>0.32335368000833331</v>
       </c>
       <c r="C14" s="0">
-        <v>0.48112606051666668</v>
+        <v>0.21518536867800003</v>
       </c>
       <c r="D14" s="0">
-        <v>0.41944084256666658</v>
+        <v>0.41060125824666666</v>
       </c>
       <c r="E14" s="0">
-        <v>0.58316201555333336</v>
+        <v>0.38812996976666669</v>
       </c>
       <c r="F14" s="0">
-        <v>1.0809982549199999</v>
+        <v>0.42144380248666663</v>
       </c>
       <c r="G14" s="0">
-        <v>0.69065632033333335</v>
+        <v>-0.19099283386666671</v>
       </c>
       <c r="H14" s="0">
-        <v>0.081042782495000007</v>
+        <v>-0.19722441941450003</v>
       </c>
       <c r="I14" s="0">
-        <v>0.25153970279666665</v>
+        <v>0.24185980454666664</v>
       </c>
       <c r="J14" s="0">
-        <v>0.90110603918333332</v>
+        <v>0.76676651444666666</v>
       </c>
       <c r="K14" s="0">
-        <v>0.40312757619833328</v>
+        <v>0.46975873758333331</v>
       </c>
       <c r="L14" s="0">
-        <v>0.28507000698333335</v>
+        <v>0.19044327315666665</v>
       </c>
       <c r="M14" s="0">
-        <v>-0.62960303786999994</v>
+        <v>-0.8953195275000001</v>
       </c>
       <c r="N14" s="0">
-        <v>0.011708580000000024</v>
+        <v>-0.075312551733333358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.49262343617333332</v>
+        <v>-0.32570544795</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0031301000566666404</v>
+        <v>0.5044578094433334</v>
       </c>
       <c r="C15" s="0">
-        <v>0.47385274128060034</v>
+        <v>0.55189833783060038</v>
       </c>
       <c r="D15" s="0">
-        <v>0.70851302326333332</v>
+        <v>0.51781687453616665</v>
       </c>
       <c r="E15" s="0">
-        <v>0.66326815414999996</v>
+        <v>0.51981883851666666</v>
       </c>
       <c r="F15" s="0">
-        <v>0.22165874203566666</v>
+        <v>0.32069390691899996</v>
       </c>
       <c r="G15" s="0">
-        <v>0.32467599732333341</v>
+        <v>0.38738632638999998</v>
       </c>
       <c r="H15" s="0">
-        <v>0.093066212850000024</v>
+        <v>0.25290684981666667</v>
       </c>
       <c r="I15" s="0">
-        <v>0.37296272998333335</v>
+        <v>0.19143510348333334</v>
       </c>
       <c r="J15" s="0">
-        <v>0.21894331188000005</v>
+        <v>0.18132553634666682</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.02938045735</v>
+        <v>0.41750443141833332</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.26596385596666672</v>
+        <v>0.15501745143333323</v>
       </c>
       <c r="M15" s="0">
-        <v>1.0213306969</v>
+        <v>0.84383535598333326</v>
       </c>
       <c r="N15" s="0">
-        <v>0.44165444420000005</v>
+        <v>0.87466104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.13473441371666667</v>
+        <v>0.08231677683166666</v>
       </c>
       <c r="B16" s="0">
-        <v>0.22783246323333337</v>
+        <v>0.29793760383333334</v>
       </c>
       <c r="C16" s="0">
-        <v>0.41785781762133334</v>
+        <v>0.50916197827133325</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0083985771883333671</v>
+        <v>0.38257427003333333</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.068125639683333322</v>
+        <v>0.17455165966666666</v>
       </c>
       <c r="F16" s="0">
-        <v>0.066118797850000022</v>
+        <v>0.171427951</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.32219420941666665</v>
+        <v>0.025318903733333356</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.14186380865000001</v>
+        <v>0.027890866479</v>
       </c>
       <c r="I16" s="0">
-        <v>0.29037462656666663</v>
+        <v>0.21758657244166663</v>
       </c>
       <c r="J16" s="0">
-        <v>0.35670505451666668</v>
+        <v>0.37581897361666666</v>
       </c>
       <c r="K16" s="0">
-        <v>0.052101521964999981</v>
+        <v>0.25301282450000001</v>
       </c>
       <c r="L16" s="0">
-        <v>0.35202486746666661</v>
+        <v>0.47153370226666669</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.31522881003999992</v>
+        <v>-0.36463386319000002</v>
       </c>
       <c r="N16" s="0">
-        <v>0.37127877965</v>
+        <v>0.33907096815000004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.65894368078333332</v>
+        <v>-0.47655504607999999</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.68887835273166675</v>
+        <v>-0.91391357080000002</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.49804862173333331</v>
+        <v>-0.80170685742333336</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.29960355288233331</v>
+        <v>-0.12893964445</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.28016900652333337</v>
+        <v>0.043985798921666708</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.38395389908499999</v>
+        <v>-0.37500198520000005</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.060030908974666647</v>
+        <v>-0.27588990017466664</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.37779370035000004</v>
+        <v>-0.48147970946666674</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.77461109436666664</v>
+        <v>-0.37547006673333333</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.080456974081666646</v>
+        <v>-1.2438319584999999</v>
       </c>
       <c r="K17" s="0">
-        <v>-1.6426531310499999</v>
+        <v>-1.6496703801000001</v>
       </c>
       <c r="L17" s="0">
-        <v>-2.5311054168333333</v>
+        <v>-2.2595195643333335</v>
       </c>
       <c r="M17" s="0">
-        <v>-2.0235793488000002</v>
+        <v>-1.52647325574</v>
       </c>
       <c r="N17" s="0">
-        <v>-2.3512035512999998</v>
+        <v>-1.1623523209333335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-1.4257737812</v>
+        <v>-0.83948829233333333</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.77330877936666664</v>
+        <v>-0.14743580178066668</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.62618116506666666</v>
+        <v>-0.21685759559999998</v>
       </c>
       <c r="D18" s="0">
-        <v>0.059389798533333371</v>
+        <v>0.029000022133333303</v>
       </c>
       <c r="E18" s="0">
-        <v>0.27399047120999998</v>
+        <v>0.25984952815399998</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.52231138069666661</v>
+        <v>-0.051806904296666664</v>
       </c>
       <c r="G18" s="0">
-        <v>-1.46152218</v>
+        <v>-0.040416037533333324</v>
       </c>
       <c r="H18" s="0">
-        <v>-1.1045753795666666</v>
+        <v>-0.094714852366666685</v>
       </c>
       <c r="I18" s="0">
-        <v>0.078577313350666672</v>
+        <v>0.61682608503733327</v>
       </c>
       <c r="J18" s="0">
-        <v>-1.2763858558700001</v>
+        <v>-0.38296582612333335</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.3393536238</v>
+        <v>-0.16921125517999996</v>
       </c>
       <c r="L18" s="0">
-        <v>-2.0401980282999999</v>
+        <v>-1.4035031605333332</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.89455599783666662</v>
+        <v>0.18616006002999999</v>
       </c>
       <c r="N18" s="0">
-        <v>-1.1583807232333334</v>
+        <v>0.48726396542666656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.14027619191099999</v>
+        <v>-0.26507111018899998</v>
       </c>
       <c r="B19" s="0">
-        <v>0.52763506756666667</v>
+        <v>0.27184535576666669</v>
       </c>
       <c r="C19" s="0">
-        <v>0.24220944719999998</v>
+        <v>0.28623911486666664</v>
       </c>
       <c r="D19" s="0">
-        <v>0.80172180829000006</v>
+        <v>0.69897780245666663</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.14116222405666665</v>
+        <v>0.027615381786666671</v>
       </c>
       <c r="F19" s="0">
-        <v>0.077201284966666672</v>
+        <v>0.12505535306333335</v>
       </c>
       <c r="G19" s="0">
-        <v>0.016706315999999943</v>
+        <v>0.13180615779999999</v>
       </c>
       <c r="H19" s="0">
-        <v>0.30730734302333329</v>
+        <v>0.30997366913000002</v>
       </c>
       <c r="I19" s="0">
-        <v>0.35345236478333336</v>
+        <v>0.15813046233666667</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.57346931136666668</v>
+        <v>-0.65607361756666671</v>
       </c>
       <c r="K19" s="0">
-        <v>0.1788348788666666</v>
+        <v>-0.17608523116666669</v>
       </c>
       <c r="L19" s="0">
-        <v>0.7868660328999999</v>
+        <v>0.56919000836666667</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.1283168713333333</v>
+        <v>-0.060630335700000038</v>
       </c>
       <c r="N19" s="0">
-        <v>0.47390734651999999</v>
+        <v>-0.0086840183000000126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.61971470532166673</v>
+        <v>0.38537225266666664</v>
       </c>
       <c r="B20" s="0">
-        <v>0.60773934416999997</v>
+        <v>0.15073660085666665</v>
       </c>
       <c r="C20" s="0">
-        <v>0.55673937169499998</v>
+        <v>0.48078697006666671</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.11908992375266667</v>
+        <v>-0.17413281986933332</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.42393645024333332</v>
+        <v>-0.43828411087499997</v>
       </c>
       <c r="F20" s="0">
-        <v>0.41069417266666663</v>
+        <v>0.34698311351166666</v>
       </c>
       <c r="G20" s="0">
-        <v>0.62920039993333321</v>
+        <v>0.59091795357666665</v>
       </c>
       <c r="H20" s="0">
-        <v>0.40047356028333336</v>
+        <v>0.28836768234999999</v>
       </c>
       <c r="I20" s="0">
-        <v>0.14571350412333331</v>
+        <v>-0.057597610426666689</v>
       </c>
       <c r="J20" s="0">
-        <v>1.1252735353266665</v>
+        <v>0.94545530547666667</v>
       </c>
       <c r="K20" s="0">
-        <v>0.52439710351666668</v>
+        <v>0.40926350978333337</v>
       </c>
       <c r="L20" s="0">
-        <v>0.81578174930000003</v>
+        <v>-0.0067829228833333199</v>
       </c>
       <c r="M20" s="0">
-        <v>0.39577228165</v>
+        <v>-0.46450830871666671</v>
       </c>
       <c r="N20" s="0">
-        <v>-0.27881399235000004</v>
+        <v>-0.63413106566666655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.33890814162499999</v>
+        <v>0.33952656791666669</v>
       </c>
       <c r="B21" s="0">
-        <v>0.22793797531666668</v>
+        <v>0.26913981695000005</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.32569306587000008</v>
+        <v>-0.14085220785333336</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.17389023594166669</v>
+        <v>-0.18190597951666668</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.08060373013666669</v>
+        <v>-0.082315127236666646</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.571422973025</v>
+        <v>-0.11992925868696667</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.56759387847333331</v>
+        <v>-0.29329852903333331</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.013810909816666689</v>
+        <v>0.049897940683333336</v>
       </c>
       <c r="I21" s="0">
-        <v>0.01356608936500002</v>
+        <v>-0.036491924173333343</v>
       </c>
       <c r="J21" s="0">
-        <v>0.31745401874999996</v>
+        <v>-0.27434613599666663</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.14499999763333332</v>
+        <v>0.2563931835433334</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.090968284983333342</v>
+        <v>-0.199939362329</v>
       </c>
       <c r="M21" s="0">
-        <v>0.24881864154999994</v>
+        <v>0.064080908166666589</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.21565773274099997</v>
+        <v>-0.17109666049433334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.14372402052666666</v>
+        <v>-0.41665420712666668</v>
       </c>
       <c r="B22" s="0">
-        <v>0.062963431473333345</v>
+        <v>0.045758313263333336</v>
       </c>
       <c r="C22" s="0">
-        <v>0.072119454319999998</v>
+        <v>0.090175639353333337</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.23024074539999997</v>
+        <v>-1.10019103528</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.49331701889999996</v>
+        <v>-0.90874217097333332</v>
       </c>
       <c r="F22" s="0">
-        <v>0.26565913257000001</v>
+        <v>0.56147849727333332</v>
       </c>
       <c r="G22" s="0">
-        <v>0.32038705128466666</v>
+        <v>0.44331682545133333</v>
       </c>
       <c r="H22" s="0">
-        <v>-0.18917714687466664</v>
+        <v>0.13514791498533335</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.083246613366666639</v>
+        <v>-0.70919227043333333</v>
       </c>
       <c r="J22" s="0">
-        <v>-1.273379114495</v>
+        <v>-1.0971987106283334</v>
       </c>
       <c r="K22" s="0">
-        <v>-0.63331396656666672</v>
+        <v>0.87246394829999996</v>
       </c>
       <c r="L22" s="0">
-        <v>0.17109437843333331</v>
+        <v>-0.21314147986666676</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.79911334313333338</v>
+        <v>-2.1421535556433335</v>
       </c>
       <c r="N22" s="0">
-        <v>0.021246020899999996</v>
+        <v>-0.85615614960000008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-1.07671038575</v>
+        <v>-0.5725377760175</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.85940960614999995</v>
+        <v>-0.56894750267499994</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.40870458414999999</v>
+        <v>-0.554214185315</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.24469247882</v>
+        <v>-0.28631609318500001</v>
       </c>
       <c r="E23" s="0">
-        <v>0.18341457480000009</v>
+        <v>0.25094942670000009</v>
       </c>
       <c r="F23" s="0">
-        <v>0.019802264189999946</v>
+        <v>-0.41593551875500001</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.28951177683000001</v>
+        <v>-0.44988784073999999</v>
       </c>
       <c r="H23" s="0">
-        <v>0.048515267400000062</v>
+        <v>-0.37474170569999993</v>
       </c>
       <c r="I23" s="0">
-        <v>0.028171169150000064</v>
+        <v>-0.43650988265000001</v>
       </c>
       <c r="J23" s="0">
-        <v>0.22983989491000001</v>
+        <v>-0.42738560799999992</v>
       </c>
       <c r="K23" s="0">
-        <v>-1.23616272695</v>
+        <v>-0.80139905834999992</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.35661244784999996</v>
+        <v>-0.33418713964999996</v>
       </c>
       <c r="M23" s="0">
-        <v>0.23700674534999999</v>
+        <v>-0.36223701718500007</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.62363465549999997</v>
+        <v>-0.95484513699999995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3724697014433333</v>
+        <v>0.13221589155666663</v>
       </c>
       <c r="B24" s="0">
-        <v>0.72284668002999997</v>
+        <v>0.22454222276666669</v>
       </c>
       <c r="C24" s="0">
-        <v>0.82636568786666675</v>
+        <v>0.27934347623166672</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.24787674645166666</v>
+        <v>0.01769223004000001</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.10851196063333333</v>
+        <v>-0.12924201370666666</v>
       </c>
       <c r="F24" s="0">
-        <v>0.54822908981666663</v>
+        <v>0.15664148198333333</v>
       </c>
       <c r="G24" s="0">
-        <v>0.81872228849666662</v>
+        <v>0.30804266644666661</v>
       </c>
       <c r="H24" s="0">
-        <v>0.46764084031666669</v>
+        <v>0.23868446438333329</v>
       </c>
       <c r="I24" s="0">
-        <v>0.32912644728166662</v>
+        <v>0.27498144858333329</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.31525827962333342</v>
+        <v>-0.32299515971333337</v>
       </c>
       <c r="K24" s="0">
-        <v>1.0587648675999999</v>
+        <v>0.87680698056666662</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.1398522173816667</v>
+        <v>-0.34385295253333337</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.42029676055000004</v>
+        <v>-0.27418148823633332</v>
       </c>
       <c r="N24" s="0">
-        <v>-1.0703921567333334</v>
+        <v>-1.7179959364999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.35143660153833334</v>
+        <v>-0.14817577990333336</v>
       </c>
       <c r="B25" s="0">
-        <v>0.13676906439666664</v>
+        <v>0.33929207793833338</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.052293212700000022</v>
+        <v>0.35753980138571667</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.38694697412666668</v>
+        <v>-0.0057967575933333543</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.41738008129633331</v>
+        <v>-0.19073994696966662</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.024090379119999998</v>
+        <v>0.093113165533333334</v>
       </c>
       <c r="G25" s="0">
-        <v>0.063090019388333321</v>
+        <v>0.066169763858333328</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.21296685790666667</v>
+        <v>-0.24364060838266666</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.17179625858333333</v>
+        <v>0.2353997163166667</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.077348201773333319</v>
+        <v>0.35270028401000003</v>
       </c>
       <c r="K25" s="0">
-        <v>0.1221041213166667</v>
+        <v>0.54668418223333337</v>
       </c>
       <c r="L25" s="0">
-        <v>0.37610306753433331</v>
+        <v>0.53427334688333328</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.72730801048333338</v>
+        <v>-0.61551441961333331</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.25597110142333324</v>
+        <v>0.34916030151666677</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.85332599200000003</v>
+        <v>-0.53938630555</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.28670905555499998</v>
+        <v>-0.43975574621500002</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.60950475684999994</v>
+        <v>-0.74189403209999993</v>
       </c>
       <c r="D26" s="0">
-        <v>0.6653875159</v>
+        <v>0.051389386149999966</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.53102219010499996</v>
+        <v>-0.40908023065499999</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.5034220675999999</v>
+        <v>-1.30259462178</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.72119029980000005</v>
+        <v>-1.2405734475000001</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.82068951010000002</v>
+        <v>-1.2604656999500001</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.009957485245</v>
+        <v>-1.364817586195</v>
       </c>
       <c r="J26" s="0">
-        <v>-1.2321475448500001</v>
+        <v>-1.7412101545000001</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.66651780257499993</v>
+        <v>-0.82689458980999997</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.26020521244999995</v>
+        <v>-1.0406832222</v>
       </c>
       <c r="M26" s="0">
-        <v>-1.29321823655</v>
+        <v>-1.7496579324500001</v>
       </c>
       <c r="N26" s="0">
-        <v>0.44395407114999996</v>
+        <v>-0.48633502630000003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.32358827893666664</v>
+        <v>0.63639793879599993</v>
       </c>
       <c r="B27" s="0">
-        <v>0.70381192316666663</v>
+        <v>0.49369089405333333</v>
       </c>
       <c r="C27" s="0">
-        <v>0.08255968666666666</v>
+        <v>-0.0071572871966666812</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.62593282419999996</v>
+        <v>-0.32533350253333332</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.77322602569999999</v>
+        <v>-0.3019947556476667</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0096531923433333389</v>
+        <v>-0.0086041837616666755</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.25461113325000001</v>
+        <v>0.081396155696666667</v>
       </c>
       <c r="H27" s="0">
-        <v>0.12861845423333335</v>
+        <v>0.39374786642499998</v>
       </c>
       <c r="I27" s="0">
-        <v>0.65241948776666669</v>
+        <v>0.44455343359666671</v>
       </c>
       <c r="J27" s="0">
-        <v>0.35871545952999995</v>
+        <v>1.2008419305133333</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.14591825131266667</v>
+        <v>0.0041278527116666852</v>
       </c>
       <c r="L27" s="0">
-        <v>0.061507917733333348</v>
+        <v>0.089210203016666656</v>
       </c>
       <c r="M27" s="0">
-        <v>-1.2199266814</v>
+        <v>-0.90450654516666673</v>
       </c>
       <c r="N27" s="0">
-        <v>0.7911496512666667</v>
+        <v>0.040835378966666683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.60596712483533333</v>
+        <v>-0.70245175248533331</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.59703617449333324</v>
+        <v>-0.82823719686666664</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.38043801174333336</v>
+        <v>-0.50881166397666666</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.64118195649999987</v>
+        <v>-0.5396479178750001</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.62675835894999987</v>
+        <v>-0.39866444278166663</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.25243275804399995</v>
+        <v>-0.25994049929399998</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.42957517082333335</v>
+        <v>-0.28945296788333341</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.47138422516333334</v>
+        <v>-0.40817288609983332</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.27276598703999999</v>
+        <v>-0.28769351003999999</v>
       </c>
       <c r="J28" s="0">
-        <v>0.11563029368000005</v>
+        <v>0.32325137144666671</v>
       </c>
       <c r="K28" s="0">
-        <v>-1.3174835411000001</v>
+        <v>-1.4559543706166664</v>
       </c>
       <c r="L28" s="0">
-        <v>-1.2099525599983334</v>
+        <v>-1.3616098217000001</v>
       </c>
       <c r="M28" s="0">
-        <v>-0.78765612625000003</v>
+        <v>-1.1975088055500001</v>
       </c>
       <c r="N28" s="0">
-        <v>-0.12113695971666671</v>
+        <v>0.070389211733333235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.70533838076666666</v>
+        <v>0.39746821400000004</v>
       </c>
       <c r="B29" s="0">
-        <v>0.95205122513999996</v>
+        <v>0.95361969739000008</v>
       </c>
       <c r="C29" s="0">
-        <v>0.00085982578333332338</v>
+        <v>0.59862490810666669</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.67935110903666673</v>
+        <v>-0.020139976133333376</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.40043435140666672</v>
+        <v>0.27673054872833325</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.26954819915</v>
+        <v>0.84939839938333339</v>
       </c>
       <c r="G29" s="0">
-        <v>0.23957803293666668</v>
+        <v>1.0819394621866667</v>
       </c>
       <c r="H29" s="0">
-        <v>0.33000852651666668</v>
+        <v>0.93955093860000005</v>
       </c>
       <c r="I29" s="0">
-        <v>0.19282895692999999</v>
+        <v>0.65862837521666673</v>
       </c>
       <c r="J29" s="0">
-        <v>1.0425116668166665</v>
+        <v>0.84162940549566656</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.25028331291333333</v>
+        <v>0.94977525080000003</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.06281376968333334</v>
+        <v>0.50450265698333341</v>
       </c>
       <c r="M29" s="0">
-        <v>0.14238079235000001</v>
+        <v>0.31549283430000008</v>
       </c>
       <c r="N29" s="0">
-        <v>0.41625455121666671</v>
+        <v>0.57536452448333331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.067902887700000025</v>
+        <v>-0.2377590057</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.366321768085</v>
+        <v>-0.42213561564000002</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.10125255309666667</v>
+        <v>-0.27911878139333335</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.16626454911933333</v>
+        <v>-0.32501764808599998</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.34640219494999996</v>
+        <v>-0.38435663622499999</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.40688227619666661</v>
+        <v>-0.47536329279</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.2719532241</v>
+        <v>-0.57089610570666671</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.52604671397900005</v>
+        <v>-0.58480789975233327</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.31455218261666662</v>
+        <v>-0.102859672215</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.1191691335</v>
+        <v>-0.45567983666666667</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.54188800036000007</v>
+        <v>-0.43727285560999996</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.86536017786666664</v>
+        <v>-0.092595905766666653</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.86789395268333336</v>
+        <v>-0.82395365451666669</v>
       </c>
       <c r="N30" s="0">
-        <v>-1.3579883951999998</v>
+        <v>-0.51445617557416667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.46742455310333331</v>
+        <v>-0.48169345926999996</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.069712546769999995</v>
+        <v>-0.12977110873233336</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.42478019818333335</v>
+        <v>-0.65815406840000001</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.41294646185000006</v>
+        <v>-0.49573225570000001</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.89810138402333328</v>
+        <v>-0.94178587874000008</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.82260340983666658</v>
+        <v>-0.92722772361999994</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.71241868347333326</v>
+        <v>-0.93647965123999999</v>
       </c>
       <c r="H31" s="0">
-        <v>-1.1196862982666667</v>
+        <v>-1.2533989113999999</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.7016269213166666</v>
+        <v>-0.91080291376666667</v>
       </c>
       <c r="J31" s="0">
-        <v>-1.0039566221833334</v>
+        <v>-1.47605401585</v>
       </c>
       <c r="K31" s="0">
-        <v>-0.71382538324999989</v>
+        <v>-1.2535397646166666</v>
       </c>
       <c r="L31" s="0">
-        <v>0.69419180766666666</v>
+        <v>-0.081496637950000006</v>
       </c>
       <c r="M31" s="0">
-        <v>0.87224826026333335</v>
+        <v>0.10857013069666671</v>
       </c>
       <c r="N31" s="0">
-        <v>0.43050485754666667</v>
+        <v>-0.10844218000333344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.44769649461</v>
+        <v>0.34544036670333333</v>
       </c>
       <c r="B32" s="0">
-        <v>0.328116556665</v>
+        <v>0.23605197991500002</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.37449345671333334</v>
+        <v>-0.44866884789000006</v>
       </c>
       <c r="D32" s="0">
-        <v>0.22918077503333337</v>
+        <v>0.029535874599999998</v>
       </c>
       <c r="E32" s="0">
-        <v>0.07597872142000002</v>
+        <v>0.01821449881999998</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.065575041483333332</v>
+        <v>0.060610208866666682</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.18583546544999999</v>
+        <v>-0.39089595399666666</v>
       </c>
       <c r="H32" s="0">
-        <v>0.064537418040000016</v>
+        <v>-0.18422083846666668</v>
       </c>
       <c r="I32" s="0">
-        <v>0.42854183876333329</v>
+        <v>0.27511192721666666</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.30775712394999999</v>
+        <v>-0.52395223798333324</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.65937898565666664</v>
+        <v>-0.4812527662133334</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.016594208189999904</v>
+        <v>-0.15524543727333329</v>
       </c>
       <c r="M32" s="0">
-        <v>0.63146997771666658</v>
+        <v>0.39327632100000004</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.20471467841999991</v>
+        <v>-0.29488025871999995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.40201351323866669</v>
+        <v>0.36499247640533339</v>
       </c>
       <c r="B33" s="0">
-        <v>0.73143990927333336</v>
+        <v>0.7705176575399999</v>
       </c>
       <c r="C33" s="0">
-        <v>0.81431188217166672</v>
+        <v>0.83466484130833341</v>
       </c>
       <c r="D33" s="0">
-        <v>0.59535092407000001</v>
+        <v>0.43329496990000005</v>
       </c>
       <c r="E33" s="0">
-        <v>0.40985154323</v>
+        <v>0.53833471223283325</v>
       </c>
       <c r="F33" s="0">
-        <v>0.33635196471333334</v>
+        <v>0.21740747656333337</v>
       </c>
       <c r="G33" s="0">
-        <v>0.14257844895333333</v>
+        <v>-0.075609370116666658</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.094080407285999992</v>
+        <v>-0.11510814929099998</v>
       </c>
       <c r="I33" s="0">
-        <v>1.0258729931500001</v>
+        <v>0.91782021261666658</v>
       </c>
       <c r="J33" s="0">
-        <v>0.95505138110666676</v>
+        <v>0.87819117381666678</v>
       </c>
       <c r="K33" s="0">
-        <v>0.40406620483</v>
+        <v>0.28175684486333336</v>
       </c>
       <c r="L33" s="0">
-        <v>0.35325586157666666</v>
+        <v>0.35066850698166663</v>
       </c>
       <c r="M33" s="0">
-        <v>0.3098250229666667</v>
+        <v>0.41091233558333329</v>
       </c>
       <c r="N33" s="0">
-        <v>1.9128608842333332</v>
+        <v>1.6982762086683336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.10009331824333334</v>
+        <v>-0.25896201449666667</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.090814535400000007</v>
+        <v>-0.40451074850333335</v>
       </c>
       <c r="C34" s="0">
-        <v>-1.1201063555333335</v>
+        <v>-0.65544338376666667</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.61021989472299998</v>
+        <v>-0.5990375041999999</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.43121769427333334</v>
+        <v>-0.7201976122</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.70626923024333343</v>
+        <v>-0.43450055157666667</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.20327011836</v>
+        <v>0.040835835289999997</v>
       </c>
       <c r="H34" s="0">
-        <v>0.31913990999666669</v>
+        <v>0.085510947783333346</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.70379131509999993</v>
+        <v>-0.8051879869666666</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.66136415355333344</v>
+        <v>-0.80591938395333329</v>
       </c>
       <c r="K34" s="0">
-        <v>0.19671776373333338</v>
+        <v>-0.36030916137000002</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.95300694173333333</v>
+        <v>-0.75876745546666668</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.42569964152333334</v>
+        <v>-0.89434313745666671</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.87595323731333319</v>
+        <v>-1.0770873948799999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.80392420706666667</v>
+        <v>0.78255601413333331</v>
       </c>
       <c r="B35" s="0">
-        <v>0.57513760827999993</v>
+        <v>0.69087682957999996</v>
       </c>
       <c r="C35" s="0">
-        <v>0.16927851818833334</v>
+        <v>0.47831709957333335</v>
       </c>
       <c r="D35" s="0">
-        <v>0.43455195332666663</v>
+        <v>0.46432936612666664</v>
       </c>
       <c r="E35" s="0">
-        <v>0.70735021459666669</v>
+        <v>0.67570640909666668</v>
       </c>
       <c r="F35" s="0">
-        <v>0.44764471701666664</v>
+        <v>0.26677591360333336</v>
       </c>
       <c r="G35" s="0">
-        <v>0.46464642624200003</v>
+        <v>0.68979043278666663</v>
       </c>
       <c r="H35" s="0">
-        <v>0.25119426845949999</v>
+        <v>0.3828589895761666</v>
       </c>
       <c r="I35" s="0">
-        <v>0.59119783935833325</v>
+        <v>0.56674030507499995</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.2117017600633333</v>
+        <v>-0.075978667396666671</v>
       </c>
       <c r="K35" s="0">
-        <v>0.25765104475666667</v>
+        <v>0.6424873381566667</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.06011096769999999</v>
+        <v>0.54092981559999997</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.28670454514999999</v>
+        <v>0.26382156428333325</v>
       </c>
       <c r="N35" s="0">
-        <v>0.44914640090000002</v>
+        <v>0.67571568683333338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.74170081826666667</v>
+        <v>-0.73989607756666664</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.70445419003333332</v>
+        <v>-0.69847699305000011</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.40330263294333335</v>
+        <v>-0.81458750891666676</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.39423666399666668</v>
+        <v>-0.74127850061333334</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.27327127874666657</v>
+        <v>-0.45521414527999998</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.76789341109499998</v>
+        <v>-0.91335565302833333</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.26913667556666671</v>
+        <v>-0.31218150300000003</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.39272683597000002</v>
+        <v>-0.27757929571666667</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.29238036984333338</v>
+        <v>-0.43186357497666672</v>
       </c>
       <c r="J36" s="0">
-        <v>0.13004406438333335</v>
+        <v>-0.15442003800000001</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.60857877357166679</v>
+        <v>-0.43645914860499996</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.1905210437116667</v>
+        <v>0.01911598138499998</v>
       </c>
       <c r="M36" s="0">
-        <v>0.022137245216666671</v>
+        <v>0.11174241614999998</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.92638429508333331</v>
+        <v>-0.70724424834999988</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.092627266563333338</v>
+        <v>0.41864463356999992</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.81462348293333331</v>
+        <v>-0.12649932971666669</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.83368576761666668</v>
+        <v>-0.23586799314999998</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.34370840135833336</v>
+        <v>0.031593159108333324</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.29797596065666665</v>
+        <v>-0.15458855269666666</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.48891240423999999</v>
+        <v>-0.18301609988999998</v>
       </c>
       <c r="G37" s="0">
-        <v>-1.1254021461833332</v>
+        <v>-0.69029307515000005</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.49772941211999999</v>
+        <v>-0.20550845065000004</v>
       </c>
       <c r="I37" s="0">
-        <v>0.0014573580266667163</v>
+        <v>0.0057300814633333419</v>
       </c>
       <c r="J37" s="0">
-        <v>0.94837410718333337</v>
+        <v>1.5459441944000001</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.25020511909999998</v>
+        <v>0.10079034225000003</v>
       </c>
       <c r="L37" s="0">
-        <v>0.68366668136666675</v>
+        <v>1.0209039808333333</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.11367931433000002</v>
+        <v>0.16849317383666668</v>
       </c>
       <c r="N37" s="0">
-        <v>1.842002904279</v>
+        <v>1.8874268462499999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.23311992267599996</v>
+        <v>-0.34072192960733338</v>
       </c>
       <c r="B38" s="0">
-        <v>0.72253171155000007</v>
+        <v>0.24207947623333337</v>
       </c>
       <c r="C38" s="0">
-        <v>0.59745791054333341</v>
+        <v>0.35155752847666666</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.094510728533333366</v>
+        <v>0.07301159016666664</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.4813107334333333</v>
+        <v>0.20045192971666659</v>
       </c>
       <c r="F38" s="0">
-        <v>0.49599987420000002</v>
+        <v>0.20695936576666685</v>
       </c>
       <c r="G38" s="0">
-        <v>1.1703568898333334</v>
+        <v>0.33172719823333335</v>
       </c>
       <c r="H38" s="0">
-        <v>0.56130283908666656</v>
+        <v>-0.036159118696666659</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.41115916531666674</v>
+        <v>-0.088226468333333363</v>
       </c>
       <c r="J38" s="0">
-        <v>1.2830166032333332</v>
+        <v>1.3440716213333332</v>
       </c>
       <c r="K38" s="0">
-        <v>0.67760566701666658</v>
+        <v>0.51624225278333324</v>
       </c>
       <c r="L38" s="0">
-        <v>0.71922522656666654</v>
+        <v>0.17144073296666651</v>
       </c>
       <c r="M38" s="0">
-        <v>0.27586807111999978</v>
+        <v>0.3782003630666666</v>
       </c>
       <c r="N38" s="0">
-        <v>0.05568280238333323</v>
+        <v>0.20528733271666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.031852856746666672</v>
+        <v>-0.14666304185499998</v>
       </c>
       <c r="B39" s="0">
-        <v>0.15305605318333332</v>
+        <v>-0.057122951883333328</v>
       </c>
       <c r="C39" s="0">
-        <v>0.43221505085</v>
+        <v>0.2261514389833334</v>
       </c>
       <c r="D39" s="0">
-        <v>0.61483083606999989</v>
+        <v>0.51362246973333336</v>
       </c>
       <c r="E39" s="0">
-        <v>0.59783654696999999</v>
+        <v>0.48504466853000006</v>
       </c>
       <c r="F39" s="0">
-        <v>0.57113807828333341</v>
+        <v>0.70386293568333325</v>
       </c>
       <c r="G39" s="0">
-        <v>0.75114059594999993</v>
+        <v>0.73940044849999986</v>
       </c>
       <c r="H39" s="0">
-        <v>0.54034580328000004</v>
+        <v>0.45499162182999997</v>
       </c>
       <c r="I39" s="0">
-        <v>0.20020081953333332</v>
+        <v>0.41206883608433331</v>
       </c>
       <c r="J39" s="0">
-        <v>1.0810597551333334</v>
+        <v>0.64760309099999991</v>
       </c>
       <c r="K39" s="0">
-        <v>0.19093991506666666</v>
+        <v>0.068041903433333342</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.6088287706033334</v>
+        <v>-0.95543247043666679</v>
       </c>
       <c r="M39" s="0">
-        <v>0.040181050750000009</v>
+        <v>-0.12262198854999999</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.66170248498333328</v>
+        <v>-0.84627216007499995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.65332171404333328</v>
+        <v>0.54610465976</v>
       </c>
       <c r="B40" s="0">
-        <v>0.77776544141666659</v>
+        <v>0.91195398313333331</v>
       </c>
       <c r="C40" s="0">
-        <v>1.0882695543566665</v>
+        <v>1.21079522219</v>
       </c>
       <c r="D40" s="0">
-        <v>0.50697592057000007</v>
+        <v>0.54413148986666671</v>
       </c>
       <c r="E40" s="0">
-        <v>0.18764408974666669</v>
+        <v>0.27543294346333336</v>
       </c>
       <c r="F40" s="0">
-        <v>0.71741824985826663</v>
+        <v>1.0784547373566666</v>
       </c>
       <c r="G40" s="0">
-        <v>1.0504950648666667</v>
+        <v>1.3827670542999999</v>
       </c>
       <c r="H40" s="0">
-        <v>0.55044439506666665</v>
+        <v>0.69237058883333336</v>
       </c>
       <c r="I40" s="0">
-        <v>0.31067253317499999</v>
+        <v>0.31159018853333331</v>
       </c>
       <c r="J40" s="0">
-        <v>0.48211463099999996</v>
+        <v>0.6955231745349999</v>
       </c>
       <c r="K40" s="0">
-        <v>0.99735001290000003</v>
+        <v>1.3305447462333333</v>
       </c>
       <c r="L40" s="0">
-        <v>1.6925551128666669</v>
+        <v>1.8898986526666668</v>
       </c>
       <c r="M40" s="0">
-        <v>0.71481097260000004</v>
+        <v>0.97687728878333324</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.014398186233333221</v>
+        <v>0.066008877183333259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.025295919909999992</v>
+        <v>0.34673695230666668</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.43084732425000005</v>
+        <v>-0.26814133173333338</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.11100504673316658</v>
+        <v>0.14834932836683334</v>
       </c>
       <c r="D41" s="0">
-        <v>0.30880581090500003</v>
+        <v>0.73598773635833337</v>
       </c>
       <c r="E41" s="0">
-        <v>0.42810463027000001</v>
+        <v>0.6378108858</v>
       </c>
       <c r="F41" s="0">
-        <v>0.94808861866666672</v>
+        <v>0.92935686140000007</v>
       </c>
       <c r="G41" s="0">
-        <v>0.59496298870566666</v>
+        <v>0.47951017681874997</v>
       </c>
       <c r="H41" s="0">
-        <v>0.15163416305000002</v>
+        <v>0.20742897397283333</v>
       </c>
       <c r="I41" s="0">
-        <v>-0.016399855297666716</v>
+        <v>0.36902919776999998</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.74598932181200006</v>
+        <v>-0.48304898565333343</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.62144611471666666</v>
+        <v>-0.58628567035000001</v>
       </c>
       <c r="L41" s="0">
-        <v>-0.30491024444000003</v>
+        <v>0.24114341074333334</v>
       </c>
       <c r="M41" s="0">
-        <v>0.080250697216666556</v>
+        <v>0.99919794769999992</v>
       </c>
       <c r="N41" s="0">
-        <v>0.15908466166666668</v>
+        <v>1.3147270259333332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.33407394438666665</v>
+        <v>0.30655053131000004</v>
       </c>
       <c r="B42" s="0">
-        <v>0.45701324462999998</v>
+        <v>0.53594443587999996</v>
       </c>
       <c r="C42" s="0">
-        <v>0.46532307951666668</v>
+        <v>0.47485842719899996</v>
       </c>
       <c r="D42" s="0">
-        <v>0.3228359466166667</v>
+        <v>0.37614362755666669</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.47810911919333332</v>
+        <v>-0.39434088981333332</v>
       </c>
       <c r="F42" s="0">
-        <v>0.46347066283333338</v>
+        <v>0.63719133569666664</v>
       </c>
       <c r="G42" s="0">
-        <v>0.12194847480000004</v>
+        <v>0.29365217755</v>
       </c>
       <c r="H42" s="0">
-        <v>0.44611883298333332</v>
+        <v>0.61556556968666665</v>
       </c>
       <c r="I42" s="0">
-        <v>0.10037993176333332</v>
+        <v>-0.014724504766666702</v>
       </c>
       <c r="J42" s="0">
-        <v>0.26357293152333328</v>
+        <v>0.36433832017000012</v>
       </c>
       <c r="K42" s="0">
-        <v>0.97903844362999992</v>
+        <v>0.98769451431666666</v>
       </c>
       <c r="L42" s="0">
-        <v>0.66167742659666673</v>
+        <v>0.97224379176666664</v>
       </c>
       <c r="M42" s="0">
-        <v>0.1127633930999999</v>
+        <v>0.71557972619999999</v>
       </c>
       <c r="N42" s="0">
-        <v>0.5889146513900001</v>
+        <v>1.1662104859899998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.46849835063333339</v>
+        <v>-0.41820942308333342</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.084184864183333319</v>
+        <v>-0.083807832844999985</v>
       </c>
       <c r="C43" s="0">
-        <v>0.011200228016666647</v>
+        <v>0.23691986408333332</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.37584419966666671</v>
+        <v>-0.40720968915000005</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.39889852823000005</v>
+        <v>-0.38951954013200002</v>
       </c>
       <c r="F43" s="0">
-        <v>0.55780980723333329</v>
+        <v>0.41675576601666664</v>
       </c>
       <c r="G43" s="0">
-        <v>1.0587046852333333</v>
+        <v>0.8137140726933334</v>
       </c>
       <c r="H43" s="0">
-        <v>0.73958490151</v>
+        <v>0.60265992897500009</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.26138814621666667</v>
+        <v>-0.29294725166666669</v>
       </c>
       <c r="J43" s="0">
-        <v>0.94657542660333316</v>
+        <v>0.51315226153666671</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.54648134543333338</v>
+        <v>-0.15289095961500002</v>
       </c>
       <c r="L43" s="0">
-        <v>-0.039188112016666762</v>
+        <v>0.010821086143333297</v>
       </c>
       <c r="M43" s="0">
-        <v>0.21783972900333332</v>
+        <v>0.055376490403333339</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.89934144153166673</v>
+        <v>-0.65480030465166672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.016159897479999998</v>
+        <v>-0.071298476779999995</v>
       </c>
       <c r="B44" s="0">
-        <v>0.2417857233166667</v>
+        <v>0.353156351255</v>
       </c>
       <c r="C44" s="0">
-        <v>0.62902315738333336</v>
+        <v>0.69028196483000004</v>
       </c>
       <c r="D44" s="0">
-        <v>0.5511902117466666</v>
+        <v>0.65411504832333334</v>
       </c>
       <c r="E44" s="0">
-        <v>0.43859044717999995</v>
+        <v>0.51131529096333339</v>
       </c>
       <c r="F44" s="0">
-        <v>1.57438371565</v>
+        <v>1.7275296638166666</v>
       </c>
       <c r="G44" s="0">
-        <v>0.90550348366666666</v>
+        <v>0.95129131134833333</v>
       </c>
       <c r="H44" s="0">
-        <v>0.62541361119999994</v>
+        <v>0.61918682521666668</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.32151376476499999</v>
+        <v>-0.21579613270166664</v>
       </c>
       <c r="J44" s="0">
-        <v>0.6086664752833334</v>
+        <v>0.45480534063333333</v>
       </c>
       <c r="K44" s="0">
-        <v>0.79215420826666672</v>
+        <v>1.1700392678933333</v>
       </c>
       <c r="L44" s="0">
-        <v>0.28160190709999999</v>
+        <v>0.35265898121666661</v>
       </c>
       <c r="M44" s="0">
-        <v>0.092584886839500016</v>
+        <v>0.23433442643333338</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.36689446496666667</v>
+        <v>-0.40998341526666671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.61640003155</v>
+        <v>0.57193960046666659</v>
       </c>
       <c r="B45" s="0">
-        <v>0.36678262159000002</v>
+        <v>0.34004563615200006</v>
       </c>
       <c r="C45" s="0">
-        <v>0.47719214378333324</v>
+        <v>0.41675181009333323</v>
       </c>
       <c r="D45" s="0">
-        <v>0.4036642207033333</v>
+        <v>0.25399099308666667</v>
       </c>
       <c r="E45" s="0">
-        <v>0.4330733882833333</v>
+        <v>0.067321998150000006</v>
       </c>
       <c r="F45" s="0">
-        <v>0.40625051355000003</v>
+        <v>0.078170329883333278</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.035835752816666622</v>
+        <v>0.083483270026666667</v>
       </c>
       <c r="H45" s="0">
-        <v>0.60885315968333331</v>
+        <v>0.47892270858666658</v>
       </c>
       <c r="I45" s="0">
-        <v>0.56867985415</v>
+        <v>0.45255190503333331</v>
       </c>
       <c r="J45" s="0">
-        <v>1.1353116459166666</v>
+        <v>1.1709639150166666</v>
       </c>
       <c r="K45" s="0">
-        <v>0.3361570080666666</v>
+        <v>0.055239611266666655</v>
       </c>
       <c r="L45" s="0">
-        <v>0.68989906388166655</v>
+        <v>0.29808428451666663</v>
       </c>
       <c r="M45" s="0">
-        <v>0.55747232483333331</v>
+        <v>0.55250561188333336</v>
       </c>
       <c r="N45" s="0">
-        <v>1.3334622728999999</v>
+        <v>1.4330260973833333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.0026390317099999616</v>
+        <v>0.030233139039999968</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.19970361439500003</v>
+        <v>-0.12079909536500004</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.052809885000000015</v>
+        <v>0.055958433204999991</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.5024259204</v>
+        <v>-0.41901610104999998</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.70648730225</v>
+        <v>-0.57537408526</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.12051273729499998</v>
+        <v>-0.0027381016949999948</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.43824320404999995</v>
+        <v>-0.43804753374999994</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.45395721437000003</v>
+        <v>-0.52842312716500006</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.52387495080000002</v>
+        <v>-0.57959848180000006</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.27334905309999996</v>
+        <v>-0.15442354450499995</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.21008501172999994</v>
+        <v>-0.27540622954999994</v>
       </c>
       <c r="L46" s="0">
-        <v>0.42568474265</v>
+        <v>0.46061665995000001</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.026915761799999993</v>
+        <v>-0.11168172394999998</v>
       </c>
       <c r="N46" s="0">
-        <v>0.96998532814999994</v>
+        <v>0.84847012649999987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.056492219250000003</v>
+        <v>0.04137116041333333</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.59419792198666666</v>
+        <v>-0.79302317050333337</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.10187679905</v>
+        <v>-1.0442115493166666</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.71690869369999999</v>
+        <v>-0.71246819300000008</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.13676045961666666</v>
+        <v>-0.053849615499999948</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.52806946993999992</v>
+        <v>-0.24865481204000003</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.361864482845</v>
+        <v>-0.42867386926166667</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.20432332007499998</v>
+        <v>-0.15503743601</v>
       </c>
       <c r="I47" s="0">
-        <v>-1.0608584891166668</v>
+        <v>-0.92609368008333337</v>
       </c>
       <c r="J47" s="0">
-        <v>-1.3043535699399997</v>
+        <v>-1.7035206959733333</v>
       </c>
       <c r="K47" s="0">
-        <v>-1.1769363027333333</v>
+        <v>-0.93156129266666676</v>
       </c>
       <c r="L47" s="0">
-        <v>-1.0168346619833333</v>
+        <v>-0.70029367831666667</v>
       </c>
       <c r="M47" s="0">
-        <v>-1.1130521739666666</v>
+        <v>-0.90194373141666673</v>
       </c>
       <c r="N47" s="0">
-        <v>-1.4204859533</v>
+        <v>-1.2276538211333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.00058272852500002026</v>
+        <v>-0.03582743782500003</v>
       </c>
       <c r="B48" s="0">
-        <v>0.31766505769000003</v>
+        <v>0.16648477651000002</v>
       </c>
       <c r="C48" s="0">
-        <v>0.49704602931500008</v>
+        <v>0.34300748036500001</v>
       </c>
       <c r="D48" s="0">
-        <v>0.09156809669999999</v>
+        <v>-0.04001805125000002</v>
       </c>
       <c r="E48" s="0">
-        <v>0.27570518815</v>
+        <v>0.1445988825</v>
       </c>
       <c r="F48" s="0">
-        <v>0.55787468164999998</v>
+        <v>0.40403235955</v>
       </c>
       <c r="G48" s="0">
-        <v>0.71715214814999995</v>
+        <v>0.36969625934999994</v>
       </c>
       <c r="H48" s="0">
-        <v>0.28493785230000002</v>
+        <v>0.15627400670000002</v>
       </c>
       <c r="I48" s="0">
-        <v>0.079265633849999961</v>
+        <v>0.039979507649999968</v>
       </c>
       <c r="J48" s="0">
-        <v>0.11896127255</v>
+        <v>0.27355558854999995</v>
       </c>
       <c r="K48" s="0">
-        <v>0.8924218852050001</v>
+        <v>1.072404766</v>
       </c>
       <c r="L48" s="0">
-        <v>0.18245016669999997</v>
+        <v>0.43895575986999996</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.16390207304999999</v>
+        <v>0.0090294363499999614</v>
       </c>
       <c r="N48" s="0">
-        <v>1.390620257448</v>
+        <v>1.87881294265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.25408168654999996</v>
+        <v>-0.26630776445000004</v>
       </c>
       <c r="B49" s="0">
-        <v>0.57783142245500008</v>
+        <v>0.033622078150000068</v>
       </c>
       <c r="C49" s="0">
-        <v>0.88301906084049997</v>
+        <v>0.44627370789049997</v>
       </c>
       <c r="D49" s="0">
-        <v>0.47816178522000002</v>
+        <v>0.22971130874500001</v>
       </c>
       <c r="E49" s="0">
-        <v>0.13667306149999997</v>
+        <v>-0.067366974849999983</v>
       </c>
       <c r="F49" s="0">
-        <v>0.16108504395500001</v>
+        <v>-0.16803179779499999</v>
       </c>
       <c r="G49" s="0">
-        <v>0.18126896284999999</v>
+        <v>-0.13986312165000003</v>
       </c>
       <c r="H49" s="0">
-        <v>0.10789303024000001</v>
+        <v>-0.077066093900000021</v>
       </c>
       <c r="I49" s="0">
-        <v>0.35563081459999996</v>
+        <v>-0.052900320200000017</v>
       </c>
       <c r="J49" s="0">
-        <v>1.5247015525949998</v>
+        <v>1.3189100034949999</v>
       </c>
       <c r="K49" s="0">
-        <v>-0.071715441072999986</v>
+        <v>-0.36044226830000003</v>
       </c>
       <c r="L49" s="0">
-        <v>0.40522556750000005</v>
+        <v>-0.032460173499999967</v>
       </c>
       <c r="M49" s="0">
-        <v>0.58991220359999996</v>
+        <v>0.064910428899999983</v>
       </c>
       <c r="N49" s="0">
-        <v>0.88360436459500002</v>
+        <v>0.20883007341000015</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.10800111406666668</v>
+        <v>-0.12958311089999996</v>
       </c>
       <c r="B50" s="0">
-        <v>0.099259616735000028</v>
+        <v>-0.006029400800000001</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.16017284863333331</v>
+        <v>0.060330299866666673</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.29127597768333335</v>
+        <v>-0.048050004150000047</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.27457033084333332</v>
+        <v>-0.13228730557666668</v>
       </c>
       <c r="F50" s="0">
-        <v>0.65742126763833331</v>
+        <v>0.46974369051500003</v>
       </c>
       <c r="G50" s="0">
-        <v>0.51799116985833327</v>
+        <v>0.51820544346666664</v>
       </c>
       <c r="H50" s="0">
-        <v>0.33191562148000003</v>
+        <v>0.35402185091333338</v>
       </c>
       <c r="I50" s="0">
-        <v>0.38073386837333328</v>
+        <v>0.38082103107333332</v>
       </c>
       <c r="J50" s="0">
-        <v>0.67936150574999998</v>
+        <v>0.77230427767099996</v>
       </c>
       <c r="K50" s="0">
-        <v>0.11301974092966667</v>
+        <v>-0.25530865831666671</v>
       </c>
       <c r="L50" s="0">
-        <v>0.87486726256666669</v>
+        <v>0.57774658918333333</v>
       </c>
       <c r="M50" s="0">
-        <v>0.34132286492999997</v>
+        <v>-0.018561341999999998</v>
       </c>
       <c r="N50" s="0">
-        <v>0.099007801499999978</v>
+        <v>-0.4591423644</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1.1328043652799999</v>
+        <v>0.6081474923800001</v>
       </c>
       <c r="B51" s="0">
-        <v>0.58113236369999999</v>
+        <v>0.056876007549999996</v>
       </c>
       <c r="C51" s="0">
-        <v>0.30737056424999992</v>
+        <v>-0.072174562400000086</v>
       </c>
       <c r="D51" s="0">
-        <v>0.67400008249999999</v>
+        <v>0.16791102140000003</v>
       </c>
       <c r="E51" s="0">
-        <v>0.22601570425</v>
+        <v>-0.43853487009999997</v>
       </c>
       <c r="F51" s="0">
-        <v>0.18139075980000002</v>
+        <v>0.05806627084999999</v>
       </c>
       <c r="G51" s="0">
-        <v>0.82367077086999985</v>
+        <v>0.66598936526999986</v>
       </c>
       <c r="H51" s="0">
-        <v>0.85934649658999995</v>
+        <v>0.58004278619000005</v>
       </c>
       <c r="I51" s="0">
-        <v>0.67649971648850005</v>
+        <v>0.43058850393850001</v>
       </c>
       <c r="J51" s="0">
-        <v>1.8368234402949999</v>
+        <v>1.7301409373449999</v>
       </c>
       <c r="K51" s="0">
-        <v>1.0532507124500001</v>
+        <v>0.7038551743</v>
       </c>
       <c r="L51" s="0">
-        <v>1.1342666863000002</v>
+        <v>0.64875478819999999</v>
       </c>
       <c r="M51" s="0">
-        <v>0.36923891870000003</v>
+        <v>0.13663683143550004</v>
       </c>
       <c r="N51" s="0">
-        <v>0.71734370889999988</v>
+        <v>0.014547248299999982</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.23592819354999994</v>
+        <v>0.38844665884999996</v>
       </c>
       <c r="B52" s="0">
-        <v>0.52860336649999995</v>
+        <v>0.75673135939999991</v>
       </c>
       <c r="C52" s="0">
-        <v>1.0018505091199998</v>
+        <v>0.80150811066999994</v>
       </c>
       <c r="D52" s="0">
-        <v>0.93122125074999995</v>
+        <v>0.76675140359999994</v>
       </c>
       <c r="E52" s="0">
-        <v>0.89484876719500006</v>
+        <v>0.912155487845</v>
       </c>
       <c r="F52" s="0">
-        <v>0.55247141855000004</v>
+        <v>0.43469255825000003</v>
       </c>
       <c r="G52" s="0">
-        <v>0.80619174425000006</v>
+        <v>0.59780492245000005</v>
       </c>
       <c r="H52" s="0">
-        <v>0.49674432998499995</v>
+        <v>0.49601676038499998</v>
       </c>
       <c r="I52" s="0">
-        <v>0.52962672194999993</v>
+        <v>0.44533097930000004</v>
       </c>
       <c r="J52" s="0">
-        <v>0.41103107367000002</v>
+        <v>0.69511986922000002</v>
       </c>
       <c r="K52" s="0">
-        <v>0.957441283315</v>
+        <v>0.55121460391499999</v>
       </c>
       <c r="L52" s="0">
-        <v>1.4793591530000001</v>
+        <v>1.3582321799999999</v>
       </c>
       <c r="M52" s="0">
-        <v>1.40619936543</v>
+        <v>0.44530458268000001</v>
       </c>
       <c r="N52" s="0">
-        <v>1.8874680768500001</v>
+        <v>2.0243624743500002</v>
       </c>
     </row>
     <row r="53">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,1393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="658">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -667,46 +2053,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>182</v>
+        <v>644</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>183</v>
+        <v>645</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>646</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>185</v>
+        <v>647</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>186</v>
+        <v>648</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>187</v>
+        <v>649</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>188</v>
+        <v>650</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>189</v>
+        <v>651</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>190</v>
+        <v>652</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>191</v>
+        <v>653</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>192</v>
+        <v>654</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>193</v>
+        <v>655</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>194</v>
+        <v>656</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>195</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,469 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -2036,2351 +2498,2351 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="14.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
     <col min="9" max="9" width="14.7109375" customWidth="true"/>
-    <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="10" max="10" width="14.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="14.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>644</v>
+        <v>798</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>645</v>
+        <v>799</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>646</v>
+        <v>800</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>647</v>
+        <v>801</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>648</v>
+        <v>802</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>649</v>
+        <v>803</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>650</v>
+        <v>804</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>651</v>
+        <v>805</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>652</v>
+        <v>806</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>653</v>
+        <v>807</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>654</v>
+        <v>808</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>655</v>
+        <v>809</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>656</v>
+        <v>810</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>657</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.6761048234</v>
+        <v>-0.01555174970000002</v>
       </c>
       <c r="B2" s="0">
-        <v>0.43428668834999995</v>
+        <v>-0.19394141413999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0.203691097495</v>
+        <v>-0.028794179085000038</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.20141085477499998</v>
+        <v>-0.068716616169999967</v>
       </c>
       <c r="E2" s="0">
-        <v>0.20029779171149997</v>
+        <v>0.032938436800000005</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.10983240868000002</v>
+        <v>-0.52101315393500003</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.19012533096999995</v>
+        <v>-0.65527746669999998</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.10153926494999999</v>
+        <v>-0.38168596715000003</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.084443427449999942</v>
+        <v>0.05419757950500001</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.74994893475000002</v>
+        <v>-0.82928418195000009</v>
       </c>
       <c r="K2" s="0">
-        <v>0.60054440954999999</v>
+        <v>-0.34182829109500001</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.69317822475000002</v>
+        <v>-0.34520613802</v>
       </c>
       <c r="M2" s="0">
-        <v>0.00034198390500000952</v>
+        <v>-0.32798684099999997</v>
       </c>
       <c r="N2" s="0">
-        <v>0.015194834200000035</v>
+        <v>0.34232256360000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14451784711666665</v>
+        <v>0.53120066341666661</v>
       </c>
       <c r="B3" s="0">
-        <v>0.077186072333333466</v>
+        <v>0.55311112562816667</v>
       </c>
       <c r="C3" s="0">
-        <v>0.7635104887216666</v>
+        <v>1.2225100804833333</v>
       </c>
       <c r="D3" s="0">
-        <v>0.8809890226499999</v>
+        <v>1.2294827021199333</v>
       </c>
       <c r="E3" s="0">
-        <v>0.64865885354999997</v>
+        <v>1.24186734016</v>
       </c>
       <c r="F3" s="0">
-        <v>0.29230769038333337</v>
+        <v>0.97847538498333342</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.05294285688</v>
+        <v>0.51787940728333326</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.076336415283333403</v>
+        <v>0.15101081246666664</v>
       </c>
       <c r="I3" s="0">
-        <v>0.33884944697000002</v>
+        <v>0.79714347154999998</v>
       </c>
       <c r="J3" s="0">
-        <v>0.17757583816166661</v>
+        <v>0.034195112766666667</v>
       </c>
       <c r="K3" s="0">
-        <v>1.3136087929300002</v>
+        <v>1.8771839396333334</v>
       </c>
       <c r="L3" s="0">
-        <v>0.08479941135000002</v>
+        <v>0.68238967577233334</v>
       </c>
       <c r="M3" s="0">
-        <v>0.17507093708333327</v>
+        <v>0.62548152027999993</v>
       </c>
       <c r="N3" s="0">
-        <v>0.14795158023333338</v>
+        <v>0.98277844483333321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.092541292340000025</v>
+        <v>-0.32079114894166672</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.45444190810000001</v>
+        <v>-0.65764178303666676</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.0587492268666667</v>
+        <v>-0.98918888758699997</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.44709180671666671</v>
+        <v>-0.55598872860000004</v>
       </c>
       <c r="E4" s="0">
-        <v>0.014738889900000024</v>
+        <v>-0.15372163057333335</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.19590167222000004</v>
+        <v>-0.28770310188333337</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.56544503760166664</v>
+        <v>-0.42955675584233338</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.12141475049166667</v>
+        <v>-0.37388231720000004</v>
       </c>
       <c r="I4" s="0">
-        <v>0.089840653116666641</v>
+        <v>-0.29734816038166667</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.0789373034999998</v>
+        <v>-0.77124590565000006</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.93343784991000001</v>
+        <v>-1.2964387712266665</v>
       </c>
       <c r="L4" s="0">
-        <v>0.44675597733666661</v>
+        <v>0.016207337300000069</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.69515921007000014</v>
+        <v>-0.75948422334999999</v>
       </c>
       <c r="N4" s="0">
-        <v>0.82400913081666671</v>
+        <v>0.76565065780666663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.037956542390000014</v>
+        <v>0.21399900354066664</v>
       </c>
       <c r="B5" s="0">
-        <v>0.045085027650666659</v>
+        <v>-0.26654397168333333</v>
       </c>
       <c r="C5" s="0">
-        <v>0.20639784258333335</v>
+        <v>0.083876188050333311</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.091872109220000026</v>
+        <v>0.15476096173376669</v>
       </c>
       <c r="E5" s="0">
-        <v>0.053498444090000041</v>
+        <v>-0.24066077571666664</v>
       </c>
       <c r="F5" s="0">
-        <v>0.28578472754833334</v>
+        <v>-0.12811464592666663</v>
       </c>
       <c r="G5" s="0">
-        <v>0.2887920460083333</v>
+        <v>0.06990499791333335</v>
       </c>
       <c r="H5" s="0">
-        <v>0.51804764170000006</v>
+        <v>0.21253802094066668</v>
       </c>
       <c r="I5" s="0">
-        <v>0.20232666150000003</v>
+        <v>0.32464144059</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.21891170411666661</v>
+        <v>-0.37379983203333333</v>
       </c>
       <c r="K5" s="0">
-        <v>0.89567643941666675</v>
+        <v>0.53980697793333343</v>
       </c>
       <c r="L5" s="0">
-        <v>0.5304351775166668</v>
+        <v>0.24307745701666664</v>
       </c>
       <c r="M5" s="0">
-        <v>0.74112346723333344</v>
+        <v>-0.2300070797499999</v>
       </c>
       <c r="N5" s="0">
-        <v>1.0013596539833334</v>
+        <v>0.73407234077333328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.10888056491000001</v>
+        <v>-0.44259427168333337</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.15088190542333335</v>
+        <v>-0.22298590358333337</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.34677428146999995</v>
+        <v>-0.47195895323833337</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.45005285567000003</v>
+        <v>-0.43682721596666668</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.55911467708333329</v>
+        <v>-0.62290526498333332</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.46931456013333339</v>
+        <v>-0.49149359245666668</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.40243005292</v>
+        <v>-0.47979870345000003</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.01946515565333333</v>
+        <v>-0.30986436712999998</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.32152639452666665</v>
+        <v>-0.19636645376666667</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.12271272253666665</v>
+        <v>-0.49259616651666666</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1540981362833334</v>
+        <v>-1.10929360334</v>
       </c>
       <c r="L6" s="0">
-        <v>0.35197060634999999</v>
+        <v>-0.46177328094666664</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.64425286640500001</v>
+        <v>-0.87231323192333332</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.70935146865666654</v>
+        <v>-0.8790669739000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.17542590616166664</v>
+        <v>-0.16152488606666668</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.090990305570000027</v>
+        <v>-0.58074046066666662</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.45715057423333327</v>
+        <v>-0.63460750001666666</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.64846057164333337</v>
+        <v>-1.0179953371000001</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.6694204067666667</v>
+        <v>-0.88884102621666661</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.41718563988000001</v>
+        <v>-0.68114505466666664</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.12536223504666666</v>
+        <v>-0.30382277902166671</v>
       </c>
       <c r="H7" s="0">
-        <v>0.010609042550000058</v>
+        <v>-0.13478221287666664</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.54061328891500005</v>
+        <v>-0.16038059091166665</v>
       </c>
       <c r="J7" s="0">
-        <v>0.23665114585666669</v>
+        <v>0.11043518411666653</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.63787826043333329</v>
+        <v>-0.98735542925666664</v>
       </c>
       <c r="L7" s="0">
-        <v>-1.1053214064766668</v>
+        <v>-1.5158200231099999</v>
       </c>
       <c r="M7" s="0">
-        <v>-2.2095406094833336</v>
+        <v>-1.5935219320333334</v>
       </c>
       <c r="N7" s="0">
-        <v>-1.4786669536333334</v>
+        <v>-0.19326655244500007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.01909643946666667</v>
+        <v>-0.28264771924999987</v>
       </c>
       <c r="B8" s="0">
-        <v>0.22809929849999988</v>
+        <v>-0.5467793961166667</v>
       </c>
       <c r="C8" s="0">
-        <v>0.28186153393333335</v>
+        <v>-0.20811554004999988</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.10722852971666666</v>
+        <v>-0.091400528699999983</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.39003689686666676</v>
+        <v>-0.26657027078333329</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.098092610633333521</v>
+        <v>-0.13786830723333321</v>
       </c>
       <c r="G8" s="0">
-        <v>0.41092071396666674</v>
+        <v>-0.26357441863666653</v>
       </c>
       <c r="H8" s="0">
-        <v>0.21874117376666666</v>
+        <v>0.16323046561166671</v>
       </c>
       <c r="I8" s="0">
-        <v>0.11971379954999994</v>
+        <v>0.12069962753333341</v>
       </c>
       <c r="J8" s="0">
-        <v>0.62791512620000023</v>
+        <v>-0.80633577443333326</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.0224112163716668</v>
+        <v>-1.7042436295833334</v>
       </c>
       <c r="L8" s="0">
-        <v>0.39700024419999991</v>
+        <v>-0.31926034420333349</v>
       </c>
       <c r="M8" s="0">
-        <v>0.65018249017666663</v>
+        <v>-0.0095100037199998821</v>
       </c>
       <c r="N8" s="0">
-        <v>0.98531227241666675</v>
+        <v>-0.69708202524999996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.45522423725666661</v>
+        <v>0.011874668799999974</v>
       </c>
       <c r="B9" s="0">
-        <v>0.099577291600000006</v>
+        <v>-0.2211442857716667</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.25020386799</v>
+        <v>-0.62079069080333327</v>
       </c>
       <c r="D9" s="0">
-        <v>0.40165437237166668</v>
+        <v>-0.11400574544999997</v>
       </c>
       <c r="E9" s="0">
-        <v>0.61127506033333334</v>
+        <v>-0.095237128966999984</v>
       </c>
       <c r="F9" s="0">
-        <v>0.17836239185833336</v>
+        <v>-0.23461706583666669</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.026980925761666663</v>
+        <v>-0.84943427730999987</v>
       </c>
       <c r="H9" s="0">
-        <v>0.18644351435200002</v>
+        <v>-0.80661691186666662</v>
       </c>
       <c r="I9" s="0">
-        <v>0.15923615827333334</v>
+        <v>-0.26041285696666666</v>
       </c>
       <c r="J9" s="0">
-        <v>0.81235633722</v>
+        <v>-0.80561437468333352</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.1287010641166666</v>
+        <v>-0.79517414024999988</v>
       </c>
       <c r="L9" s="0">
-        <v>0.43945050488333337</v>
+        <v>-0.5915928066166668</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.058312252750000015</v>
+        <v>-0.11360654624333333</v>
       </c>
       <c r="N9" s="0">
-        <v>0.61284040015499996</v>
+        <v>0.49481057694999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.040189394899999994</v>
+        <v>-0.12015487178333337</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.18158217049999997</v>
+        <v>-0.40474827495166665</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.48938037306999999</v>
+        <v>-0.22668501528333337</v>
       </c>
       <c r="D10" s="0">
-        <v>0.33742717919999998</v>
+        <v>-0.2072464143433333</v>
       </c>
       <c r="E10" s="0">
-        <v>0.096399533650000008</v>
+        <v>-0.18545729904999997</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.6052242269</v>
+        <v>-0.28080361896966666</v>
       </c>
       <c r="G10" s="0">
-        <v>0.019411745300000005</v>
+        <v>-0.41370833180000005</v>
       </c>
       <c r="H10" s="0">
-        <v>0.043102266346666612</v>
+        <v>-0.13679057194666666</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.033004584213333368</v>
+        <v>0.071192868449999946</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.071834847599999974</v>
+        <v>-0.21196828030000009</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0071628889833333653</v>
+        <v>-0.047308373372373314</v>
       </c>
       <c r="L10" s="0">
-        <v>0.34765211564999987</v>
+        <v>-0.69460357003333328</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.57214687889999993</v>
+        <v>-0.91207773466999997</v>
       </c>
       <c r="N10" s="0">
-        <v>1.3022844378499998</v>
+        <v>0.28106500960666669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.25758983923333334</v>
+        <v>0.020042722550000003</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.049943407553333263</v>
+        <v>0.27789582272999991</v>
       </c>
       <c r="C11" s="0">
-        <v>0.10818368676666668</v>
+        <v>0.44699190436666664</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.59180900452666663</v>
+        <v>-0.07429853885000004</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.432577036405</v>
+        <v>0.30477844023333334</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.64737748214000002</v>
+        <v>0.16094390860666666</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.29048237083000006</v>
+        <v>-0.022706951176666601</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0095716081333332981</v>
+        <v>0.44094004841666673</v>
       </c>
       <c r="I11" s="0">
-        <v>0.034310356729999991</v>
+        <v>0.0056567436166666263</v>
       </c>
       <c r="J11" s="0">
-        <v>0.035296155563333376</v>
+        <v>-0.092700054700000006</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.88845633797333334</v>
+        <v>-0.099863995455833299</v>
       </c>
       <c r="L11" s="0">
-        <v>0.21531826353333333</v>
+        <v>-0.31991024551666669</v>
       </c>
       <c r="M11" s="0">
-        <v>0.083905291344999966</v>
+        <v>-0.70127986606000003</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.1135478470166667</v>
+        <v>-0.1445886705166668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.096726473451333353</v>
+        <v>0.11812487649666667</v>
       </c>
       <c r="B12" s="0">
-        <v>0.13687139930666664</v>
+        <v>0.13381325029999996</v>
       </c>
       <c r="C12" s="0">
-        <v>0.38041816553683333</v>
+        <v>0.19350924171</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.14079506334166669</v>
+        <v>-0.22971334073050001</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.085945369583333292</v>
+        <v>-0.19550169484999996</v>
       </c>
       <c r="F12" s="0">
-        <v>0.018929480534833343</v>
+        <v>-0.31497969858899999</v>
       </c>
       <c r="G12" s="0">
-        <v>0.033003974703333328</v>
+        <v>-0.36824206821666661</v>
       </c>
       <c r="H12" s="0">
-        <v>0.28491245030000001</v>
+        <v>-0.13650641947833336</v>
       </c>
       <c r="I12" s="0">
-        <v>0.46259810043333338</v>
+        <v>0.89021675976333325</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.031382013066666659</v>
+        <v>-0.33849539924999994</v>
       </c>
       <c r="K12" s="0">
-        <v>0.86347121943333338</v>
+        <v>0.79748566028333334</v>
       </c>
       <c r="L12" s="0">
-        <v>0.16875438479999999</v>
+        <v>0.35283850903333341</v>
       </c>
       <c r="M12" s="0">
-        <v>0.80284915841666671</v>
+        <v>0.81714861996666666</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.37385195371666663</v>
+        <v>-0.40154899145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.028558228166666661</v>
+        <v>0.077822953700000003</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.050826591736666704</v>
+        <v>-0.28001917344333338</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.14789715674000001</v>
+        <v>-0.41015418894666666</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0067390963833333373</v>
+        <v>-0.0059701699333333524</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.14451107366316668</v>
+        <v>-0.07655175408333334</v>
       </c>
       <c r="F13" s="0">
-        <v>0.30699167167499997</v>
+        <v>0.37693010070666666</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.53088579248333334</v>
+        <v>-0.23852521067166665</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.10069446906666668</v>
+        <v>-0.093328082438333321</v>
       </c>
       <c r="I13" s="0">
-        <v>0.22577264135</v>
+        <v>0.42538713021666663</v>
       </c>
       <c r="J13" s="0">
-        <v>0.65664018673333335</v>
+        <v>-0.38532233346666667</v>
       </c>
       <c r="K13" s="0">
-        <v>0.44588896188333332</v>
+        <v>-0.0038371776366667026</v>
       </c>
       <c r="L13" s="0">
-        <v>-0.020938386146666668</v>
+        <v>-0.020830305933333293</v>
       </c>
       <c r="M13" s="0">
-        <v>-1.0293132791166666</v>
+        <v>-0.54275791124999995</v>
       </c>
       <c r="N13" s="0">
-        <v>0.35847305771666665</v>
+        <v>0.50942962273333348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.17747672363333333</v>
+        <v>0.048402926476666663</v>
       </c>
       <c r="B14" s="0">
-        <v>0.32335368000833331</v>
+        <v>0.18822546510000004</v>
       </c>
       <c r="C14" s="0">
-        <v>0.21518536867800003</v>
+        <v>0.30007718480333334</v>
       </c>
       <c r="D14" s="0">
-        <v>0.41060125824666666</v>
+        <v>0.080017382121666647</v>
       </c>
       <c r="E14" s="0">
-        <v>0.38812996976666669</v>
+        <v>0.1106939012866667</v>
       </c>
       <c r="F14" s="0">
-        <v>0.42144380248666663</v>
+        <v>0.11436547591666664</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.19099283386666671</v>
+        <v>0.37517688183333336</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.19722441941450003</v>
+        <v>-0.065813158199999999</v>
       </c>
       <c r="I14" s="0">
-        <v>0.24185980454666664</v>
+        <v>-0.11048628105166666</v>
       </c>
       <c r="J14" s="0">
-        <v>0.76676651444666666</v>
+        <v>0.051772390026666643</v>
       </c>
       <c r="K14" s="0">
-        <v>0.46975873758333331</v>
+        <v>0.32074700320333338</v>
       </c>
       <c r="L14" s="0">
-        <v>0.19044327315666665</v>
+        <v>0.018848281915000001</v>
       </c>
       <c r="M14" s="0">
-        <v>-0.8953195275000001</v>
+        <v>-1.1360009593</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.075312551733333358</v>
+        <v>-0.1444171127333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.32570544795</v>
+        <v>-0.12457297988333332</v>
       </c>
       <c r="B15" s="0">
-        <v>0.5044578094433334</v>
+        <v>0.33455328024999997</v>
       </c>
       <c r="C15" s="0">
-        <v>0.55189833783060038</v>
+        <v>0.044142867206666769</v>
       </c>
       <c r="D15" s="0">
-        <v>0.51781687453616665</v>
+        <v>-0.32080578322166675</v>
       </c>
       <c r="E15" s="0">
-        <v>0.51981883851666666</v>
+        <v>0.027909984614999994</v>
       </c>
       <c r="F15" s="0">
-        <v>0.32069390691899996</v>
+        <v>0.89346569142666654</v>
       </c>
       <c r="G15" s="0">
-        <v>0.38738632638999998</v>
+        <v>0.28506411182000002</v>
       </c>
       <c r="H15" s="0">
-        <v>0.25290684981666667</v>
+        <v>0.47714549050333338</v>
       </c>
       <c r="I15" s="0">
-        <v>0.19143510348333334</v>
+        <v>0.00356586339999998</v>
       </c>
       <c r="J15" s="0">
-        <v>0.18132553634666682</v>
+        <v>-0.30037242237166667</v>
       </c>
       <c r="K15" s="0">
-        <v>0.41750443141833332</v>
+        <v>0.28894890841666676</v>
       </c>
       <c r="L15" s="0">
-        <v>0.15501745143333323</v>
+        <v>0.088414573870000068</v>
       </c>
       <c r="M15" s="0">
-        <v>0.84383535598333326</v>
+        <v>0.3676913289</v>
       </c>
       <c r="N15" s="0">
-        <v>0.87466104</v>
+        <v>0.88705347229666665</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.08231677683166666</v>
+        <v>-0.066630912963333316</v>
       </c>
       <c r="B16" s="0">
-        <v>0.29793760383333334</v>
+        <v>0.152613271775</v>
       </c>
       <c r="C16" s="0">
-        <v>0.50916197827133325</v>
+        <v>0.43360331712666667</v>
       </c>
       <c r="D16" s="0">
-        <v>0.38257427003333333</v>
+        <v>0.38750731518333326</v>
       </c>
       <c r="E16" s="0">
-        <v>0.17455165966666666</v>
+        <v>0.048228104973333324</v>
       </c>
       <c r="F16" s="0">
-        <v>0.171427951</v>
+        <v>-0.12384684965000003</v>
       </c>
       <c r="G16" s="0">
-        <v>0.025318903733333356</v>
+        <v>-0.25470208900833335</v>
       </c>
       <c r="H16" s="0">
-        <v>0.027890866479</v>
+        <v>-0.036764807191666651</v>
       </c>
       <c r="I16" s="0">
-        <v>0.21758657244166663</v>
+        <v>0.088367025928333329</v>
       </c>
       <c r="J16" s="0">
-        <v>0.37581897361666666</v>
+        <v>0.26480051061666665</v>
       </c>
       <c r="K16" s="0">
-        <v>0.25301282450000001</v>
+        <v>0.17883141703899996</v>
       </c>
       <c r="L16" s="0">
-        <v>0.47153370226666669</v>
+        <v>0.022317388936666793</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.36463386319000002</v>
+        <v>-0.049253899850000005</v>
       </c>
       <c r="N16" s="0">
-        <v>0.33907096815000004</v>
+        <v>0.04306020713333332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.47655504607999999</v>
+        <v>-0.41115522391666665</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.91391357080000002</v>
+        <v>-0.72872832073333338</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.80170685742333336</v>
+        <v>-0.083158143749999969</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.12893964445</v>
+        <v>0.50831531011666664</v>
       </c>
       <c r="E17" s="0">
-        <v>0.043985798921666708</v>
+        <v>0.44677129567333335</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.37500198520000005</v>
+        <v>-0.30683861828333331</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.27588990017466664</v>
+        <v>-0.44735190540666658</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.48147970946666674</v>
+        <v>-0.33739371586333333</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.37547006673333333</v>
+        <v>-0.22620092985333334</v>
       </c>
       <c r="J17" s="0">
-        <v>-1.2438319584999999</v>
+        <v>-0.28387927711333338</v>
       </c>
       <c r="K17" s="0">
-        <v>-1.6496703801000001</v>
+        <v>-0.30954241583333336</v>
       </c>
       <c r="L17" s="0">
-        <v>-2.2595195643333335</v>
+        <v>-0.91615827529999994</v>
       </c>
       <c r="M17" s="0">
-        <v>-1.52647325574</v>
+        <v>-1.2093128287499999</v>
       </c>
       <c r="N17" s="0">
-        <v>-1.1623523209333335</v>
+        <v>-1.5842760169166668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.83948829233333333</v>
+        <v>-0.76868913892700008</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.14743580178066668</v>
+        <v>-0.59386690719333335</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.21685759559999998</v>
+        <v>-0.48112001780000002</v>
       </c>
       <c r="D18" s="0">
-        <v>0.029000022133333303</v>
+        <v>-0.29349542483333335</v>
       </c>
       <c r="E18" s="0">
-        <v>0.25984952815399998</v>
+        <v>0.21973409123333332</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.051806904296666664</v>
+        <v>-0.026406609900000017</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.040416037533333324</v>
+        <v>-0.16024129798366671</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.094714852366666685</v>
+        <v>-0.18512956057000002</v>
       </c>
       <c r="I18" s="0">
-        <v>0.61682608503733327</v>
+        <v>0.20151292112566666</v>
       </c>
       <c r="J18" s="0">
-        <v>-0.38296582612333335</v>
+        <v>-1.7510317240143334</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.16921125517999996</v>
+        <v>-0.19137783899999999</v>
       </c>
       <c r="L18" s="0">
-        <v>-1.4035031605333332</v>
+        <v>-0.51712668383333327</v>
       </c>
       <c r="M18" s="0">
-        <v>0.18616006002999999</v>
+        <v>-0.4741356614333333</v>
       </c>
       <c r="N18" s="0">
-        <v>0.48726396542666656</v>
+        <v>-0.34001798056333332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.26507111018899998</v>
+        <v>0.083540368806666682</v>
       </c>
       <c r="B19" s="0">
-        <v>0.27184535576666669</v>
+        <v>0.3190007797333333</v>
       </c>
       <c r="C19" s="0">
-        <v>0.28623911486666664</v>
+        <v>0.56063261975666667</v>
       </c>
       <c r="D19" s="0">
-        <v>0.69897780245666663</v>
+        <v>0.80302907530000001</v>
       </c>
       <c r="E19" s="0">
-        <v>0.027615381786666671</v>
+        <v>0.33750852162533335</v>
       </c>
       <c r="F19" s="0">
-        <v>0.12505535306333335</v>
+        <v>0.007306835296666675</v>
       </c>
       <c r="G19" s="0">
-        <v>0.13180615779999999</v>
+        <v>0.1005325071</v>
       </c>
       <c r="H19" s="0">
-        <v>0.30997366913000002</v>
+        <v>0.0044590571033333252</v>
       </c>
       <c r="I19" s="0">
-        <v>0.15813046233666667</v>
+        <v>0.3822654112633333</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.65607361756666671</v>
+        <v>0.069916242500000003</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.17608523116666669</v>
+        <v>0.33536016349999997</v>
       </c>
       <c r="L19" s="0">
-        <v>0.56919000836666667</v>
+        <v>0.11318876929299999</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.060630335700000038</v>
+        <v>0.44008467412666669</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.0086840183000000126</v>
+        <v>-0.61917957926666656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38537225266666664</v>
+        <v>0.44085234376666665</v>
       </c>
       <c r="B20" s="0">
-        <v>0.15073660085666665</v>
+        <v>0.37705442513766663</v>
       </c>
       <c r="C20" s="0">
-        <v>0.48078697006666671</v>
+        <v>0.52843878061666671</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.17413281986933332</v>
+        <v>0.30992696121999996</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.43828411087499997</v>
+        <v>0.2375973987933333</v>
       </c>
       <c r="F20" s="0">
-        <v>0.34698311351166666</v>
+        <v>0.75913631856666663</v>
       </c>
       <c r="G20" s="0">
-        <v>0.59091795357666665</v>
+        <v>0.41467470911666671</v>
       </c>
       <c r="H20" s="0">
-        <v>0.28836768234999999</v>
+        <v>0.44171996159999993</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.057597610426666689</v>
+        <v>0.39577816643500002</v>
       </c>
       <c r="J20" s="0">
-        <v>0.94545530547666667</v>
+        <v>0.49899983623333333</v>
       </c>
       <c r="K20" s="0">
-        <v>0.40926350978333337</v>
+        <v>0.11235793074333331</v>
       </c>
       <c r="L20" s="0">
-        <v>-0.0067829228833333199</v>
+        <v>0.60962695138166667</v>
       </c>
       <c r="M20" s="0">
-        <v>-0.46450830871666671</v>
+        <v>0.37081020027999995</v>
       </c>
       <c r="N20" s="0">
-        <v>-0.63413106566666655</v>
+        <v>0.42421425010166669</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.33952656791666669</v>
+        <v>0.50277829390000006</v>
       </c>
       <c r="B21" s="0">
-        <v>0.26913981695000005</v>
+        <v>0.43094113459166666</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.14085220785333336</v>
+        <v>0.28855692116500004</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.18190597951666668</v>
+        <v>0.10610579861666672</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.082315127236666646</v>
+        <v>0.26135314125000003</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.11992925868696667</v>
+        <v>0.2962775021166667</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.29329852903333331</v>
+        <v>0.21797397511666666</v>
       </c>
       <c r="H21" s="0">
-        <v>0.049897940683333336</v>
+        <v>0.52288368845666666</v>
       </c>
       <c r="I21" s="0">
-        <v>-0.036491924173333343</v>
+        <v>0.29583919099333333</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.27434613599666663</v>
+        <v>0.60173571744999999</v>
       </c>
       <c r="K21" s="0">
-        <v>0.2563931835433334</v>
+        <v>0.38827155164999999</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.199939362329</v>
+        <v>-0.63430318763333327</v>
       </c>
       <c r="M21" s="0">
-        <v>0.064080908166666589</v>
+        <v>-0.20421211315333332</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.17109666049433334</v>
+        <v>-1.0708333430666668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.41665420712666668</v>
+        <v>-0.093196238319999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045758313263333336</v>
+        <v>0.067642429756000003</v>
       </c>
       <c r="C22" s="0">
-        <v>0.090175639353333337</v>
+        <v>-0.26240672872000004</v>
       </c>
       <c r="D22" s="0">
-        <v>-1.10019103528</v>
+        <v>-0.81127373555999993</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.90874217097333332</v>
+        <v>-0.5299357707333332</v>
       </c>
       <c r="F22" s="0">
-        <v>0.56147849727333332</v>
+        <v>-0.02509608977666665</v>
       </c>
       <c r="G22" s="0">
-        <v>0.44331682545133333</v>
+        <v>0.24721106582900002</v>
       </c>
       <c r="H22" s="0">
-        <v>0.13514791498533335</v>
+        <v>0.54547089014799999</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.70919227043333333</v>
+        <v>0.14020470941786667</v>
       </c>
       <c r="J22" s="0">
-        <v>-1.0971987106283334</v>
+        <v>0.25434605746999994</v>
       </c>
       <c r="K22" s="0">
-        <v>0.87246394829999996</v>
+        <v>-0.46117669690333329</v>
       </c>
       <c r="L22" s="0">
-        <v>-0.21314147986666676</v>
+        <v>-0.54760072456666664</v>
       </c>
       <c r="M22" s="0">
-        <v>-2.1421535556433335</v>
+        <v>-1.2936589711333333</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.85615614960000008</v>
+        <v>0.27931304216666669</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.5725377760175</v>
+        <v>-0.90064119534999998</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.56894750267499994</v>
+        <v>-1.4880156264</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.554214185315</v>
+        <v>-1.55508486195</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.28631609318500001</v>
+        <v>-0.75387995780499995</v>
       </c>
       <c r="E23" s="0">
-        <v>0.25094942670000009</v>
+        <v>-0.59993654406499997</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.41593551875500001</v>
+        <v>-1.1633634339899999</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.44988784073999999</v>
+        <v>-1.0833531037549999</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.37474170569999993</v>
+        <v>-0.79161177437999997</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.43650988265000001</v>
+        <v>-0.94881597811500007</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.42738560799999992</v>
+        <v>-0.91018465554999994</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.80139905834999992</v>
+        <v>-2.4540861572499999</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.33418713964999996</v>
+        <v>-1.4255627748499999</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.36223701718500007</v>
+        <v>-0.75756828504999985</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.95484513699999995</v>
+        <v>-1.4963062539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.13221589155666663</v>
+        <v>0.61443232928333336</v>
       </c>
       <c r="B24" s="0">
-        <v>0.22454222276666669</v>
+        <v>0.42205905501666674</v>
       </c>
       <c r="C24" s="0">
-        <v>0.27934347623166672</v>
+        <v>1.1868721015999999</v>
       </c>
       <c r="D24" s="0">
-        <v>0.01769223004000001</v>
+        <v>0.7240049161933334</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.12924201370666666</v>
+        <v>0.20827814885333334</v>
       </c>
       <c r="F24" s="0">
-        <v>0.15664148198333333</v>
+        <v>0.36950903363333332</v>
       </c>
       <c r="G24" s="0">
-        <v>0.30804266644666661</v>
+        <v>0.35125149596833327</v>
       </c>
       <c r="H24" s="0">
-        <v>0.23868446438333329</v>
+        <v>-0.07017757056666668</v>
       </c>
       <c r="I24" s="0">
-        <v>0.27498144858333329</v>
+        <v>0.923101647671</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.32299515971333337</v>
+        <v>0.45609759153333318</v>
       </c>
       <c r="K24" s="0">
-        <v>0.87680698056666662</v>
+        <v>1.9754477746166668</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.34385295253333337</v>
+        <v>-1.0628934495366666</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.27418148823633332</v>
+        <v>0.076000482803333352</v>
       </c>
       <c r="N24" s="0">
-        <v>-1.7179959364999999</v>
+        <v>0.52058585691666659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.14817577990333336</v>
+        <v>-0.00092177035000000351</v>
       </c>
       <c r="B25" s="0">
-        <v>0.33929207793833338</v>
+        <v>0.022293640633333334</v>
       </c>
       <c r="C25" s="0">
-        <v>0.35753980138571667</v>
+        <v>0.32608140825333337</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.0057967575933333543</v>
+        <v>-0.55155432980000008</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.19073994696966662</v>
+        <v>-0.80949837079166653</v>
       </c>
       <c r="F25" s="0">
-        <v>0.093113165533333334</v>
+        <v>0.14978607399166669</v>
       </c>
       <c r="G25" s="0">
-        <v>0.066169763858333328</v>
+        <v>0.26437230797333333</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.24364060838266666</v>
+        <v>-0.23131013349999996</v>
       </c>
       <c r="I25" s="0">
-        <v>0.2353997163166667</v>
+        <v>-0.12871660772333338</v>
       </c>
       <c r="J25" s="0">
-        <v>0.35270028401000003</v>
+        <v>0.012355252900666663</v>
       </c>
       <c r="K25" s="0">
-        <v>0.54668418223333337</v>
+        <v>0.53342980523333328</v>
       </c>
       <c r="L25" s="0">
-        <v>0.53427334688333328</v>
+        <v>1.1294343261666668</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.61551441961333331</v>
+        <v>-0.52238357093666665</v>
       </c>
       <c r="N25" s="0">
-        <v>0.34916030151666677</v>
+        <v>0.51478668578333342</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.53938630555</v>
+        <v>0.73007993276500005</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.43975574621500002</v>
+        <v>0.64663559684999994</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.74189403209999993</v>
+        <v>-0.22087175004999998</v>
       </c>
       <c r="D26" s="0">
-        <v>0.051389386149999966</v>
+        <v>-0.28986285065000006</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.40908023065499999</v>
+        <v>-0.61201334190000001</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.30259462178</v>
+        <v>-0.024146965700000023</v>
       </c>
       <c r="G26" s="0">
-        <v>-1.2405734475000001</v>
+        <v>0.18022088344999998</v>
       </c>
       <c r="H26" s="0">
-        <v>-1.2604656999500001</v>
+        <v>-0.335391094</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.364817586195</v>
+        <v>-0.40228371213499997</v>
       </c>
       <c r="J26" s="0">
-        <v>-1.7412101545000001</v>
+        <v>-0.80264156341999993</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.82689458980999997</v>
+        <v>0.26054610545000001</v>
       </c>
       <c r="L26" s="0">
-        <v>-1.0406832222</v>
+        <v>1.1547407105850001</v>
       </c>
       <c r="M26" s="0">
-        <v>-1.7496579324500001</v>
+        <v>-0.78609580042800009</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.48633502630000003</v>
+        <v>1.1268112194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.63639793879599993</v>
+        <v>0.67201233888333334</v>
       </c>
       <c r="B27" s="0">
-        <v>0.49369089405333333</v>
+        <v>0.83562987995333327</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.0071572871966666812</v>
+        <v>0.24538996025999998</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.32533350253333332</v>
+        <v>0.13369439796666668</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.3019947556476667</v>
+        <v>0.066256438155000041</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0086041837616666755</v>
+        <v>0.067916792251666663</v>
       </c>
       <c r="G27" s="0">
-        <v>0.081396155696666667</v>
+        <v>-0.083791405253333312</v>
       </c>
       <c r="H27" s="0">
-        <v>0.39374786642499998</v>
+        <v>0.15140671145000004</v>
       </c>
       <c r="I27" s="0">
-        <v>0.44455343359666671</v>
+        <v>0.6070988584646666</v>
       </c>
       <c r="J27" s="0">
-        <v>1.2008419305133333</v>
+        <v>1.0476950934833333</v>
       </c>
       <c r="K27" s="0">
-        <v>0.0041278527116666852</v>
+        <v>0.51051568606666664</v>
       </c>
       <c r="L27" s="0">
-        <v>0.089210203016666656</v>
+        <v>1.0387171664833335</v>
       </c>
       <c r="M27" s="0">
-        <v>-0.90450654516666673</v>
+        <v>-0.32182221625000001</v>
       </c>
       <c r="N27" s="0">
-        <v>0.040835378966666683</v>
+        <v>0.26017815001666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.70245175248533331</v>
+        <v>-0.37542473376666663</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.82823719686666664</v>
+        <v>-0.27649043035000004</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.50881166397666666</v>
+        <v>0.21006463347033341</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.5396479178750001</v>
+        <v>0.24902627810666664</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.39866444278166663</v>
+        <v>0.31776254231833334</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.25994049929399998</v>
+        <v>0.53825623682833323</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.28945296788333341</v>
+        <v>-0.088752993366666755</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.40817288609983332</v>
+        <v>-0.10552193402</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.28769351003999999</v>
+        <v>0.016667520419999991</v>
       </c>
       <c r="J28" s="0">
-        <v>0.32325137144666671</v>
+        <v>0.84829624539999993</v>
       </c>
       <c r="K28" s="0">
-        <v>-1.4559543706166664</v>
+        <v>-0.20851153658333335</v>
       </c>
       <c r="L28" s="0">
-        <v>-1.3616098217000001</v>
+        <v>0.10182743605000005</v>
       </c>
       <c r="M28" s="0">
-        <v>-1.1975088055500001</v>
+        <v>-0.13616120108333335</v>
       </c>
       <c r="N28" s="0">
-        <v>0.070389211733333235</v>
+        <v>0.58095045156666658</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.39746821400000004</v>
+        <v>0.23610620919666675</v>
       </c>
       <c r="B29" s="0">
-        <v>0.95361969739000008</v>
+        <v>0.78270366739999997</v>
       </c>
       <c r="C29" s="0">
-        <v>0.59862490810666669</v>
+        <v>0.16800982930000008</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.020139976133333376</v>
+        <v>-0.88571622726666666</v>
       </c>
       <c r="E29" s="0">
-        <v>0.27673054872833325</v>
+        <v>-0.24646541114999998</v>
       </c>
       <c r="F29" s="0">
-        <v>0.84939839938333339</v>
+        <v>0.32794158709999999</v>
       </c>
       <c r="G29" s="0">
-        <v>1.0819394621866667</v>
+        <v>0.72670456626666646</v>
       </c>
       <c r="H29" s="0">
-        <v>0.93955093860000005</v>
+        <v>0.27428327660000018</v>
       </c>
       <c r="I29" s="0">
-        <v>0.65862837521666673</v>
+        <v>0.36242718845000005</v>
       </c>
       <c r="J29" s="0">
-        <v>0.84162940549566656</v>
+        <v>0.63162079766666668</v>
       </c>
       <c r="K29" s="0">
-        <v>0.94977525080000003</v>
+        <v>-0.083269858261666663</v>
       </c>
       <c r="L29" s="0">
-        <v>0.50450265698333341</v>
+        <v>-0.18408701159999996</v>
       </c>
       <c r="M29" s="0">
-        <v>0.31549283430000008</v>
+        <v>-0.95057153425000007</v>
       </c>
       <c r="N29" s="0">
-        <v>0.57536452448333331</v>
+        <v>-0.1841922179333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.2377590057</v>
+        <v>-0.38891414345333336</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.42213561564000002</v>
+        <v>-0.39203542625000004</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.27911878139333335</v>
+        <v>-0.16072830198333332</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.32501764808599998</v>
+        <v>-0.1788832418066667</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.38435663622499999</v>
+        <v>-0.43064302357333334</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.47536329279</v>
+        <v>-0.43512676930499999</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.57089610570666671</v>
+        <v>-0.50295225735000004</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.58480789975233327</v>
+        <v>-0.56249337516333331</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.102859672215</v>
+        <v>0.043096120930000009</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.45567983666666667</v>
+        <v>-0.085037765725333309</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.43727285560999996</v>
+        <v>-0.19735832144999998</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.092595905766666653</v>
+        <v>-0.45348901661666674</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.82395365451666669</v>
+        <v>-0.93939954596333342</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.51445617557416667</v>
+        <v>-0.1863366806</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.48169345926999996</v>
+        <v>-0.71729716489999995</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.12977110873233336</v>
+        <v>0.040239599106666649</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.65815406840000001</v>
+        <v>-0.20125056296666666</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.49573225570000001</v>
+        <v>-0.37154751098666666</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.94178587874000008</v>
+        <v>-0.88234208956666671</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.92722772361999994</v>
+        <v>-0.56116787911866661</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.93647965123999999</v>
+        <v>-0.4987375906</v>
       </c>
       <c r="H31" s="0">
-        <v>-1.2533989113999999</v>
+        <v>-1.0229037313606666</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.91080291376666667</v>
+        <v>-0.74267572487666667</v>
       </c>
       <c r="J31" s="0">
-        <v>-1.47605401585</v>
+        <v>-1.1221694079833333</v>
       </c>
       <c r="K31" s="0">
-        <v>-1.2535397646166666</v>
+        <v>-0.71921152574333336</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.081496637950000006</v>
+        <v>0.26256218011666665</v>
       </c>
       <c r="M31" s="0">
-        <v>0.10857013069666671</v>
+        <v>-0.45516304735000002</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.10844218000333344</v>
+        <v>0.90843092708333328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.34544036670333333</v>
+        <v>0.28437604851666665</v>
       </c>
       <c r="B32" s="0">
-        <v>0.23605197991500002</v>
+        <v>0.40927641950833332</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.44866884789000006</v>
+        <v>0.057006657807333383</v>
       </c>
       <c r="D32" s="0">
-        <v>0.029535874599999998</v>
+        <v>0.15551563217933334</v>
       </c>
       <c r="E32" s="0">
-        <v>0.01821449881999998</v>
+        <v>0.12909777719999999</v>
       </c>
       <c r="F32" s="0">
-        <v>0.060610208866666682</v>
+        <v>-0.41823312030549997</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.39089595399666666</v>
+        <v>-0.083914549599999999</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.18422083846666668</v>
+        <v>0.071334133450000003</v>
       </c>
       <c r="I32" s="0">
-        <v>0.27511192721666666</v>
+        <v>0.16522850005166667</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.52395223798333324</v>
+        <v>-0.60672229365200003</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.4812527662133334</v>
+        <v>0.023436220331666646</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.15524543727333329</v>
+        <v>0.16630258545333332</v>
       </c>
       <c r="M32" s="0">
-        <v>0.39327632100000004</v>
+        <v>-0.0086825651396667258</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.29488025871999995</v>
+        <v>-0.58184341248333338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.36499247640533339</v>
+        <v>0.41432273774999995</v>
       </c>
       <c r="B33" s="0">
-        <v>0.7705176575399999</v>
+        <v>0.56719136253500002</v>
       </c>
       <c r="C33" s="0">
-        <v>0.83466484130833341</v>
+        <v>0.84192786111666673</v>
       </c>
       <c r="D33" s="0">
-        <v>0.43329496990000005</v>
+        <v>0.32478037835833334</v>
       </c>
       <c r="E33" s="0">
-        <v>0.53833471223283325</v>
+        <v>0.57582237076656662</v>
       </c>
       <c r="F33" s="0">
-        <v>0.21740747656333337</v>
+        <v>0.33294900445666664</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.075609370116666658</v>
+        <v>0.56985658331516664</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.11510814929099998</v>
+        <v>0.35059113461066671</v>
       </c>
       <c r="I33" s="0">
-        <v>0.91782021261666658</v>
+        <v>0.57151820531666664</v>
       </c>
       <c r="J33" s="0">
-        <v>0.87819117381666678</v>
+        <v>0.30350562506666667</v>
       </c>
       <c r="K33" s="0">
-        <v>0.28175684486333336</v>
+        <v>0.61694751801666659</v>
       </c>
       <c r="L33" s="0">
-        <v>0.35066850698166663</v>
+        <v>0.023511466016666704</v>
       </c>
       <c r="M33" s="0">
-        <v>0.41091233558333329</v>
+        <v>0.36251789795</v>
       </c>
       <c r="N33" s="0">
-        <v>1.6982762086683336</v>
+        <v>0.25991324537833332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.25896201449666667</v>
+        <v>-0.19688969036666668</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.40451074850333335</v>
+        <v>0.28852081546666669</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.65544338376666667</v>
+        <v>0.42745334966666665</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.5990375041999999</v>
+        <v>-0.032631471683000013</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.7201976122</v>
+        <v>-0.15717551820666667</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.43450055157666667</v>
+        <v>0.13689384605933336</v>
       </c>
       <c r="G34" s="0">
-        <v>0.040835835289999997</v>
+        <v>0.35284896070999999</v>
       </c>
       <c r="H34" s="0">
-        <v>0.085510947783333346</v>
+        <v>0.33171607587000002</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.8051879869666666</v>
+        <v>0.025393328443333342</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.80591938395333329</v>
+        <v>-0.47644899270333324</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.36030916137000002</v>
+        <v>0.65108875412666667</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.75876745546666668</v>
+        <v>-0.45256817156666662</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.89434313745666671</v>
+        <v>-0.47453313067666664</v>
       </c>
       <c r="N34" s="0">
-        <v>-1.0770873948799999</v>
+        <v>-0.34579710056666668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.78255601413333331</v>
+        <v>0.082158370466666658</v>
       </c>
       <c r="B35" s="0">
-        <v>0.69087682957999996</v>
+        <v>0.095401130943333384</v>
       </c>
       <c r="C35" s="0">
-        <v>0.47831709957333335</v>
+        <v>0.10878771819333333</v>
       </c>
       <c r="D35" s="0">
-        <v>0.46432936612666664</v>
+        <v>-0.067272276196666661</v>
       </c>
       <c r="E35" s="0">
-        <v>0.67570640909666668</v>
+        <v>0.13051313172999998</v>
       </c>
       <c r="F35" s="0">
-        <v>0.26677591360333336</v>
+        <v>-0.090973817286666675</v>
       </c>
       <c r="G35" s="0">
-        <v>0.68979043278666663</v>
+        <v>0.23862365577833333</v>
       </c>
       <c r="H35" s="0">
-        <v>0.3828589895761666</v>
+        <v>-0.103013395965</v>
       </c>
       <c r="I35" s="0">
-        <v>0.56674030507499995</v>
+        <v>0.26109358264166665</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.075978667396666671</v>
+        <v>-0.32604026978333334</v>
       </c>
       <c r="K35" s="0">
-        <v>0.6424873381566667</v>
+        <v>0.20631187445633337</v>
       </c>
       <c r="L35" s="0">
-        <v>0.54092981559999997</v>
+        <v>0.16844953996166667</v>
       </c>
       <c r="M35" s="0">
-        <v>0.26382156428333325</v>
+        <v>-0.74643451478</v>
       </c>
       <c r="N35" s="0">
-        <v>0.67571568683333338</v>
+        <v>-0.31621671029666654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.73989607756666664</v>
+        <v>-0.5942146287086667</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.69847699305000011</v>
+        <v>-0.58895816398333334</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.81458750891666676</v>
+        <v>-0.84858496292499996</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.74127850061333334</v>
+        <v>-0.81324966121666664</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.45521414527999998</v>
+        <v>-0.53059931952333328</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.91335565302833333</v>
+        <v>-0.55229838515000007</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.31218150300000003</v>
+        <v>0.38395981049666666</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.27757929571666667</v>
+        <v>0.14191971037523332</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.43186357497666672</v>
+        <v>-0.59530710127166664</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.15442003800000001</v>
+        <v>-0.86229596600000002</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.43645914860499996</v>
+        <v>-0.73877230590333332</v>
       </c>
       <c r="L36" s="0">
-        <v>0.01911598138499998</v>
+        <v>0.043951333706666665</v>
       </c>
       <c r="M36" s="0">
-        <v>0.11174241614999998</v>
+        <v>0.017304447724000027</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.70724424834999988</v>
+        <v>-1.7495569680666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.41864463356999992</v>
+        <v>0.24448892750666668</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.12649932971666669</v>
+        <v>-0.1685615590666667</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.23586799314999998</v>
+        <v>-0.17511233072333332</v>
       </c>
       <c r="D37" s="0">
-        <v>0.031593159108333324</v>
+        <v>-0.10525112477666668</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.15458855269666666</v>
+        <v>-0.193989782985</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.18301609988999998</v>
+        <v>-0.14399281758983334</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.69029307515000005</v>
+        <v>-0.45860231955333336</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.20550845065000004</v>
+        <v>-0.42622252651333331</v>
       </c>
       <c r="I37" s="0">
-        <v>0.0057300814633333419</v>
+        <v>-0.13689266396999997</v>
       </c>
       <c r="J37" s="0">
-        <v>1.5459441944000001</v>
+        <v>0.5678823109133333</v>
       </c>
       <c r="K37" s="0">
-        <v>0.10079034225000003</v>
+        <v>-0.39607440858333332</v>
       </c>
       <c r="L37" s="0">
-        <v>1.0209039808333333</v>
+        <v>1.3372916350399999</v>
       </c>
       <c r="M37" s="0">
-        <v>0.16849317383666668</v>
+        <v>1.0942135007333333</v>
       </c>
       <c r="N37" s="0">
-        <v>1.8874268462499999</v>
+        <v>2.1058353921491664</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.34072192960733338</v>
+        <v>0.027731572783333325</v>
       </c>
       <c r="B38" s="0">
-        <v>0.24207947623333337</v>
+        <v>-0.157296365065</v>
       </c>
       <c r="C38" s="0">
-        <v>0.35155752847666666</v>
+        <v>-0.49299605755333331</v>
       </c>
       <c r="D38" s="0">
-        <v>0.07301159016666664</v>
+        <v>0.25519922733333333</v>
       </c>
       <c r="E38" s="0">
-        <v>0.20045192971666659</v>
+        <v>0.63227893107333333</v>
       </c>
       <c r="F38" s="0">
-        <v>0.20695936576666685</v>
+        <v>-0.26337898168333335</v>
       </c>
       <c r="G38" s="0">
-        <v>0.33172719823333335</v>
+        <v>-0.012552094999999985</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.036159118696666659</v>
+        <v>0.29303223950000001</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.088226468333333363</v>
+        <v>0.16228069521666666</v>
       </c>
       <c r="J38" s="0">
-        <v>1.3440716213333332</v>
+        <v>0.044724593363333322</v>
       </c>
       <c r="K38" s="0">
-        <v>0.51624225278333324</v>
+        <v>-0.38583033574999998</v>
       </c>
       <c r="L38" s="0">
-        <v>0.17144073296666651</v>
+        <v>-0.30534163196333336</v>
       </c>
       <c r="M38" s="0">
-        <v>0.3782003630666666</v>
+        <v>0.24890272941666666</v>
       </c>
       <c r="N38" s="0">
-        <v>0.20528733271666666</v>
+        <v>-0.66852646771000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.14666304185499998</v>
+        <v>0.015604127249999988</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.057122951883333328</v>
+        <v>-0.12346830152666666</v>
       </c>
       <c r="C39" s="0">
-        <v>0.2261514389833334</v>
+        <v>-0.27758865391000004</v>
       </c>
       <c r="D39" s="0">
-        <v>0.51362246973333336</v>
+        <v>0.29979493971666665</v>
       </c>
       <c r="E39" s="0">
-        <v>0.48504466853000006</v>
+        <v>0.52161280440000013</v>
       </c>
       <c r="F39" s="0">
-        <v>0.70386293568333325</v>
+        <v>0.11265009943333337</v>
       </c>
       <c r="G39" s="0">
-        <v>0.73940044849999986</v>
+        <v>-0.15293394968333335</v>
       </c>
       <c r="H39" s="0">
-        <v>0.45499162182999997</v>
+        <v>0.32043445427333339</v>
       </c>
       <c r="I39" s="0">
-        <v>0.41206883608433331</v>
+        <v>0.84678775468</v>
       </c>
       <c r="J39" s="0">
-        <v>0.64760309099999991</v>
+        <v>0.8996645376950001</v>
       </c>
       <c r="K39" s="0">
-        <v>0.068041903433333342</v>
+        <v>-0.25821544006666675</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.95543247043666679</v>
+        <v>-0.08140479673833334</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.12262198854999999</v>
+        <v>0.10332911816666671</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.84627216007499995</v>
+        <v>1.1096054210166666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.54610465976</v>
+        <v>-0.23273074489666667</v>
       </c>
       <c r="B40" s="0">
-        <v>0.91195398313333331</v>
+        <v>0.092362866210000061</v>
       </c>
       <c r="C40" s="0">
-        <v>1.21079522219</v>
+        <v>0.1254224084783333</v>
       </c>
       <c r="D40" s="0">
-        <v>0.54413148986666671</v>
+        <v>-0.30596073621666658</v>
       </c>
       <c r="E40" s="0">
-        <v>0.27543294346333336</v>
+        <v>-0.20071782328333335</v>
       </c>
       <c r="F40" s="0">
-        <v>1.0784547373566666</v>
+        <v>0.61091496624999997</v>
       </c>
       <c r="G40" s="0">
-        <v>1.3827670542999999</v>
+        <v>0.97807757883333324</v>
       </c>
       <c r="H40" s="0">
-        <v>0.69237058883333336</v>
+        <v>0.55548284136666659</v>
       </c>
       <c r="I40" s="0">
-        <v>0.31159018853333331</v>
+        <v>-0.36402851396383329</v>
       </c>
       <c r="J40" s="0">
-        <v>0.6955231745349999</v>
+        <v>-0.15645285080000004</v>
       </c>
       <c r="K40" s="0">
-        <v>1.3305447462333333</v>
+        <v>0.12768882933333336</v>
       </c>
       <c r="L40" s="0">
-        <v>1.8898986526666668</v>
+        <v>0.14555513008333332</v>
       </c>
       <c r="M40" s="0">
-        <v>0.97687728878333324</v>
+        <v>0.8097712175166667</v>
       </c>
       <c r="N40" s="0">
-        <v>0.066008877183333259</v>
+        <v>0.07644503665000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.34673695230666668</v>
+        <v>0.39821608280000004</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.26814133173333338</v>
+        <v>0.44340493209999998</v>
       </c>
       <c r="C41" s="0">
-        <v>0.14834932836683334</v>
+        <v>0.62130715731666664</v>
       </c>
       <c r="D41" s="0">
-        <v>0.73598773635833337</v>
+        <v>0.097266166168333321</v>
       </c>
       <c r="E41" s="0">
-        <v>0.6378108858</v>
+        <v>0.27155624615000001</v>
       </c>
       <c r="F41" s="0">
-        <v>0.92935686140000007</v>
+        <v>0.42110336300666662</v>
       </c>
       <c r="G41" s="0">
-        <v>0.47951017681874997</v>
+        <v>0.24131370521500001</v>
       </c>
       <c r="H41" s="0">
-        <v>0.20742897397283333</v>
+        <v>-0.13385034828666667</v>
       </c>
       <c r="I41" s="0">
-        <v>0.36902919776999998</v>
+        <v>0.033476193362666669</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.48304898565333343</v>
+        <v>0.15604445419833329</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.58628567035000001</v>
+        <v>0.16556464798333334</v>
       </c>
       <c r="L41" s="0">
-        <v>0.24114341074333334</v>
+        <v>-0.096610086690000055</v>
       </c>
       <c r="M41" s="0">
-        <v>0.99919794769999992</v>
+        <v>-0.65374184902333332</v>
       </c>
       <c r="N41" s="0">
-        <v>1.3147270259333332</v>
+        <v>0.81075226711000004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.30655053131000004</v>
+        <v>-0.47044576831000001</v>
       </c>
       <c r="B42" s="0">
-        <v>0.53594443587999996</v>
+        <v>-0.49869973428333336</v>
       </c>
       <c r="C42" s="0">
-        <v>0.47485842719899996</v>
+        <v>-0.27452162996166674</v>
       </c>
       <c r="D42" s="0">
-        <v>0.37614362755666669</v>
+        <v>-0.29614888540333334</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.39434088981333332</v>
+        <v>-0.92374328409999995</v>
       </c>
       <c r="F42" s="0">
-        <v>0.63719133569666664</v>
+        <v>0.37696433708333332</v>
       </c>
       <c r="G42" s="0">
-        <v>0.29365217755</v>
+        <v>-0.12550261453849998</v>
       </c>
       <c r="H42" s="0">
-        <v>0.61556556968666665</v>
+        <v>0.19045831271499994</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.014724504766666702</v>
+        <v>-0.46687037517999996</v>
       </c>
       <c r="J42" s="0">
-        <v>0.36433832017000012</v>
+        <v>0.0041823913216665898</v>
       </c>
       <c r="K42" s="0">
-        <v>0.98769451431666666</v>
+        <v>0.24089012290166673</v>
       </c>
       <c r="L42" s="0">
-        <v>0.97224379176666664</v>
+        <v>0.21567761105</v>
       </c>
       <c r="M42" s="0">
-        <v>0.71557972619999999</v>
+        <v>-0.57462168506</v>
       </c>
       <c r="N42" s="0">
-        <v>1.1662104859899998</v>
+        <v>0.44663763710000004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.41820942308333342</v>
+        <v>-0.52583207300000001</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.083807832844999985</v>
+        <v>-0.0062225852150000205</v>
       </c>
       <c r="C43" s="0">
-        <v>0.23691986408333332</v>
+        <v>0.28182648213333333</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.40720968915000005</v>
+        <v>-0.33161000530000001</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.38951954013200002</v>
+        <v>-0.53327829430000007</v>
       </c>
       <c r="F43" s="0">
-        <v>0.41675576601666664</v>
+        <v>0.28238270441666669</v>
       </c>
       <c r="G43" s="0">
-        <v>0.8137140726933334</v>
+        <v>0.88949821270666662</v>
       </c>
       <c r="H43" s="0">
-        <v>0.60265992897500009</v>
+        <v>0.47769516665</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.29294725166666669</v>
+        <v>-0.23009326515966666</v>
       </c>
       <c r="J43" s="0">
-        <v>0.51315226153666671</v>
+        <v>1.5797803772666668</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.15289095961500002</v>
+        <v>-0.019549582666666704</v>
       </c>
       <c r="L43" s="0">
-        <v>0.010821086143333297</v>
+        <v>0.23581473435</v>
       </c>
       <c r="M43" s="0">
-        <v>0.055376490403333339</v>
+        <v>0.22540612364999998</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.65480030465166672</v>
+        <v>0.0099862516133333301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.071298476779999995</v>
+        <v>-0.19136842955166664</v>
       </c>
       <c r="B44" s="0">
-        <v>0.353156351255</v>
+        <v>-0.12724463672</v>
       </c>
       <c r="C44" s="0">
-        <v>0.69028196483000004</v>
+        <v>-0.0052018197583333647</v>
       </c>
       <c r="D44" s="0">
-        <v>0.65411504832333334</v>
+        <v>0.24416792739999998</v>
       </c>
       <c r="E44" s="0">
-        <v>0.51131529096333339</v>
+        <v>0.31665086703333334</v>
       </c>
       <c r="F44" s="0">
-        <v>1.7275296638166666</v>
+        <v>0.84525030493333331</v>
       </c>
       <c r="G44" s="0">
-        <v>0.95129131134833333</v>
+        <v>0.16296630865666656</v>
       </c>
       <c r="H44" s="0">
-        <v>0.61918682521666668</v>
+        <v>0.20964737637950001</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.21579613270166664</v>
+        <v>-0.27526164223333338</v>
       </c>
       <c r="J44" s="0">
-        <v>0.45480534063333333</v>
+        <v>0.52353300691333327</v>
       </c>
       <c r="K44" s="0">
-        <v>1.1700392678933333</v>
+        <v>1.2364008034166667</v>
       </c>
       <c r="L44" s="0">
-        <v>0.35265898121666661</v>
+        <v>0.18214855785333331</v>
       </c>
       <c r="M44" s="0">
-        <v>0.23433442643333338</v>
+        <v>0.72516268016666663</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.40998341526666671</v>
+        <v>-0.23969228176666668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.57193960046666659</v>
+        <v>0.28949574089999996</v>
       </c>
       <c r="B45" s="0">
-        <v>0.34004563615200006</v>
+        <v>-0.054489323460000127</v>
       </c>
       <c r="C45" s="0">
-        <v>0.41675181009333323</v>
+        <v>0.36790246760000006</v>
       </c>
       <c r="D45" s="0">
-        <v>0.25399099308666667</v>
+        <v>0.082628650550000016</v>
       </c>
       <c r="E45" s="0">
-        <v>0.067321998150000006</v>
+        <v>0.59576440580000001</v>
       </c>
       <c r="F45" s="0">
-        <v>0.078170329883333278</v>
+        <v>0.21542645223666668</v>
       </c>
       <c r="G45" s="0">
-        <v>0.083483270026666667</v>
+        <v>0.4006061207433334</v>
       </c>
       <c r="H45" s="0">
-        <v>0.47892270858666658</v>
+        <v>0.3936612460833333</v>
       </c>
       <c r="I45" s="0">
-        <v>0.45255190503333331</v>
+        <v>-0.10872614967666666</v>
       </c>
       <c r="J45" s="0">
-        <v>1.1709639150166666</v>
+        <v>1.1777275538999998</v>
       </c>
       <c r="K45" s="0">
-        <v>0.055239611266666655</v>
+        <v>0.64957801469999998</v>
       </c>
       <c r="L45" s="0">
-        <v>0.29808428451666663</v>
+        <v>-0.22698306960000003</v>
       </c>
       <c r="M45" s="0">
-        <v>0.55250561188333336</v>
+        <v>0.45790368860266673</v>
       </c>
       <c r="N45" s="0">
-        <v>1.4330260973833333</v>
+        <v>1.8411490580000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.030233139039999968</v>
+        <v>0.11669465929999989</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.12079909536500004</v>
+        <v>-0.081573909744999951</v>
       </c>
       <c r="C46" s="0">
-        <v>0.055958433204999991</v>
+        <v>0.084552081150000069</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.41901610104999998</v>
+        <v>-0.10937413870000001</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.57537408526</v>
+        <v>-0.47087883697499999</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.0027381016949999948</v>
+        <v>-0.27706861681499995</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.43804753374999994</v>
+        <v>-0.66644861964999991</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.52842312716500006</v>
+        <v>-0.59532432818499992</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.57959848180000006</v>
+        <v>-0.48967194274999998</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.15442354450499995</v>
+        <v>-0.04374407690000004</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.27540622954999994</v>
+        <v>-0.3474051834250001</v>
       </c>
       <c r="L46" s="0">
-        <v>0.46061665995000001</v>
+        <v>0.38109273534999999</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.11168172394999998</v>
+        <v>0.127473163</v>
       </c>
       <c r="N46" s="0">
-        <v>0.84847012649999987</v>
+        <v>1.0995783588500001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.04137116041333333</v>
+        <v>0.51217405205333333</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.79302317050333337</v>
+        <v>-0.45190164937333333</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.0442115493166666</v>
+        <v>-0.86534873986666661</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.71246819300000008</v>
+        <v>-0.66008002707333324</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.053849615499999948</v>
+        <v>-0.37686788464999998</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.24865481204000003</v>
+        <v>-0.50409887509333329</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.42867386926166667</v>
+        <v>-0.36564209031666672</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.15503743601</v>
+        <v>-0.20263201836233335</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.92609368008333337</v>
+        <v>-0.78247841824999997</v>
       </c>
       <c r="J47" s="0">
-        <v>-1.7035206959733333</v>
+        <v>-1.8574312041999999</v>
       </c>
       <c r="K47" s="0">
-        <v>-0.93156129266666676</v>
+        <v>-1.1920906860666667</v>
       </c>
       <c r="L47" s="0">
-        <v>-0.70029367831666667</v>
+        <v>-0.77195516178333345</v>
       </c>
       <c r="M47" s="0">
-        <v>-0.90194373141666673</v>
+        <v>-1.2205709553499999</v>
       </c>
       <c r="N47" s="0">
-        <v>-1.2276538211333334</v>
+        <v>-0.6692067889333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.03582743782500003</v>
+        <v>-0.25796456528</v>
       </c>
       <c r="B48" s="0">
-        <v>0.16648477651000002</v>
+        <v>-0.10462050645500001</v>
       </c>
       <c r="C48" s="0">
-        <v>0.34300748036500001</v>
+        <v>0.017802199500000004</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.04001805125000002</v>
+        <v>-0.0043789061500000281</v>
       </c>
       <c r="E48" s="0">
-        <v>0.1445988825</v>
+        <v>-0.07848503754999997</v>
       </c>
       <c r="F48" s="0">
-        <v>0.40403235955</v>
+        <v>0.13923722230000002</v>
       </c>
       <c r="G48" s="0">
-        <v>0.36969625934999994</v>
+        <v>0.04602055464999999</v>
       </c>
       <c r="H48" s="0">
-        <v>0.15627400670000002</v>
+        <v>-0.086385999349999992</v>
       </c>
       <c r="I48" s="0">
-        <v>0.039979507649999968</v>
+        <v>0.097794148049999988</v>
       </c>
       <c r="J48" s="0">
-        <v>0.27355558854999995</v>
+        <v>0.30164967235000001</v>
       </c>
       <c r="K48" s="0">
-        <v>1.072404766</v>
+        <v>0.84444941924000005</v>
       </c>
       <c r="L48" s="0">
-        <v>0.43895575986999996</v>
+        <v>0.12690561543250004</v>
       </c>
       <c r="M48" s="0">
-        <v>0.0090294363499999614</v>
+        <v>0.54332651784999997</v>
       </c>
       <c r="N48" s="0">
-        <v>1.87881294265</v>
+        <v>1.5883927073000002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>-0.26630776445000004</v>
+        <v>0.90000210843000006</v>
       </c>
       <c r="B49" s="0">
-        <v>0.033622078150000068</v>
+        <v>0.82845445902500003</v>
       </c>
       <c r="C49" s="0">
-        <v>0.44627370789049997</v>
+        <v>1.0542499477499998</v>
       </c>
       <c r="D49" s="0">
-        <v>0.22971130874500001</v>
+        <v>0.61022365835000003</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.067366974849999983</v>
+        <v>0.29097717181999999</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.16803179779499999</v>
+        <v>0.42797787998500003</v>
       </c>
       <c r="G49" s="0">
-        <v>-0.13986312165000003</v>
+        <v>0.26596995560500003</v>
       </c>
       <c r="H49" s="0">
-        <v>-0.077066093900000021</v>
+        <v>0.34417060589999998</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.052900320200000017</v>
+        <v>0.34867526207999999</v>
       </c>
       <c r="J49" s="0">
-        <v>1.3189100034949999</v>
+        <v>0.9930054204955</v>
       </c>
       <c r="K49" s="0">
-        <v>-0.36044226830000003</v>
+        <v>0.79138140039999993</v>
       </c>
       <c r="L49" s="0">
-        <v>-0.032460173499999967</v>
+        <v>0.47895617120000011</v>
       </c>
       <c r="M49" s="0">
-        <v>0.064910428899999983</v>
+        <v>0.75814560699999989</v>
       </c>
       <c r="N49" s="0">
-        <v>0.20883007341000015</v>
+        <v>1.3662520844500001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>-0.12958311089999996</v>
+        <v>0.56831165875</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.006029400800000001</v>
+        <v>0.33517936447000002</v>
       </c>
       <c r="C50" s="0">
-        <v>0.060330299866666673</v>
+        <v>0.16373388035000003</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.048050004150000047</v>
+        <v>0.11965944994999998</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.13228730557666668</v>
+        <v>-0.085003828684999949</v>
       </c>
       <c r="F50" s="0">
-        <v>0.46974369051500003</v>
+        <v>0.37461137634999997</v>
       </c>
       <c r="G50" s="0">
-        <v>0.51820544346666664</v>
+        <v>0.84795990515000008</v>
       </c>
       <c r="H50" s="0">
-        <v>0.35402185091333338</v>
+        <v>0.64618651304999997</v>
       </c>
       <c r="I50" s="0">
-        <v>0.38082103107333332</v>
+        <v>0.24034622525000005</v>
       </c>
       <c r="J50" s="0">
-        <v>0.77230427767099996</v>
+        <v>0.51621820523499995</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.25530865831666671</v>
+        <v>-0.50958490899999997</v>
       </c>
       <c r="L50" s="0">
-        <v>0.57774658918333333</v>
+        <v>-0.40931051128000001</v>
       </c>
       <c r="M50" s="0">
-        <v>-0.018561341999999998</v>
+        <v>0.19186221539499998</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.4591423644</v>
+        <v>-1.1051632372</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.6081474923800001</v>
+        <v>-0.033948460650000012</v>
       </c>
       <c r="B51" s="0">
-        <v>0.056876007549999996</v>
+        <v>-0.42256538571299984</v>
       </c>
       <c r="C51" s="0">
-        <v>-0.072174562400000086</v>
+        <v>-0.92113025595000009</v>
       </c>
       <c r="D51" s="0">
-        <v>0.16791102140000003</v>
+        <v>-0.57540328201500002</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.43853487009999997</v>
+        <v>-1.2934449734</v>
       </c>
       <c r="F51" s="0">
-        <v>0.05806627084999999</v>
+        <v>-0.41243627423499996</v>
       </c>
       <c r="G51" s="0">
-        <v>0.66598936526999986</v>
+        <v>0.20928471844999974</v>
       </c>
       <c r="H51" s="0">
-        <v>0.58004278619000005</v>
+        <v>-0.017211599949999989</v>
       </c>
       <c r="I51" s="0">
-        <v>0.43058850393850001</v>
+        <v>-0.03178343035000003</v>
       </c>
       <c r="J51" s="0">
-        <v>1.7301409373449999</v>
+        <v>1.4239565588999998</v>
       </c>
       <c r="K51" s="0">
-        <v>0.7038551743</v>
+        <v>-0.49630176322500008</v>
       </c>
       <c r="L51" s="0">
-        <v>0.64875478819999999</v>
+        <v>-0.66025966889999987</v>
       </c>
       <c r="M51" s="0">
-        <v>0.13663683143550004</v>
+        <v>-1.0934824093</v>
       </c>
       <c r="N51" s="0">
-        <v>0.014547248299999982</v>
+        <v>-1.2465577702499999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.38844665884999996</v>
+        <v>-0.57028617085000011</v>
       </c>
       <c r="B52" s="0">
-        <v>0.75673135939999991</v>
+        <v>-0.54767833494999996</v>
       </c>
       <c r="C52" s="0">
-        <v>0.80150811066999994</v>
+        <v>0.40312841209999994</v>
       </c>
       <c r="D52" s="0">
-        <v>0.76675140359999994</v>
+        <v>0.64520540550000005</v>
       </c>
       <c r="E52" s="0">
-        <v>0.912155487845</v>
+        <v>0.84695704689999995</v>
       </c>
       <c r="F52" s="0">
-        <v>0.43469255825000003</v>
+        <v>0.63426816375000006</v>
       </c>
       <c r="G52" s="0">
-        <v>0.59780492245000005</v>
+        <v>0.21107459378499993</v>
       </c>
       <c r="H52" s="0">
-        <v>0.49601676038499998</v>
+        <v>0.42299399913500002</v>
       </c>
       <c r="I52" s="0">
-        <v>0.44533097930000004</v>
+        <v>0.29373173081000004</v>
       </c>
       <c r="J52" s="0">
-        <v>0.69511986922000002</v>
+        <v>0.19072958120000005</v>
       </c>
       <c r="K52" s="0">
-        <v>0.55121460391499999</v>
+        <v>0.031060001849999984</v>
       </c>
       <c r="L52" s="0">
-        <v>1.3582321799999999</v>
+        <v>0.89281950579500002</v>
       </c>
       <c r="M52" s="0">
-        <v>0.44530458268000001</v>
+        <v>0.4358516281</v>
       </c>
       <c r="N52" s="0">
-        <v>2.0243624743500002</v>
+        <v>1.63443926585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>-0.60043940160000009</v>
+        <v>-0.64041765225000002</v>
       </c>
       <c r="B53" s="0">
-        <v>-0.165540792035</v>
+        <v>0.099138715199999991</v>
       </c>
       <c r="C53" s="0">
-        <v>0.082731531684999998</v>
+        <v>0.061152871199999986</v>
       </c>
       <c r="D53" s="0">
-        <v>0.010376730350000085</v>
+        <v>-0.40271523245000002</v>
       </c>
       <c r="E53" s="0">
-        <v>0.2359322879500001</v>
+        <v>-0.061905877349999971</v>
       </c>
       <c r="F53" s="0">
-        <v>0.22426425521999999</v>
+        <v>0.0078527945049999964</v>
       </c>
       <c r="G53" s="0">
-        <v>0.43424018704</v>
+        <v>0.44272748997</v>
       </c>
       <c r="H53" s="0">
-        <v>0.18463068574499999</v>
+        <v>0.50785625629999998</v>
       </c>
       <c r="I53" s="0">
-        <v>0.0095842030000000134</v>
+        <v>0.072990685280000023</v>
       </c>
       <c r="J53" s="0">
-        <v>0.031173121599999964</v>
+        <v>-0.0087658969499999906</v>
       </c>
       <c r="K53" s="0">
-        <v>1.1859677202500001</v>
+        <v>1.33047208465</v>
       </c>
       <c r="L53" s="0">
-        <v>-0.044081079235000015</v>
+        <v>0.0046093837800000158</v>
       </c>
       <c r="M53" s="0">
-        <v>-2.2463942788</v>
+        <v>-2.0410842904500002</v>
       </c>
       <c r="N53" s="0">
-        <v>0.62863754524999993</v>
+        <v>-0.13956971094000006</v>
       </c>
     </row>
   </sheetData>

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="854">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -2515,46 +2641,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="896">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -2641,46 +2767,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -415,46 +499,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -499,46 +541,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -541,46 +751,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_left.xlsx
+++ b/code/h2_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -751,46 +793,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
